--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1136,16 +1136,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2"/>
-    <col min="2" max="2" width="78.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.75" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="78.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,11 +2050,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="52.625" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2165,6 +2165,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>47</v>
+      </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
@@ -2179,9 +2182,6 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
       <c r="B9" t="s">
         <v>65</v>
       </c>
@@ -2410,8 +2410,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="B11" s="5">
         <f>B12</f>
-        <v>7040</v>
+        <v>7340</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B12" s="5">
         <f>VLOOKUP(A12,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
-        <v>7040</v>
+        <v>7340</v>
       </c>
     </row>
   </sheetData>
@@ -2530,12 +2530,14 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2632,7 @@
       </c>
       <c r="B11" s="23">
         <f>B12</f>
-        <v>10.37</v>
+        <v>15.44</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2639,7 +2641,7 @@
       </c>
       <c r="B12" s="23">
         <f>VLOOKUP(A12,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
-        <v>10.37</v>
+        <v>15.44</v>
       </c>
     </row>
   </sheetData>
@@ -2655,8 +2657,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -2721,13 +2723,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -6952,14 +6954,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="22.375" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="28.125" customWidth="1"/>
+    <col min="4" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\US\Models\eps-1.2.3 WIP-K\InputData\elec\CCaMC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12840"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <sheet name="Cost Improvement" sheetId="11" r:id="rId6"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="149">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -452,12 +457,27 @@
   </si>
   <si>
     <t>and the model handles calculations for subsequent years.  (We do not use EIA for the start year solar and wind</t>
+  </si>
+  <si>
+    <t>Model Power Plant Quality</t>
+  </si>
+  <si>
+    <t>preexisting retiring</t>
+  </si>
+  <si>
+    <t>newly built</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>preexisting nonretiring</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -841,6 +861,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -888,7 +911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -923,7 +946,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1134,7 +1157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2044,352 +2067,406 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="30" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2917</v>
       </c>
-      <c r="D2" s="23">
+      <c r="E2" s="23">
         <v>4.47</v>
       </c>
-      <c r="E2" s="23">
+      <c r="F2" s="23">
         <v>31.16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3727</v>
       </c>
-      <c r="D3" s="23">
+      <c r="E3" s="23">
         <v>7.22</v>
       </c>
-      <c r="E3" s="23">
+      <c r="F3" s="23">
         <v>51.37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6492</v>
       </c>
-      <c r="D4" s="23">
+      <c r="E4" s="23">
         <v>8.44</v>
       </c>
-      <c r="E4" s="23">
+      <c r="F4" s="23">
         <v>72.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>912</v>
       </c>
-      <c r="D5" s="23">
+      <c r="E5" s="23">
         <v>3.6</v>
       </c>
-      <c r="E5" s="23">
+      <c r="F5" s="23">
         <v>13.16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" t="s">
         <v>62</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1017</v>
       </c>
-      <c r="D6" s="23">
+      <c r="E6" s="23">
         <v>3.27</v>
       </c>
-      <c r="E6" s="23">
+      <c r="F6" s="23">
         <v>15.36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2072</v>
       </c>
-      <c r="D7" s="23">
+      <c r="E7" s="23">
         <v>6.78</v>
       </c>
-      <c r="E7" s="23">
+      <c r="F7" s="23">
         <v>31.77</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>968</v>
       </c>
-      <c r="D8" s="23">
+      <c r="E8" s="23">
         <v>15.44</v>
       </c>
-      <c r="E8" s="23">
+      <c r="F8" s="23">
         <v>7.34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" t="s">
         <v>65</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>671</v>
       </c>
-      <c r="D9" s="23">
+      <c r="E9" s="23">
         <v>10.37</v>
       </c>
-      <c r="E9" s="23">
+      <c r="F9" s="23">
         <v>7.04</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6978</v>
       </c>
-      <c r="D10" s="23">
+      <c r="E10" s="23">
         <v>42.97</v>
       </c>
-      <c r="E10" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>5366</v>
       </c>
-      <c r="D11" s="23">
+      <c r="E11" s="23">
         <v>2.14</v>
       </c>
-      <c r="E11" s="23">
+      <c r="F11" s="23">
         <v>93.23</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1477</v>
       </c>
-      <c r="D12" s="23">
+      <c r="E12" s="23">
         <v>7.75</v>
       </c>
-      <c r="E12" s="23">
+      <c r="F12" s="23">
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>69</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1744</v>
       </c>
-      <c r="D13" s="23">
+      <c r="E13" s="23">
         <v>7.75</v>
       </c>
-      <c r="E13" s="23">
+      <c r="F13" s="23">
         <v>17.440000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3659</v>
       </c>
-      <c r="D14" s="23">
+      <c r="E14" s="23">
         <v>5.26</v>
       </c>
-      <c r="E14" s="23">
+      <c r="F14" s="23">
         <v>105.58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2448</v>
       </c>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
       <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="23">
         <v>112.85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>70</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>8271</v>
       </c>
-      <c r="D16" s="23">
+      <c r="E16" s="23">
         <v>8.74</v>
       </c>
-      <c r="E16" s="23">
+      <c r="F16" s="23">
         <v>392.6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
         <v>71</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2651</v>
       </c>
-      <c r="D17" s="23">
+      <c r="E17" s="23">
         <v>5.76</v>
       </c>
-      <c r="E17" s="23">
+      <c r="F17" s="23">
         <v>15.15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="31">
+      <c r="B18" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="31">
         <v>1980</v>
       </c>
-      <c r="D18" s="23">
-        <v>0</v>
-      </c>
       <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
         <v>39.53</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6154</v>
       </c>
-      <c r="D19" s="23">
-        <v>0</v>
-      </c>
       <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
         <v>73.959999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4052</v>
       </c>
-      <c r="D20" s="23">
-        <v>0</v>
-      </c>
       <c r="E20" s="23">
+        <v>0</v>
+      </c>
+      <c r="F20" s="23">
         <v>67.23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="31">
+      <c r="D21" s="31">
         <v>3279</v>
       </c>
-      <c r="D21" s="23">
-        <v>0</v>
-      </c>
       <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="23">
         <v>24.68</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -2404,103 +2481,179 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="B1" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="5">
-        <f>VLOOKUP(A2,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F2*1000</f>
+        <v>31160</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'EIA Costs'!F4*1000</f>
         <v>72800</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="5">
-        <f>VLOOKUP(A3,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F5*1000</f>
+        <v>13160</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <f>'EIA Costs'!F6*1000</f>
         <v>15360</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="5">
-        <f>VLOOKUP(A4,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F11*1000</f>
         <v>93230</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <f>'EIA Costs'!F11*1000</f>
+        <v>93230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="5">
-        <f>VLOOKUP(A5,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F17*1000</f>
         <v>15150</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <f>'EIA Costs'!F17*1000</f>
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="5">
-        <f>VLOOKUP(A6,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F18*1000</f>
         <v>39530</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <f>'EIA Costs'!F18*1000</f>
+        <v>39530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="5">
-        <f>VLOOKUP(A7,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F21*1000</f>
         <v>24680</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <f>'EIA Costs'!F21*1000</f>
+        <v>24680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="5">
-        <f>VLOOKUP(A8,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F20*1000</f>
         <v>67230</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <f>'EIA Costs'!F20*1000</f>
+        <v>67230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="5">
-        <f>VLOOKUP(A9,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F14*1000</f>
         <v>105580</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <f>'EIA Costs'!F14*1000</f>
+        <v>105580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="5">
-        <f>VLOOKUP(A10,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F15*1000</f>
         <v>112850</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f>'EIA Costs'!F15*1000</f>
+        <v>112850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -2508,18 +2661,33 @@
         <f>B12</f>
         <v>7340</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <f>D12</f>
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="5">
-        <f>VLOOKUP(A12,'EIA Costs'!$A$2:$E$21,5,FALSE)*1000</f>
+        <f>'EIA Costs'!F8*1000</f>
         <v>7340</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <f>'EIA Costs'!F9*1000</f>
+        <v>7040</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2528,105 +2696,178 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" style="30" customWidth="1"/>
+    <col min="2" max="4" width="24" style="30" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="B1" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="23">
-        <f>VLOOKUP(A2,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
+        <f>'EIA Costs'!E2</f>
+        <v>4.47</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0</v>
+      </c>
+      <c r="D2" s="23">
+        <f>'EIA Costs'!E4</f>
         <v>8.44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="23">
-        <f>VLOOKUP(A3,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
+        <f>'EIA Costs'!E5</f>
+        <v>3.6</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23">
+        <f>'EIA Costs'!E6</f>
         <v>3.27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="23">
-        <f>VLOOKUP(A4,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
+        <f>'EIA Costs'!E11</f>
         <v>2.14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <f>'EIA Costs'!E11</f>
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="23">
-        <f>VLOOKUP(A5,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
+        <f>'EIA Costs'!E17</f>
         <v>5.76</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="23">
+        <f>'EIA Costs'!E17</f>
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="23">
-        <f>VLOOKUP(A6,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="5">
+        <f>'EIA Costs'!E18</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <f>'EIA Costs'!E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="23">
-        <f>VLOOKUP(A7,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="5">
+        <f>'EIA Costs'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <f>'EIA Costs'!E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="23">
-        <f>VLOOKUP(A8,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="5">
+        <f>'EIA Costs'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <f>'EIA Costs'!E20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="23">
-        <f>VLOOKUP(A9,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
+        <f>'EIA Costs'!E14</f>
         <v>5.26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="23">
+        <f>'EIA Costs'!E14</f>
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="23">
-        <f>VLOOKUP(A10,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <f>'EIA Costs'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f>'EIA Costs'!E15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>46</v>
       </c>
@@ -2634,14 +2875,28 @@
         <f>B12</f>
         <v>15.44</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="23">
+        <f>D12</f>
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>47</v>
       </c>
       <c r="B12" s="23">
-        <f>VLOOKUP(A12,'EIA Costs'!$A$2:$E$21,4,FALSE)</f>
+        <f>'EIA Costs'!E8</f>
         <v>15.44</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
+        <f>'EIA Costs'!E9</f>
+        <v>10.37</v>
       </c>
     </row>
   </sheetData>
@@ -7007,19 +7262,19 @@
         <v>2015</v>
       </c>
       <c r="B2" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B75*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B75*1000*About!$A$66</f>
         <v>6407604</v>
       </c>
       <c r="C2" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C75*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C75*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D2" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D75*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D75*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E2" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E75*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E75*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F2" s="27">
@@ -7031,23 +7286,23 @@
         <v>1501862.6309662398</v>
       </c>
       <c r="H2" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H75*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H75*1000*About!$A$66</f>
         <v>3999324</v>
       </c>
       <c r="I2" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I75*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I75*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J2" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J75*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J75*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K2" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K75*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K75*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L2" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L75*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L75*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7056,19 +7311,19 @@
         <v>2016</v>
       </c>
       <c r="B3" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B76*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B76*1000*About!$A$66</f>
         <v>6249983.7946524061</v>
       </c>
       <c r="C3" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C76*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C76*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D3" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D76*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D76*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E3" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E76*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E76*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F3" s="5">
@@ -7078,23 +7333,23 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H76*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H76*1000*About!$A$66</f>
         <v>3967564.6623529415</v>
       </c>
       <c r="I3" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I76*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I76*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J3" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J76*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J76*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K3" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K76*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K76*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L3" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L76*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L76*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7103,19 +7358,19 @@
         <v>2017</v>
       </c>
       <c r="B4" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B77*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B77*1000*About!$A$66</f>
         <v>6092363.5893048132</v>
       </c>
       <c r="C4" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C77*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C77*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D4" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D77*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D77*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E4" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E77*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E77*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F4" s="5">
@@ -7125,23 +7380,23 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H77*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H77*1000*About!$A$66</f>
         <v>3935805.324705882</v>
       </c>
       <c r="I4" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I77*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I77*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J4" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J77*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J77*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K4" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K77*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K77*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L4" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L77*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L77*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7150,19 +7405,19 @@
         <v>2018</v>
       </c>
       <c r="B5" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B78*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B78*1000*About!$A$66</f>
         <v>5934743.3839572193</v>
       </c>
       <c r="C5" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C78*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C78*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D5" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D78*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D78*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E5" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E78*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E78*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F5" s="5">
@@ -7172,23 +7427,23 @@
         <v>0</v>
       </c>
       <c r="H5" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H78*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H78*1000*About!$A$66</f>
         <v>3904045.9870588239</v>
       </c>
       <c r="I5" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I78*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I78*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J5" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J78*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J78*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K5" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K78*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K78*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L5" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L78*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L78*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7197,19 +7452,19 @@
         <v>2019</v>
       </c>
       <c r="B6" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B79*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B79*1000*About!$A$66</f>
         <v>5777123.1786096254</v>
       </c>
       <c r="C6" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C79*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C79*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D6" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D79*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D79*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E6" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E79*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E79*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F6" s="5">
@@ -7219,23 +7474,23 @@
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H79*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H79*1000*About!$A$66</f>
         <v>3872286.6494117649</v>
       </c>
       <c r="I6" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I79*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I79*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J6" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J79*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J79*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K6" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K79*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K79*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L6" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L79*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L79*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7244,19 +7499,19 @@
         <v>2020</v>
       </c>
       <c r="B7" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B80*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B80*1000*About!$A$66</f>
         <v>5619502.9732620316</v>
       </c>
       <c r="C7" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C80*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C80*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D7" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D80*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D80*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E7" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E80*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E80*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F7" s="5">
@@ -7266,23 +7521,23 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H80*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H80*1000*About!$A$66</f>
         <v>3840527.3117647059</v>
       </c>
       <c r="I7" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I80*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I80*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J7" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J80*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J80*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K7" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K80*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K80*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L7" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L80*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L80*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7291,19 +7546,19 @@
         <v>2021</v>
       </c>
       <c r="B8" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B81*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B81*1000*About!$A$66</f>
         <v>5461882.7679144386</v>
       </c>
       <c r="C8" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C81*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C81*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D8" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D81*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D81*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E8" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E81*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E81*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F8" s="5">
@@ -7313,23 +7568,23 @@
         <v>0</v>
       </c>
       <c r="H8" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H81*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H81*1000*About!$A$66</f>
         <v>3768774.7341176472</v>
       </c>
       <c r="I8" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I81*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I81*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J8" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J81*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J81*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K8" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K81*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K81*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L8" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L81*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L81*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7338,19 +7593,19 @@
         <v>2022</v>
       </c>
       <c r="B9" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B82*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B82*1000*About!$A$66</f>
         <v>5304262.5625668447</v>
       </c>
       <c r="C9" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C82*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C82*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D9" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D82*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D82*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E9" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E82*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E82*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F9" s="5">
@@ -7360,23 +7615,23 @@
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H82*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H82*1000*About!$A$66</f>
         <v>3697022.1564705884</v>
       </c>
       <c r="I9" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I82*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I82*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J9" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J82*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J82*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K9" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K82*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K82*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L9" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L82*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L82*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7385,19 +7640,19 @@
         <v>2023</v>
       </c>
       <c r="B10" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B83*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B83*1000*About!$A$66</f>
         <v>5146642.3572192518</v>
       </c>
       <c r="C10" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C83*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C83*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D10" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D83*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D83*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E10" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E83*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E83*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F10" s="5">
@@ -7407,23 +7662,23 @@
         <v>0</v>
       </c>
       <c r="H10" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H83*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H83*1000*About!$A$66</f>
         <v>3625269.5788235292</v>
       </c>
       <c r="I10" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I83*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I83*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J10" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J83*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J83*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K10" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K83*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K83*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L10" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L83*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L83*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7432,19 +7687,19 @@
         <v>2024</v>
       </c>
       <c r="B11" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B84*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B84*1000*About!$A$66</f>
         <v>4989022.151871657</v>
       </c>
       <c r="C11" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C84*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C84*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D11" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D84*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D84*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E11" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E84*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E84*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F11" s="5">
@@ -7454,23 +7709,23 @@
         <v>0</v>
       </c>
       <c r="H11" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H84*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H84*1000*About!$A$66</f>
         <v>3553517.0011764709</v>
       </c>
       <c r="I11" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I84*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I84*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J11" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J84*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J84*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K11" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K84*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K84*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L11" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L84*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L84*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7479,19 +7734,19 @@
         <v>2025</v>
       </c>
       <c r="B12" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B85*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B85*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C12" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C85*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C85*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D12" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D85*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D85*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E12" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E85*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E85*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F12" s="5">
@@ -7501,23 +7756,23 @@
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H85*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H85*1000*About!$A$66</f>
         <v>3481764.4235294117</v>
       </c>
       <c r="I12" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I85*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I85*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J12" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J85*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J85*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K12" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K85*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K85*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L12" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L85*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L85*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7526,19 +7781,19 @@
         <v>2026</v>
       </c>
       <c r="B13" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B86*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B86*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C13" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C86*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C86*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D13" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D86*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D86*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E13" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E86*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E86*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F13" s="5">
@@ -7548,23 +7803,23 @@
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H86*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H86*1000*About!$A$66</f>
         <v>3410011.8458823529</v>
       </c>
       <c r="I13" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I86*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I86*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J13" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J86*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J86*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K13" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K86*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K86*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L13" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L86*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L86*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7573,19 +7828,19 @@
         <v>2027</v>
       </c>
       <c r="B14" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B87*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B87*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C14" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C87*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C87*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D14" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D87*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D87*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E14" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E87*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E87*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F14" s="5">
@@ -7595,23 +7850,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H87*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H87*1000*About!$A$66</f>
         <v>3338259.2682352946</v>
       </c>
       <c r="I14" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I87*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I87*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J14" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J87*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J87*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K14" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K87*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K87*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L14" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L87*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L87*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7620,19 +7875,19 @@
         <v>2028</v>
       </c>
       <c r="B15" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B88*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B88*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C15" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C88*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C88*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D15" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D88*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D88*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E15" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E88*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E88*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F15" s="5">
@@ -7642,23 +7897,23 @@
         <v>0</v>
       </c>
       <c r="H15" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H88*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H88*1000*About!$A$66</f>
         <v>3266506.6905882349</v>
       </c>
       <c r="I15" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I88*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I88*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J15" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J88*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J88*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K15" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K88*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K88*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L15" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L88*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L88*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7667,19 +7922,19 @@
         <v>2029</v>
       </c>
       <c r="B16" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B89*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B89*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C16" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C89*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C89*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D16" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D89*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D89*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E16" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E89*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E89*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F16" s="5">
@@ -7689,23 +7944,23 @@
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H89*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H89*1000*About!$A$66</f>
         <v>3194754.1129411766</v>
       </c>
       <c r="I16" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I89*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I89*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J16" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J89*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J89*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K16" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K89*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K89*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L16" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L89*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L89*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7714,19 +7969,19 @@
         <v>2030</v>
       </c>
       <c r="B17" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B90*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B90*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C17" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C90*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C90*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D17" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D90*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D90*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E17" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E90*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E90*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F17" s="5">
@@ -7736,23 +7991,23 @@
         <v>0</v>
       </c>
       <c r="H17" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H90*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H90*1000*About!$A$66</f>
         <v>3123001.5352941174</v>
       </c>
       <c r="I17" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I90*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I90*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J17" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J90*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J90*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K17" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K90*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K90*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L17" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L90*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L90*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7761,19 +8016,19 @@
         <v>2031</v>
       </c>
       <c r="B18" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B91*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B91*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C18" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C91*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C91*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D18" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D91*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D91*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E18" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E91*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E91*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F18" s="5">
@@ -7783,23 +8038,23 @@
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H91*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H91*1000*About!$A$66</f>
         <v>3051248.9576470586</v>
       </c>
       <c r="I18" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I91*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I91*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J18" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J91*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J91*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K18" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K91*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K91*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L18" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L91*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L91*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7808,19 +8063,19 @@
         <v>2032</v>
       </c>
       <c r="B19" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B92*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B92*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C19" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C92*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C92*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D19" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D92*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D92*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E19" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E92*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E92*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F19" s="5">
@@ -7830,23 +8085,23 @@
         <v>0</v>
       </c>
       <c r="H19" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H92*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H92*1000*About!$A$66</f>
         <v>2979496.38</v>
       </c>
       <c r="I19" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I92*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I92*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J19" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J92*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J92*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K19" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K92*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K92*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L19" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L92*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L92*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7855,19 +8110,19 @@
         <v>2033</v>
       </c>
       <c r="B20" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B93*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B93*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C20" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C93*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C93*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D20" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D93*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D93*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E20" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E93*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E93*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F20" s="5">
@@ -7877,23 +8132,23 @@
         <v>0</v>
       </c>
       <c r="H20" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H93*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H93*1000*About!$A$66</f>
         <v>2907743.8023529411</v>
       </c>
       <c r="I20" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I93*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I93*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J20" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J93*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J93*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K20" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K93*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K93*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L20" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L93*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L93*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7902,19 +8157,19 @@
         <v>2034</v>
       </c>
       <c r="B21" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B94*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B94*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C21" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C94*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C94*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D21" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D94*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D94*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E21" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E94*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E94*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F21" s="5">
@@ -7924,23 +8179,23 @@
         <v>0</v>
       </c>
       <c r="H21" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H94*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H94*1000*About!$A$66</f>
         <v>2835991.2247058828</v>
       </c>
       <c r="I21" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I94*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I94*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J21" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J94*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J94*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K21" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K94*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K94*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L21" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L94*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L94*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7949,19 +8204,19 @@
         <v>2035</v>
       </c>
       <c r="B22" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B95*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B95*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C22" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C95*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C95*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D22" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D95*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D95*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E22" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E95*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E95*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F22" s="5">
@@ -7971,23 +8226,23 @@
         <v>0</v>
       </c>
       <c r="H22" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H95*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H95*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I22" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I95*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I95*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J22" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J95*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J95*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K22" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K95*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K95*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L22" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L95*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L95*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -7996,19 +8251,19 @@
         <v>2036</v>
       </c>
       <c r="B23" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B96*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B96*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C23" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C96*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C96*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D23" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D96*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D96*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E23" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E96*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E96*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F23" s="5">
@@ -8018,23 +8273,23 @@
         <v>0</v>
       </c>
       <c r="H23" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H96*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H96*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I23" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I96*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I96*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J23" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J96*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J96*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K23" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K96*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K96*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L23" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L96*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L96*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8043,19 +8298,19 @@
         <v>2037</v>
       </c>
       <c r="B24" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B97*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B97*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C24" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C97*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C97*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D24" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D97*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D97*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E24" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E97*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E97*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F24" s="5">
@@ -8065,23 +8320,23 @@
         <v>0</v>
       </c>
       <c r="H24" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H97*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H97*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I24" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I97*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I97*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J24" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J97*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J97*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K24" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K97*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K97*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L24" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L97*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L97*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8090,19 +8345,19 @@
         <v>2038</v>
       </c>
       <c r="B25" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B98*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B98*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C25" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C98*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C98*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D25" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D98*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D98*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E25" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E98*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E98*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F25" s="5">
@@ -8112,23 +8367,23 @@
         <v>0</v>
       </c>
       <c r="H25" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H98*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H98*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I25" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I98*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I98*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J25" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J98*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J98*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K25" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K98*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K98*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L25" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L98*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L98*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8137,19 +8392,19 @@
         <v>2039</v>
       </c>
       <c r="B26" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B99*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B99*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C26" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C99*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C99*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D26" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D99*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D99*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E26" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E99*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E99*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F26" s="5">
@@ -8159,23 +8414,23 @@
         <v>0</v>
       </c>
       <c r="H26" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H99*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H99*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I26" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I99*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I99*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J26" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J99*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J99*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K26" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K99*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K99*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L26" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L99*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L99*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8184,19 +8439,19 @@
         <v>2040</v>
       </c>
       <c r="B27" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B100*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B100*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C27" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C100*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C100*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D27" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D100*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D100*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E27" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E100*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E100*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F27" s="5">
@@ -8206,23 +8461,23 @@
         <v>0</v>
       </c>
       <c r="H27" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H100*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H100*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I27" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I100*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I100*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J27" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J100*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J100*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K27" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K100*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K100*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L27" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L100*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L100*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8231,19 +8486,19 @@
         <v>2041</v>
       </c>
       <c r="B28" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B101*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B101*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C28" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C101*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C101*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D28" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D101*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D101*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E28" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E101*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E101*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F28" s="5">
@@ -8253,23 +8508,23 @@
         <v>0</v>
       </c>
       <c r="H28" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H101*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H101*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I28" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I101*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I101*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J28" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J101*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J101*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K28" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K101*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K101*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L28" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L101*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L101*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8278,19 +8533,19 @@
         <v>2042</v>
       </c>
       <c r="B29" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B102*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B102*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C29" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C102*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C102*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D29" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D102*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D102*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E29" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E102*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E102*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F29" s="5">
@@ -8300,23 +8555,23 @@
         <v>0</v>
       </c>
       <c r="H29" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H102*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H102*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I29" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I102*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I102*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J29" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J102*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J102*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K29" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K102*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K102*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L29" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L102*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L102*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8325,19 +8580,19 @@
         <v>2043</v>
       </c>
       <c r="B30" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B103*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B103*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C30" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C103*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C103*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D30" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D103*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D103*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E30" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E103*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E103*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F30" s="5">
@@ -8347,23 +8602,23 @@
         <v>0</v>
       </c>
       <c r="H30" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H103*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H103*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I30" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I103*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I103*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J30" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J103*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J103*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K30" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K103*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K103*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L30" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L103*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L103*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8372,19 +8627,19 @@
         <v>2044</v>
       </c>
       <c r="B31" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B104*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B104*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C31" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C104*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C104*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D31" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D104*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D104*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E31" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E104*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E104*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F31" s="5">
@@ -8394,23 +8649,23 @@
         <v>0</v>
       </c>
       <c r="H31" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H104*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H104*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I31" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I104*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I104*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J31" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J104*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J104*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K31" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K104*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K104*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L31" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L104*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L104*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8419,19 +8674,19 @@
         <v>2045</v>
       </c>
       <c r="B32" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B105*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B105*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C32" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C105*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C105*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D32" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D105*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D105*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E32" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E105*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E105*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F32" s="5">
@@ -8441,23 +8696,23 @@
         <v>0</v>
       </c>
       <c r="H32" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H105*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H105*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I32" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I105*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I105*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J32" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J105*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J105*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K32" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K105*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K105*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L32" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L105*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L105*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8466,19 +8721,19 @@
         <v>2046</v>
       </c>
       <c r="B33" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B106*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B106*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C33" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C106*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C106*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D33" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D106*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D106*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E33" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E106*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E106*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F33" s="5">
@@ -8488,23 +8743,23 @@
         <v>0</v>
       </c>
       <c r="H33" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H106*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H106*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I33" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I106*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I106*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J33" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J106*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J106*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K33" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K106*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K106*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L33" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L106*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L106*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8513,19 +8768,19 @@
         <v>2047</v>
       </c>
       <c r="B34" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B107*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B107*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C34" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C107*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C107*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D34" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D107*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D107*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E34" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E107*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E107*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F34" s="5">
@@ -8535,23 +8790,23 @@
         <v>0</v>
       </c>
       <c r="H34" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H107*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H107*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I34" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I107*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I107*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J34" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J107*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J107*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K34" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K107*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K107*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L34" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L107*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L107*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8560,19 +8815,19 @@
         <v>2048</v>
       </c>
       <c r="B35" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B108*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B108*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C35" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C108*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C108*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D35" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D108*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D108*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E35" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E108*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E108*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F35" s="5">
@@ -8582,23 +8837,23 @@
         <v>0</v>
       </c>
       <c r="H35" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H108*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H108*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I35" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I108*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I108*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J35" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J108*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J108*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K35" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K108*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K108*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L35" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L108*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L108*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8607,19 +8862,19 @@
         <v>2049</v>
       </c>
       <c r="B36" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B109*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B109*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C36" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C109*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C109*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D36" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D109*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D109*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E36" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E109*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E109*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F36" s="5">
@@ -8629,23 +8884,23 @@
         <v>0</v>
       </c>
       <c r="H36" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H109*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H109*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I36" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I109*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I109*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J36" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J109*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J109*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K36" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K109*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K109*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L36" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L109*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L109*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>
@@ -8654,19 +8909,19 @@
         <v>2050</v>
       </c>
       <c r="B37" s="5">
-        <f>'EIA Costs'!$C$4*'Cost Improvement'!B110*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$4*'Cost Improvement'!B110*1000*About!$A$66</f>
         <v>4831401.9465240641</v>
       </c>
       <c r="C37" s="5">
-        <f>'EIA Costs'!$C$6*'Cost Improvement'!C110*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$6*'Cost Improvement'!C110*1000*About!$A$66</f>
         <v>1003779</v>
       </c>
       <c r="D37" s="5">
-        <f>'EIA Costs'!$C$11*'Cost Improvement'!D110*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$11*'Cost Improvement'!D110*1000*About!$A$66</f>
         <v>5296242</v>
       </c>
       <c r="E37" s="5">
-        <f>'EIA Costs'!$C$17*'Cost Improvement'!E110*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$17*'Cost Improvement'!E110*1000*About!$A$66</f>
         <v>2616537</v>
       </c>
       <c r="F37" s="5">
@@ -8676,23 +8931,23 @@
         <v>0</v>
       </c>
       <c r="H37" s="5">
-        <f>'EIA Costs'!$C$20*'Cost Improvement'!H110*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$20*'Cost Improvement'!H110*1000*About!$A$66</f>
         <v>2764238.6470588231</v>
       </c>
       <c r="I37" s="5">
-        <f>'EIA Costs'!$C$14*'Cost Improvement'!I110*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$14*'Cost Improvement'!I110*1000*About!$A$66</f>
         <v>3611433</v>
       </c>
       <c r="J37" s="5">
-        <f>'EIA Costs'!$C$15*'Cost Improvement'!J110*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$15*'Cost Improvement'!J110*1000*About!$A$66</f>
         <v>2416176</v>
       </c>
       <c r="K37" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!K110*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!K110*1000*About!$A$66</f>
         <v>662277</v>
       </c>
       <c r="L37" s="5">
-        <f>'EIA Costs'!$C$9*'Cost Improvement'!L110*1000*About!$A$66</f>
+        <f>'EIA Costs'!$D$9*'Cost Improvement'!L110*1000*About!$A$66</f>
         <v>662277</v>
       </c>
     </row>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="EIA Costs" sheetId="10" r:id="rId2"/>
-    <sheet name="2015 Wind and Solar" sheetId="9" r:id="rId3"/>
+    <sheet name="Start Year Wind and Solar" sheetId="9" r:id="rId3"/>
     <sheet name="Coal Cost Multipliers" sheetId="12" r:id="rId4"/>
     <sheet name="Cost Improvement and Off Wnd" sheetId="15" r:id="rId5"/>
     <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId6"/>
     <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId7"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -92,9 +92,6 @@
     <t>Variable O&amp;M ($/MWh)</t>
   </si>
   <si>
-    <t>Greentech Media Research</t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -275,34 +272,13 @@
     <t>2015 Capital Costs (Except Wind and Solar), Fixed O&amp;M, Variable O&amp;M</t>
   </si>
   <si>
-    <t>2015 (Q4)</t>
-  </si>
-  <si>
-    <t>http://www.seia.org/sites/default/files/gMOip8F78iSMI2015YIR.pdf</t>
-  </si>
-  <si>
     <t>U.S. Solar Market Insight Report: 2015 Year in Review (Executive Summary)</t>
   </si>
   <si>
     <t>Average Utility Scale Solar Cost in Q4 of Year ($/W-dc)</t>
   </si>
   <si>
-    <t>2015 Solar Capital Cost</t>
-  </si>
-  <si>
-    <t>2015 Wind Technologies Market Report</t>
-  </si>
-  <si>
-    <t>http://energy.gov/sites/prod/files/2016/08/f33/2015-Wind-Technologies-Market-Report-08162016.pdf</t>
-  </si>
-  <si>
-    <t>Page 15, paragraph 2 (using the value for fixed, not tracking, systems)</t>
-  </si>
-  <si>
     <t>Installed Cost of Wind ($/kW-dc)</t>
-  </si>
-  <si>
-    <t>Page ix, bullet point 2</t>
   </si>
   <si>
     <t>cause them to decline at the same rate as costs declined in projections in a 2012 study from Black &amp; Veatch.</t>
@@ -581,9 +557,6 @@
     <t>We adjust 2014 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
   <si>
-    <t>2015 Onshore Wind Capital Cost</t>
-  </si>
-  <si>
     <t>lignite</t>
   </si>
   <si>
@@ -948,6 +921,33 @@
   </si>
   <si>
     <t>Cost Improvement Rate and 2015 Offshore Wind Costs</t>
+  </si>
+  <si>
+    <t>2016 (Q4)</t>
+  </si>
+  <si>
+    <t>Solar Energy Industries Association</t>
+  </si>
+  <si>
+    <t>https://www.seia.org/research-resources/solar-market-insight-report-2016-year-review</t>
+  </si>
+  <si>
+    <t>"National Solar PV System Pricing" section, last paragraph (using "fixed-tilt" value)</t>
+  </si>
+  <si>
+    <t>2016 Solar Capital Cost</t>
+  </si>
+  <si>
+    <t>2016 Wind Technologies Market Report</t>
+  </si>
+  <si>
+    <t>https://energy.gov/sites/prod/files/2017/10/f37/2016_Wind_Technologies_Market_Report_101317.pdf</t>
+  </si>
+  <si>
+    <t>Page viii, bullet point 1</t>
+  </si>
+  <si>
+    <t>2016 Onshore Wind Capital Cost</t>
   </si>
 </sst>
 </file>
@@ -1809,11 +1809,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>162</v>
+        <v>284</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1830,31 +1830,31 @@
         <v>2015</v>
       </c>
       <c r="D7" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>93</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1863,18 +1863,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>88</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>23</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1882,31 +1882,31 @@
         <v>2009</v>
       </c>
       <c r="D14" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>91</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1915,19 +1915,19 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1942,32 +1942,32 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="22">
         <v>0.85899999999999999</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="11"/>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="11"/>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="11"/>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11"/>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="11"/>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="11"/>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="11"/>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="11"/>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="11"/>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="11"/>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="11"/>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="9"/>
       <c r="D54" s="7"/>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="9"/>
       <c r="D55" s="7"/>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B56" s="9"/>
       <c r="D56" s="7"/>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" s="9"/>
       <c r="D57" s="7"/>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2465,7 +2465,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="9"/>
       <c r="D66" s="7"/>
@@ -2733,33 +2733,33 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>2917</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>3727</v>
@@ -2787,13 +2787,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>6492</v>
@@ -2807,13 +2807,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>912</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>1017</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>2072</v>
@@ -2861,13 +2861,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>968</v>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>671</v>
@@ -2901,7 +2901,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>6978</v>
@@ -2918,10 +2918,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>5366</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>1477</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>1744</v>
@@ -2966,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2983,13 +2983,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>2448</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16">
         <v>8271</v>
@@ -3020,10 +3020,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17">
         <v>2651</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="24">
         <v>6154</v>
@@ -3080,7 +3080,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3100,10 +3100,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="24">
         <v>3279</v>
@@ -3117,12 +3117,12 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3144,7 +3144,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3152,21 +3152,21 @@
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="19">
-        <v>1690</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -3174,15 +3174,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>84</v>
+        <v>276</v>
       </c>
       <c r="B7" s="16">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3213,53 +3213,53 @@
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F2" s="58" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="57"/>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B4" s="29">
         <v>1000</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B5" s="29">
         <v>1000</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C6" s="33">
         <v>3641</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B8" s="37">
         <v>1000</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B10" s="37">
         <v>1000</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B12" s="37">
         <v>1000</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B13" s="37">
         <v>1000</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B14" s="37">
         <v>1000</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B15" s="37">
         <v>1000</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B16" s="37">
         <v>1000</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B17" s="37">
         <v>1000</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B18" s="37">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B19" s="37">
         <v>1000</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B20" s="37">
         <v>1000</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B21" s="37">
         <v>1000</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B22" s="37">
         <v>1000</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B23" s="37">
         <v>1000</v>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B24" s="37">
         <v>1000</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B25" s="37">
         <v>1000</v>
@@ -3789,19 +3789,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B26" s="37">
         <v>1000</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F26" s="41">
         <v>555</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B27" s="37">
         <v>1000</v>
@@ -3841,10 +3841,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C28" s="44">
         <v>3.73</v>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B29" s="45">
         <v>1000</v>
@@ -3893,10 +3893,10 @@
     </row>
     <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C30" s="44">
         <v>7.69</v>
@@ -3919,12 +3919,12 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="47" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B33" s="49">
         <f>D6/AVERAGE(C6,E6)</f>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B34" s="49">
         <f>D28/(AVERAGE(C28,E28))</f>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B35" s="49">
         <f>D10/AVERAGE(E10,C10)</f>
@@ -3983,15 +3983,15 @@
   <sheetData>
     <row r="1" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="23" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C2" s="23">
         <v>2014</v>
@@ -4110,7 +4110,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C3" s="23">
         <v>6542.8564452168666</v>
@@ -4229,7 +4229,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C4" s="23">
         <v>6542.8564452168666</v>
@@ -4348,7 +4348,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C5" s="23">
         <v>6542.8564452168666</v>
@@ -4467,7 +4467,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C6" s="23">
         <v>6542.8564452168666</v>
@@ -4586,7 +4586,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C7" s="23">
         <v>6542.8564452168666</v>
@@ -4705,7 +4705,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C8" s="23">
         <v>6542.8564452168666</v>
@@ -4821,10 +4821,10 @@
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C9" s="23">
         <v>1016.669044128</v>
@@ -4940,10 +4940,10 @@
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C10" s="23">
         <v>1016.669044128</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C11" s="23">
         <v>1016.669044128</v>
@@ -5181,7 +5181,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C12" s="23">
         <v>5937.8628529899997</v>
@@ -5300,7 +5300,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C13" s="23">
         <v>5937.8628529899997</v>
@@ -5419,7 +5419,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C14" s="23">
         <v>5937.8628529899997</v>
@@ -5538,7 +5538,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C15" s="23">
         <v>5404.5923246599996</v>
@@ -5657,7 +5657,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C16" s="23">
         <v>5404.5923246599996</v>
@@ -5776,7 +5776,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C17" s="23">
         <v>5404.5923246599996</v>
@@ -5895,7 +5895,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C18" s="23">
         <v>3976.7149884099999</v>
@@ -6014,7 +6014,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C19" s="23">
         <v>3976.7149884099999</v>
@@ -6133,7 +6133,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C20" s="23">
         <v>3976.7149884099999</v>
@@ -6252,7 +6252,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C21" s="23">
         <v>3749.3454306399999</v>
@@ -6371,7 +6371,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C22" s="23">
         <v>3749.3454306399999</v>
@@ -6490,7 +6490,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C23" s="23">
         <v>3749.3454306399999</v>
@@ -6609,7 +6609,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C24" s="23">
         <v>6997.72266167</v>
@@ -6728,7 +6728,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C25" s="23">
         <v>6997.72266167</v>
@@ -6847,7 +6847,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C26" s="23">
         <v>6997.72266167</v>
@@ -6966,7 +6966,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C27" s="23">
         <v>6247.0408507000002</v>
@@ -7085,7 +7085,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C28" s="23">
         <v>6247.0408507000002</v>
@@ -7204,7 +7204,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C29" s="23">
         <v>6247.0408507000002</v>
@@ -7323,7 +7323,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C30" s="23">
         <v>6118.6170122000003</v>
@@ -7442,7 +7442,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C31" s="23">
         <v>6118.6170122000003</v>
@@ -7561,7 +7561,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C32" s="23">
         <v>6118.6170122000003</v>
@@ -7680,7 +7680,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C33" s="23">
         <v>5508.1456035900001</v>
@@ -7799,7 +7799,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C34" s="23">
         <v>5508.1456035900001</v>
@@ -7918,7 +7918,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C35" s="23">
         <v>5508.1456035900001</v>
@@ -8037,7 +8037,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C36" s="23">
         <v>5486.0752926746272</v>
@@ -8156,7 +8156,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C37">
         <v>6846</v>
@@ -8275,7 +8275,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C38">
         <v>6846</v>
@@ -8394,7 +8394,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C39">
         <v>6846</v>
@@ -8513,7 +8513,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C40">
         <v>6846</v>
@@ -8632,7 +8632,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C41">
         <v>6846</v>
@@ -8751,7 +8751,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C42">
         <v>6846</v>
@@ -8870,7 +8870,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C43">
         <v>6846</v>
@@ -8989,7 +8989,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C44">
         <v>6846</v>
@@ -9108,7 +9108,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C45">
         <v>6846</v>
@@ -9227,7 +9227,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C46">
         <v>8024.8</v>
@@ -9346,7 +9346,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C47">
         <v>8024.8</v>
@@ -9465,7 +9465,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C48">
         <v>8024.8</v>
@@ -9584,7 +9584,7 @@
         <v>19</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C49">
         <v>8024.8</v>
@@ -9703,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C50">
         <v>8024.8</v>
@@ -9822,7 +9822,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C51">
         <v>8024.8</v>
@@ -9941,7 +9941,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C52">
         <v>8024.8</v>
@@ -10060,7 +10060,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C53">
         <v>8024.8</v>
@@ -10179,7 +10179,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C54">
         <v>8024.8</v>
@@ -10298,7 +10298,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C55">
         <v>3717.5439999999999</v>
@@ -10417,7 +10417,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C56">
         <v>3717.5439999999999</v>
@@ -10536,7 +10536,7 @@
         <v>20</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C57">
         <v>3717.5439999999999</v>
@@ -10655,7 +10655,7 @@
         <v>20</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C58">
         <v>3829.4706747999999</v>
@@ -10774,7 +10774,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C59">
         <v>3829.4706747999999</v>
@@ -10893,7 +10893,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C60">
         <v>3829.4706747999999</v>
@@ -11012,7 +11012,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C61">
         <v>3829.4706747999999</v>
@@ -11131,7 +11131,7 @@
         <v>20</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C62">
         <v>3829.4706747999999</v>
@@ -11250,7 +11250,7 @@
         <v>20</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C63">
         <v>3829.4706747999999</v>
@@ -11366,10 +11366,10 @@
     </row>
     <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C64">
         <v>4567</v>
@@ -11485,10 +11485,10 @@
     </row>
     <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C65">
         <v>4567</v>
@@ -11604,10 +11604,10 @@
     </row>
     <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C66">
         <v>4567</v>
@@ -11723,10 +11723,10 @@
     </row>
     <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C67">
         <v>5465</v>
@@ -11842,10 +11842,10 @@
     </row>
     <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C68">
         <v>5465</v>
@@ -11961,10 +11961,10 @@
     </row>
     <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C69">
         <v>5465</v>
@@ -12080,10 +12080,10 @@
     </row>
     <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C70">
         <v>8100</v>
@@ -12199,10 +12199,10 @@
     </row>
     <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C71">
         <v>8100</v>
@@ -12318,10 +12318,10 @@
     </row>
     <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C72">
         <v>8100</v>
@@ -12437,10 +12437,10 @@
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C73">
         <v>12179</v>
@@ -12556,10 +12556,10 @@
     </row>
     <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C74">
         <v>12179</v>
@@ -12675,10 +12675,10 @@
     </row>
     <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C75">
         <v>12179</v>
@@ -12794,10 +12794,10 @@
     </row>
     <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C76">
         <v>8100</v>
@@ -12913,10 +12913,10 @@
     </row>
     <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C77">
         <v>8100</v>
@@ -13032,10 +13032,10 @@
     </row>
     <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C78">
         <v>8100</v>
@@ -13151,10 +13151,10 @@
     </row>
     <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C79">
         <v>12179</v>
@@ -13270,10 +13270,10 @@
     </row>
     <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C80">
         <v>12179</v>
@@ -13389,10 +13389,10 @@
     </row>
     <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C81">
         <v>12179</v>
@@ -13508,10 +13508,10 @@
     </row>
     <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C82">
         <v>869.1945425319999</v>
@@ -13627,10 +13627,10 @@
     </row>
     <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C83">
         <v>869.1945425319999</v>
@@ -13746,10 +13746,10 @@
     </row>
     <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C84">
         <v>869.1945425319999</v>
@@ -13865,10 +13865,10 @@
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C85">
         <v>5391.5126343022939</v>
@@ -13984,10 +13984,10 @@
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C86">
         <v>5391.5126343022939</v>
@@ -14103,10 +14103,10 @@
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C87">
         <v>5391.5126343022939</v>
@@ -14222,10 +14222,10 @@
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C88">
         <v>5391.512634302233</v>
@@ -14341,10 +14341,10 @@
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C89">
         <v>5391.512634302233</v>
@@ -14460,10 +14460,10 @@
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C90">
         <v>5391.512634302233</v>
@@ -14579,10 +14579,10 @@
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C91">
         <v>5391.5126343022639</v>
@@ -14698,10 +14698,10 @@
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C92">
         <v>5391.5126343022639</v>
@@ -14817,10 +14817,10 @@
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C93">
         <v>5391.5126343022639</v>
@@ -14936,10 +14936,10 @@
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C94">
         <v>5391.5126343023448</v>
@@ -15055,10 +15055,10 @@
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C95">
         <v>5391.5126343023448</v>
@@ -15174,10 +15174,10 @@
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C96">
         <v>5391.5126343023448</v>
@@ -15293,10 +15293,10 @@
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C97">
         <v>5953.3433007831181</v>
@@ -15412,10 +15412,10 @@
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C98">
         <v>5953.3433007831181</v>
@@ -15531,10 +15531,10 @@
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C99">
         <v>5953.3433007831181</v>
@@ -15650,10 +15650,10 @@
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C100">
         <v>5953.3433007831181</v>
@@ -15769,10 +15769,10 @@
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C101">
         <v>5953.3433007831181</v>
@@ -15888,10 +15888,10 @@
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C102">
         <v>5953.3433007831181</v>
@@ -16007,10 +16007,10 @@
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C103">
         <v>5953.3433007831181</v>
@@ -16126,10 +16126,10 @@
     </row>
     <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C104">
         <v>5953.3433007831181</v>
@@ -16245,10 +16245,10 @@
     </row>
     <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C105">
         <v>5953.3433007831181</v>
@@ -16364,10 +16364,10 @@
     </row>
     <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C106">
         <v>6968.7620282760181</v>
@@ -16483,10 +16483,10 @@
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C107">
         <v>6968.7620282760181</v>
@@ -16602,10 +16602,10 @@
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C108">
         <v>6968.7620282760181</v>
@@ -16721,10 +16721,10 @@
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C109">
         <v>6968.762028276089</v>
@@ -16840,10 +16840,10 @@
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C110">
         <v>6968.762028276089</v>
@@ -16959,10 +16959,10 @@
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C111">
         <v>6968.762028276089</v>
@@ -17078,10 +17078,10 @@
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C112">
         <v>6968.762028276079</v>
@@ -17197,10 +17197,10 @@
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C113">
         <v>6968.762028276079</v>
@@ -17316,10 +17316,10 @@
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C114">
         <v>6968.762028276079</v>
@@ -17702,7 +17702,7 @@
     </row>
     <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B119" s="23">
         <f t="shared" ref="B119:Q126" si="1">AVERAGEIF($A$3:$A$114,$A119,C$3:C$114)/AVERAGEIF($A$3:$A$114,$A119,$C$3:$C$114)</f>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B124" s="23">
         <f t="shared" si="1"/>
@@ -18620,7 +18620,7 @@
     </row>
     <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B125" s="23">
         <f t="shared" si="1"/>
@@ -18773,7 +18773,7 @@
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B126" s="23">
         <f t="shared" si="1"/>
@@ -18951,18 +18951,18 @@
         <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B2" s="4">
         <f>'EIA Costs'!F2*1000</f>
@@ -18978,7 +18978,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4">
         <f>'EIA Costs'!F5*1000</f>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!F18*1000</f>
@@ -19090,7 +19090,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4">
         <f>'EIA Costs'!F15*1000</f>
@@ -19106,7 +19106,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4">
         <f>B12</f>
@@ -19122,7 +19122,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4">
         <f>'EIA Costs'!F8*1000</f>
@@ -19138,7 +19138,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B13" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$35</f>
@@ -19155,7 +19155,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B14">
         <f>'EIA Costs'!F19*1000</f>
@@ -19196,13 +19196,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -19223,7 +19223,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="16">
         <f>'EIA Costs'!E5</f>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!E18</f>
@@ -19335,7 +19335,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4">
         <f>'EIA Costs'!E15</f>
@@ -19351,7 +19351,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="16">
         <f>B12</f>
@@ -19367,7 +19367,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="16">
         <f>'EIA Costs'!E8</f>
@@ -19383,7 +19383,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
@@ -19400,7 +19400,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B14" s="23">
         <f>'EIA Costs'!E19*1000</f>
@@ -19424,7 +19424,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19449,10 +19449,10 @@
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>6</v>
@@ -19461,7 +19461,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>10</v>
@@ -19473,24 +19473,24 @@
         <v>8</v>
       </c>
       <c r="J1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="M1" s="13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B2" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19506,27 +19506,27 @@
       </c>
       <c r="E2" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2615904.7459590738</v>
+        <v>2602573.1991149751</v>
       </c>
       <c r="F2" s="20">
-        <f>'2015 Wind and Solar'!B3*10^3*About!$A$62</f>
-        <v>1639300</v>
+        <f>'Start Year Wind and Solar'!B3*10^3*About!$A$62</f>
+        <v>1542300</v>
       </c>
       <c r="G2" s="20">
-        <f>'2015 Wind and Solar'!B7*10^6/About!$C$25*About!$A$62</f>
-        <v>1501862.6309662398</v>
+        <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$62</f>
+        <v>1196973.2246798603</v>
       </c>
       <c r="H2" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3859237.1563421837</v>
+        <v>3719150.3126843655</v>
       </c>
       <c r="I2" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3609339.4451619289</v>
+        <v>3607245.8903238592</v>
       </c>
       <c r="J2" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2416176</v>
+        <v>2412149.04</v>
       </c>
       <c r="K2" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19542,12 +19542,12 @@
       </c>
       <c r="N2" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5664774.9998615514</v>
+        <v>5509420.9620956331</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B3" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19555,7 +19555,7 @@
       </c>
       <c r="C3" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>1003779</v>
+        <v>991575.67812926287</v>
       </c>
       <c r="D3" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19563,7 +19563,7 @@
       </c>
       <c r="E3" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2602573.1991149751</v>
+        <v>2588614.2535958025</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -19573,23 +19573,23 @@
       </c>
       <c r="H3" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3719150.3126843655</v>
+        <v>3579063.4690265493</v>
       </c>
       <c r="I3" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3607245.8903238592</v>
+        <v>3563598.6740940069</v>
       </c>
       <c r="J3" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2412149.04</v>
+        <v>2408122.0799999996</v>
       </c>
       <c r="K3" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>662277</v>
+        <v>654225.44741861895</v>
       </c>
       <c r="L3" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>662277</v>
+        <v>654225.44741861895</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
@@ -19597,20 +19597,20 @@
       </c>
       <c r="N3" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5509420.9620956331</v>
+        <v>5406106.509524825</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B4" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6407604</v>
+        <v>6324501.0635977117</v>
       </c>
       <c r="C4" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>991575.67812926287</v>
+        <v>988819.15500394534</v>
       </c>
       <c r="D4" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19618,7 +19618,7 @@
       </c>
       <c r="E4" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2588614.2535958025</v>
+        <v>2574655.3080766289</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -19628,44 +19628,44 @@
       </c>
       <c r="H4" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3579063.4690265493</v>
+        <v>3438976.6253687306</v>
       </c>
       <c r="I4" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3563598.6740940069</v>
+        <v>3552150.0543228374</v>
       </c>
       <c r="J4" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2408122.0799999996</v>
+        <v>2404095.1200000006</v>
       </c>
       <c r="K4" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>654225.44741861895</v>
+        <v>652272.3387205411</v>
       </c>
       <c r="L4" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>654225.44741861895</v>
+        <v>652272.3387205411</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
-        <v>7426043.1913562696</v>
+        <v>7329731.6847382076</v>
       </c>
       <c r="N4" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5406106.509524825</v>
+        <v>5302792.0569540178</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B5" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6324501.0635977117</v>
+        <v>6227955.0314686652</v>
       </c>
       <c r="C5" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>988819.15500394534</v>
+        <v>985294.78179011226</v>
       </c>
       <c r="D5" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="E5" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2574655.3080766289</v>
+        <v>2560702.8051120425</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -19683,44 +19683,44 @@
       </c>
       <c r="H5" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3438976.6253687306</v>
+        <v>3298889.7817109143</v>
       </c>
       <c r="I5" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3552150.0543228374</v>
+        <v>3559522.4329931699</v>
       </c>
       <c r="J5" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2404095.1200000006</v>
+        <v>2400068.1600000006</v>
       </c>
       <c r="K5" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>652272.3387205411</v>
+        <v>649811.88595093053</v>
       </c>
       <c r="L5" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>652272.3387205411</v>
+        <v>649811.88595093053</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
-        <v>7329731.6847382076</v>
+        <v>7217840.4061035775</v>
       </c>
       <c r="N5" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5302792.0569540178</v>
+        <v>5199477.6043832069</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6227955.0314686652</v>
+        <v>6124223.8852365119</v>
       </c>
       <c r="C6" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>985294.78179011226</v>
+        <v>979289.502287613</v>
       </c>
       <c r="D6" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19728,7 +19728,7 @@
       </c>
       <c r="E6" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2560702.8051120425</v>
+        <v>2546750.302147456</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -19738,44 +19738,44 @@
       </c>
       <c r="H6" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3298889.7817109143</v>
+        <v>3158802.938053098</v>
       </c>
       <c r="I6" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3559522.4329931699</v>
+        <v>3549532.803845725</v>
       </c>
       <c r="J6" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2400068.1600000006</v>
+        <v>2396041.2000000002</v>
       </c>
       <c r="K6" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>649811.88595093053</v>
+        <v>645390.95246922853</v>
       </c>
       <c r="L6" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>649811.88595093053</v>
+        <v>645390.95246922853</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
-        <v>7217840.4061035775</v>
+        <v>7097621.9949456993</v>
       </c>
       <c r="N6" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5199477.6043832069</v>
+        <v>5096163.1518123988</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6124223.8852365119</v>
+        <v>6088061.5576230651</v>
       </c>
       <c r="C7" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>979289.502287613</v>
+        <v>976407.13601662824</v>
       </c>
       <c r="D7" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19783,7 +19783,7 @@
       </c>
       <c r="E7" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2546750.302147456</v>
+        <v>2532804.2145849285</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -19793,44 +19793,44 @@
       </c>
       <c r="H7" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3158802.938053098</v>
+        <v>3062684.4778761058</v>
       </c>
       <c r="I7" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3549532.803845725</v>
+        <v>3539540.8623545752</v>
       </c>
       <c r="J7" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2396041.2000000002</v>
+        <v>2392014.2399999993</v>
       </c>
       <c r="K7" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>645390.95246922853</v>
+        <v>643437.69417805946</v>
       </c>
       <c r="L7" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>645390.95246922853</v>
+        <v>643437.69417805946</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
-        <v>7097621.9949456993</v>
+        <v>7055711.944518514</v>
       </c>
       <c r="N7" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5096163.1518123988</v>
+        <v>4969151.5928974757</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6088061.5576230651</v>
+        <v>6057039.1972367624</v>
       </c>
       <c r="C8" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>976407.13601662824</v>
+        <v>973471.88135317795</v>
       </c>
       <c r="D8" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19838,7 +19838,7 @@
       </c>
       <c r="E8" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2532804.2145849285</v>
+        <v>2518858.1270224005</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -19848,52 +19848,52 @@
       </c>
       <c r="H8" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3062684.4778761058</v>
+        <v>2966566.017699115</v>
       </c>
       <c r="I8" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3539540.8623545752</v>
+        <v>3529549.3347471482</v>
       </c>
       <c r="J8" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2392014.2399999993</v>
+        <v>2387987.2799999998</v>
       </c>
       <c r="K8" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>643437.69417805946</v>
+        <v>641442.67327765853</v>
       </c>
       <c r="L8" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>643437.69417805946</v>
+        <v>641442.67327765853</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
-        <v>7055711.944518514</v>
+        <v>7019758.8194304937</v>
       </c>
       <c r="N8" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4969151.5928974757</v>
+        <v>4842140.0339825507</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6057039.1972367624</v>
+        <v>6026017.9332363233</v>
       </c>
       <c r="C9" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>973471.88135317795</v>
+        <v>970589.10973750602</v>
       </c>
       <c r="D9" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5296242</v>
+        <v>5268116.717585152</v>
       </c>
       <c r="E9" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2518858.1270224005</v>
+        <v>2504918.415367343</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -19903,52 +19903,52 @@
       </c>
       <c r="H9" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2966566.017699115</v>
+        <v>2870447.5575221237</v>
       </c>
       <c r="I9" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3529549.3347471482</v>
+        <v>3519555.68758268</v>
       </c>
       <c r="J9" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2387987.2799999998</v>
+        <v>2383960.3199999998</v>
       </c>
       <c r="K9" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>641442.67327765853</v>
+        <v>639489.166581125</v>
       </c>
       <c r="L9" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>641442.67327765853</v>
+        <v>639489.166581125</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
-        <v>7019758.8194304937</v>
+        <v>6983806.9649904054</v>
       </c>
       <c r="N9" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4842140.0339825507</v>
+        <v>4715128.4750676258</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B10" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6026017.9332363233</v>
+        <v>5988254.6391228698</v>
       </c>
       <c r="C10" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>970589.10973750602</v>
+        <v>967707.66174976574</v>
       </c>
       <c r="D10" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5268116.717585152</v>
+        <v>5239997.2947989823</v>
       </c>
       <c r="E10" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2504918.415367343</v>
+        <v>2490978.7037122855</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -19958,52 +19958,52 @@
       </c>
       <c r="H10" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2870447.5575221237</v>
+        <v>2774329.0973451324</v>
       </c>
       <c r="I10" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3519555.68758268</v>
+        <v>3509566.3027282432</v>
       </c>
       <c r="J10" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2383960.3199999998</v>
+        <v>2379933.3600000003</v>
       </c>
       <c r="K10" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>639489.166581125</v>
+        <v>637536.40933158563</v>
       </c>
       <c r="L10" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>639489.166581125</v>
+        <v>637536.40933158563</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
-        <v>6983806.9649904054</v>
+        <v>6940041.4867969342</v>
       </c>
       <c r="N10" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4715128.4750676258</v>
+        <v>4687911.7124429978</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B11" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5988254.6391228698</v>
+        <v>5955706.6670725187</v>
       </c>
       <c r="C11" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>967707.66174976574</v>
+        <v>964698.16035180876</v>
       </c>
       <c r="D11" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5239997.2947989823</v>
+        <v>5211872.756320606</v>
       </c>
       <c r="E11" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2490978.7037122855</v>
+        <v>2477045.3383437586</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -20013,52 +20013,52 @@
       </c>
       <c r="H11" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2774329.0973451324</v>
+        <v>2678210.637168142</v>
       </c>
       <c r="I11" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3509566.3027282432</v>
+        <v>3499572.9801377142</v>
       </c>
       <c r="J11" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2379933.3600000003</v>
+        <v>2375906.4000000004</v>
       </c>
       <c r="K11" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>637536.40933158563</v>
+        <v>635482.86120436469</v>
       </c>
       <c r="L11" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>637536.40933158563</v>
+        <v>635482.86120436469</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
-        <v>6940041.4867969342</v>
+        <v>6902320.265848049</v>
       </c>
       <c r="N11" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4687911.7124429978</v>
+        <v>4660694.9498183709</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B12" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5955706.6670725187</v>
+        <v>5916751.4649672946</v>
       </c>
       <c r="C12" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>964698.16035180876</v>
+        <v>956101.73111187026</v>
       </c>
       <c r="D12" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5211872.756320606</v>
+        <v>5183752.7893056097</v>
       </c>
       <c r="E12" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2477045.3383437586</v>
+        <v>2463111.9729752308</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -20068,52 +20068,52 @@
       </c>
       <c r="H12" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2678210.637168142</v>
+        <v>2635455.0568740098</v>
       </c>
       <c r="I12" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3499572.9801377142</v>
+        <v>3489583.4989846051</v>
       </c>
       <c r="J12" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2375906.4000000004</v>
+        <v>2371879.44</v>
       </c>
       <c r="K12" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>635482.86120436469</v>
+        <v>629014.61231266905</v>
       </c>
       <c r="L12" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>635482.86120436469</v>
+        <v>629014.61231266905</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
-        <v>6902320.265848049</v>
+        <v>6857173.4350886252</v>
       </c>
       <c r="N12" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4660694.9498183709</v>
+        <v>4633478.1871937439</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B13" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5916751.4649672946</v>
+        <v>5868954.29254534</v>
       </c>
       <c r="C13" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>956101.73111187026</v>
+        <v>949477.38631026668</v>
       </c>
       <c r="D13" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5183752.7893056097</v>
+        <v>5155630.2835784713</v>
       </c>
       <c r="E13" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2463111.9729752308</v>
+        <v>2449184.9218038814</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -20123,52 +20123,52 @@
       </c>
       <c r="H13" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2635455.0568740098</v>
+        <v>2593569.0510433745</v>
       </c>
       <c r="I13" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3489583.4989846051</v>
+        <v>3479591.4337126394</v>
       </c>
       <c r="J13" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2371879.44</v>
+        <v>2367852.48</v>
       </c>
       <c r="K13" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>629014.61231266905</v>
+        <v>624104.63841106219</v>
       </c>
       <c r="L13" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>629014.61231266905</v>
+        <v>624104.63841106219</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
-        <v>6857173.4350886252</v>
+        <v>6801779.2710875198</v>
       </c>
       <c r="N13" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4633478.1871937439</v>
+        <v>4606261.424569116</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B14" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5868954.29254534</v>
+        <v>5836601.724217698</v>
       </c>
       <c r="C14" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>949477.38631026668</v>
+        <v>943335.32626244437</v>
       </c>
       <c r="D14" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5155630.2835784713</v>
+        <v>5127506.6643658997</v>
       </c>
       <c r="E14" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2449184.9218038814</v>
+        <v>2435257.8706325311</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -20178,52 +20178,52 @@
       </c>
       <c r="H14" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2593569.0510433745</v>
+        <v>2552428.2611193703</v>
       </c>
       <c r="I14" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3479591.4337126394</v>
+        <v>3469599.1172907539</v>
       </c>
       <c r="J14" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2367852.48</v>
+        <v>2363825.5199999996</v>
       </c>
       <c r="K14" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>624104.63841106219</v>
+        <v>619575.81905558321</v>
       </c>
       <c r="L14" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>624104.63841106219</v>
+        <v>619575.81905558321</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
-        <v>6801779.2710875198</v>
+        <v>6764284.51177462</v>
       </c>
       <c r="N14" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4606261.424569116</v>
+        <v>4579044.6619444918</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B15" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5836601.724217698</v>
+        <v>5797589.0784554491</v>
       </c>
       <c r="C15" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>943335.32626244437</v>
+        <v>938967.0877953025</v>
       </c>
       <c r="D15" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5127506.6643658997</v>
+        <v>5099387.525828613</v>
       </c>
       <c r="E15" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2435257.8706325311</v>
+        <v>2421337.1015690072</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -20233,52 +20233,52 @@
       </c>
       <c r="H15" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2552428.2611193703</v>
+        <v>2511933.1593115116</v>
       </c>
       <c r="I15" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3469599.1172907539</v>
+        <v>3459609.8970702845</v>
       </c>
       <c r="J15" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2363825.5199999996</v>
+        <v>2359798.5600000005</v>
       </c>
       <c r="K15" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>619575.81905558321</v>
+        <v>616448.38075626816</v>
       </c>
       <c r="L15" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>619575.81905558321</v>
+        <v>616448.38075626816</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
-        <v>6764284.51177462</v>
+        <v>6719071.1071323324</v>
       </c>
       <c r="N15" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4579044.6619444918</v>
+        <v>4551827.8993198639</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B16" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5797589.0784554491</v>
+        <v>5754417.5964696556</v>
       </c>
       <c r="C16" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>938967.0877953025</v>
+        <v>934324.03261257184</v>
       </c>
       <c r="D16" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5099387.525828613</v>
+        <v>5071263.9651833745</v>
       </c>
       <c r="E16" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2421337.1015690072</v>
+        <v>2407416.3325054822</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -20288,52 +20288,52 @@
       </c>
       <c r="H16" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2511933.1593115116</v>
+        <v>2472002.8504384374</v>
       </c>
       <c r="I16" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3459609.8970702845</v>
+        <v>3449617.6612474057</v>
       </c>
       <c r="J16" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2359798.5600000005</v>
+        <v>2355771.6</v>
       </c>
       <c r="K16" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>616448.38075626816</v>
+        <v>613103.989995774</v>
       </c>
       <c r="L16" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>616448.38075626816</v>
+        <v>613103.989995774</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
-        <v>6719071.1071323324</v>
+        <v>6669037.8513535168</v>
       </c>
       <c r="N16" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4551827.8993198639</v>
+        <v>4524611.1366952369</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B17" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5754417.5964696556</v>
+        <v>5715710.8490506802</v>
       </c>
       <c r="C17" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>934324.03261257184</v>
+        <v>930112.73170077289</v>
       </c>
       <c r="D17" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5071263.9651833745</v>
+        <v>5043138.0864731837</v>
       </c>
       <c r="E17" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2407416.3325054822</v>
+        <v>2393501.8134604306</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -20343,52 +20343,52 @@
       </c>
       <c r="H17" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2472002.8504384374</v>
+        <v>2464610.1794671463</v>
       </c>
       <c r="I17" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3449617.6612474057</v>
+        <v>3439623.6560018696</v>
       </c>
       <c r="J17" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2355771.6</v>
+        <v>2351744.64</v>
       </c>
       <c r="K17" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>613103.989995774</v>
+        <v>610100.70335621736</v>
       </c>
       <c r="L17" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>613103.989995774</v>
+        <v>610100.70335621736</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
-        <v>6669037.8513535168</v>
+        <v>6624178.9652347378</v>
       </c>
       <c r="N17" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4524611.1366952369</v>
+        <v>4511274.9230091693</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B18" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5715710.8490506802</v>
+        <v>5682778.383669503</v>
       </c>
       <c r="C18" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>930112.73170077289</v>
+        <v>926761.89047801169</v>
       </c>
       <c r="D18" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5043138.0864731837</v>
+        <v>5015018.1673003174</v>
       </c>
       <c r="E18" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2393501.8134604306</v>
+        <v>2379587.2944153799</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -20398,52 +20398,52 @@
       </c>
       <c r="H18" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2464610.1794671463</v>
+        <v>2457660.1067705727</v>
       </c>
       <c r="I18" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3439623.6560018696</v>
+        <v>3429633.6602299903</v>
       </c>
       <c r="J18" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2351744.64</v>
+        <v>2347717.6800000002</v>
       </c>
       <c r="K18" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>610100.70335621736</v>
+        <v>607777.3086571634</v>
       </c>
       <c r="L18" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>610100.70335621736</v>
+        <v>607777.3086571634</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
-        <v>6624178.9652347378</v>
+        <v>6586012.1387082441</v>
       </c>
       <c r="N18" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4511274.9230091693</v>
+        <v>4497938.7093231035</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B19" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5682778.383669503</v>
+        <v>5642193.7803548686</v>
       </c>
       <c r="C19" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>926761.89047801169</v>
+        <v>923783.53953476355</v>
       </c>
       <c r="D19" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5015018.1673003174</v>
+        <v>4986896.9535291838</v>
       </c>
       <c r="E19" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2379587.2944153799</v>
+        <v>2365678.9908310375</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -20453,52 +20453,52 @@
       </c>
       <c r="H19" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2457660.1067705727</v>
+        <v>2451105.8357130196</v>
       </c>
       <c r="I19" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3429633.6602299903</v>
+        <v>3419643.3546162085</v>
       </c>
       <c r="J19" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2347717.6800000002</v>
+        <v>2343690.7200000002</v>
       </c>
       <c r="K19" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>607777.3086571634</v>
+        <v>605748.1000457817</v>
       </c>
       <c r="L19" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>607777.3086571634</v>
+        <v>605748.1000457817</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
-        <v>6586012.1387082441</v>
+        <v>6538976.9259955771</v>
       </c>
       <c r="N19" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4497938.7093231035</v>
+        <v>4484602.4956370359</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B20" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5642193.7803548686</v>
+        <v>5606366.9449191354</v>
       </c>
       <c r="C20" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>923783.53953476355</v>
+        <v>920761.94092942204</v>
       </c>
       <c r="D20" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4986896.9535291838</v>
+        <v>4958774.659165916</v>
       </c>
       <c r="E20" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2365678.9908310375</v>
+        <v>2351770.6872466947</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -20508,52 +20508,52 @@
       </c>
       <c r="H20" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2451105.8357130196</v>
+        <v>2444907.5761304833</v>
       </c>
       <c r="I20" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3419643.3546162085</v>
+        <v>3409651.5318734273</v>
       </c>
       <c r="J20" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2343690.7200000002</v>
+        <v>2339663.7600000002</v>
       </c>
       <c r="K20" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>605748.1000457817</v>
+        <v>603684.81012468517</v>
       </c>
       <c r="L20" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>605748.1000457817</v>
+        <v>603684.81012468517</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
-        <v>6538976.9259955771</v>
+        <v>6497455.6916378727</v>
       </c>
       <c r="N20" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4484602.4956370359</v>
+        <v>4471266.2819509702</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B21" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5606366.9449191354</v>
+        <v>5572150.0919803614</v>
       </c>
       <c r="C21" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>920761.94092942204</v>
+        <v>917371.86576616322</v>
       </c>
       <c r="D21" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4958774.659165916</v>
+        <v>4930651.7207391467</v>
       </c>
       <c r="E21" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2351770.6872466947</v>
+        <v>2337868.5695021199</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -20563,52 +20563,52 @@
       </c>
       <c r="H21" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2444907.5761304833</v>
+        <v>2439031.2110045226</v>
       </c>
       <c r="I21" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3409651.5318734273</v>
+        <v>3399659.5746953762</v>
       </c>
       <c r="J21" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2339663.7600000002</v>
+        <v>2335636.7999999998</v>
       </c>
       <c r="K21" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>603684.81012468517</v>
+        <v>601330.37504906254</v>
       </c>
       <c r="L21" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>603684.81012468517</v>
+        <v>601330.37504906254</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
-        <v>6497455.6916378727</v>
+        <v>6457800.3340665214</v>
       </c>
       <c r="N21" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4471266.2819509702</v>
+        <v>4457930.0682649007</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B22" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5572150.0919803614</v>
+        <v>5539118.4834558573</v>
       </c>
       <c r="C22" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>917371.86576616322</v>
+        <v>913958.82450684451</v>
       </c>
       <c r="D22" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4930651.7207391467</v>
+        <v>4902527.8892413173</v>
       </c>
       <c r="E22" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2337868.5695021199</v>
+        <v>2333338.6744214161</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -20618,52 +20618,52 @@
       </c>
       <c r="H22" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2439031.2110045226</v>
+        <v>2433447.266097391</v>
       </c>
       <c r="I22" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3399659.5746953762</v>
+        <v>3389666.8436114313</v>
       </c>
       <c r="J22" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2335636.7999999998</v>
+        <v>2331609.8399999994</v>
       </c>
       <c r="K22" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>601330.37504906254</v>
+        <v>598957.8048655868</v>
       </c>
       <c r="L22" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>601330.37504906254</v>
+        <v>598957.8048655868</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
-        <v>6457800.3340665214</v>
+        <v>6419518.6063594185</v>
       </c>
       <c r="N22" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4457930.0682649007</v>
+        <v>4444593.854578835</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B23" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5539118.4834558573</v>
+        <v>5500407.7330473047</v>
       </c>
       <c r="C23" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>913958.82450684451</v>
+        <v>911014.35710941826</v>
       </c>
       <c r="D23" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4902527.8892413173</v>
+        <v>4874406.7607226819</v>
       </c>
       <c r="E23" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2333338.6744214161</v>
+        <v>2328814.9330911282</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -20673,52 +20673,52 @@
       </c>
       <c r="H23" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2433447.266097391</v>
+        <v>2428130.1035385677</v>
       </c>
       <c r="I23" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3389666.8436114313</v>
+        <v>3379676.3155708034</v>
       </c>
       <c r="J23" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2331609.8399999994</v>
+        <v>2327582.88</v>
       </c>
       <c r="K23" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>598957.8048655868</v>
+        <v>596955.4197425656</v>
       </c>
       <c r="L23" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>598957.8048655868</v>
+        <v>596955.4197425656</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
-        <v>6419518.6063594185</v>
+        <v>6374655.0810067719</v>
       </c>
       <c r="N23" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4444593.854578835</v>
+        <v>4431257.6408927673</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B24" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5500407.7330473047</v>
+        <v>5468250.3014946543</v>
       </c>
       <c r="C24" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>911014.35710941826</v>
+        <v>907420.52088100906</v>
       </c>
       <c r="D24" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4874406.7607226819</v>
+        <v>4846283.6112670014</v>
       </c>
       <c r="E24" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2328814.9330911282</v>
+        <v>2324291.1917608404</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -20728,52 +20728,52 @@
       </c>
       <c r="H24" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2428130.1035385677</v>
+        <v>2423057.2833811534</v>
       </c>
       <c r="I24" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3379676.3155708034</v>
+        <v>3369684.2256353949</v>
       </c>
       <c r="J24" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2327582.88</v>
+        <v>2323555.9199999995</v>
       </c>
       <c r="K24" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>596955.4197425656</v>
+        <v>594440.08024455211</v>
       </c>
       <c r="L24" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>596955.4197425656</v>
+        <v>594440.08024455211</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
-        <v>6374655.0810067719</v>
+        <v>6337386.4739528615</v>
       </c>
       <c r="N24" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4431257.6408927673</v>
+        <v>4417921.4272067007</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B25" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5468250.3014946543</v>
+        <v>5432367.0167962778</v>
       </c>
       <c r="C25" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>907420.52088100906</v>
+        <v>904471.68523875286</v>
       </c>
       <c r="D25" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4846283.6112670014</v>
+        <v>4818163.5130767515</v>
       </c>
       <c r="E25" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2324291.1917608404</v>
+        <v>2319773.5745600271</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -20783,52 +20783,52 @@
       </c>
       <c r="H25" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2423057.2833811534</v>
+        <v>2418209.052809441</v>
       </c>
       <c r="I25" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3369684.2256353949</v>
+        <v>3359693.9843631904</v>
       </c>
       <c r="J25" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2323555.9199999995</v>
+        <v>2319528.96</v>
       </c>
       <c r="K25" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>594440.08024455211</v>
+        <v>592434.16432381817</v>
       </c>
       <c r="L25" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>594440.08024455211</v>
+        <v>592434.16432381817</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
-        <v>6337386.4739528615</v>
+        <v>6295799.8181579839</v>
       </c>
       <c r="N25" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4417921.4272067007</v>
+        <v>4404585.2135206331</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B26" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5432367.0167962778</v>
+        <v>5398484.411653229</v>
       </c>
       <c r="C26" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>904471.68523875286</v>
+        <v>901093.79633118142</v>
       </c>
       <c r="D26" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4818163.5130767515</v>
+        <v>4790037.5216986742</v>
       </c>
       <c r="E26" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2319773.5745600271</v>
+        <v>2315255.9573592143</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -20838,52 +20838,52 @@
       </c>
       <c r="H26" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2418209.052809441</v>
+        <v>2413567.9335367209</v>
       </c>
       <c r="I26" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3359693.9843631904</v>
+        <v>3349700.2550786757</v>
       </c>
       <c r="J26" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2319528.96</v>
+        <v>2315502.0000000005</v>
       </c>
       <c r="K26" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>592434.16432381817</v>
+        <v>590089.47107294935</v>
       </c>
       <c r="L26" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>592434.16432381817</v>
+        <v>590089.47107294935</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
-        <v>6295799.8181579839</v>
+        <v>6256531.8344892133</v>
       </c>
       <c r="N26" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4404585.2135206331</v>
+        <v>4391248.9998345645</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B27" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5398484.411653229</v>
+        <v>5362891.0931715863</v>
       </c>
       <c r="C27" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>901093.79633118142</v>
+        <v>897770.77270304237</v>
       </c>
       <c r="D27" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4790037.5216986742</v>
+        <v>4761914.8773502056</v>
       </c>
       <c r="E27" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2315255.9573592143</v>
+        <v>2310744.4297301131</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -20893,52 +20893,52 @@
       </c>
       <c r="H27" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2413567.9335367209</v>
+        <v>2409118.3855665056</v>
       </c>
       <c r="I27" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3349700.2550786757</v>
+        <v>3339708.5144618037</v>
       </c>
       <c r="J27" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2315502.0000000005</v>
+        <v>2311475.04</v>
       </c>
       <c r="K27" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>590089.47107294935</v>
+        <v>587788.019180667</v>
       </c>
       <c r="L27" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>590089.47107294935</v>
+        <v>587788.019180667</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
-        <v>6256531.8344892133</v>
+        <v>6215281.2328027831</v>
       </c>
       <c r="N27" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4391248.9998345645</v>
+        <v>4378344.7551329583</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B28" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5362891.0931715863</v>
+        <v>5327297.7746899435</v>
       </c>
       <c r="C28" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>897770.77270304237</v>
+        <v>894447.74907490343</v>
       </c>
       <c r="D28" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4761914.8773502056</v>
+        <v>4733792.2330017341</v>
       </c>
       <c r="E28" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2310744.4297301131</v>
+        <v>2306232.9021010105</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -20948,52 +20948,52 @@
       </c>
       <c r="H28" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2409118.3855665056</v>
+        <v>2404846.5309510562</v>
       </c>
       <c r="I28" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3339708.5144618037</v>
+        <v>3329716.7738449299</v>
       </c>
       <c r="J28" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2311475.04</v>
+        <v>2307448.0799999996</v>
       </c>
       <c r="K28" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>587788.019180667</v>
+        <v>585486.56728838454</v>
       </c>
       <c r="L28" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>587788.019180667</v>
+        <v>585486.56728838454</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
-        <v>6215281.2328027831</v>
+        <v>6174030.631116352</v>
       </c>
       <c r="N28" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4378344.7551329583</v>
+        <v>4365440.5104313511</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B29" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5327297.7746899435</v>
+        <v>5291704.4562082998</v>
       </c>
       <c r="C29" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>894447.74907490343</v>
+        <v>891124.72544676426</v>
       </c>
       <c r="D29" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4733792.2330017341</v>
+        <v>4705669.5886532655</v>
       </c>
       <c r="E29" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2306232.9021010105</v>
+        <v>2301727.4344226797</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -21003,52 +21003,52 @@
       </c>
       <c r="H29" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2404846.5309510562</v>
+        <v>2400739.9251324562</v>
       </c>
       <c r="I29" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3329716.7738449299</v>
+        <v>3319725.0332280574</v>
       </c>
       <c r="J29" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2307448.0799999996</v>
+        <v>2303421.12</v>
       </c>
       <c r="K29" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>585486.56728838454</v>
+        <v>583185.11539610196</v>
       </c>
       <c r="L29" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>585486.56728838454</v>
+        <v>583185.11539610196</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
-        <v>6174030.631116352</v>
+        <v>6132780.0294299209</v>
       </c>
       <c r="N29" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4365440.5104313511</v>
+        <v>4352536.2657297431</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B30" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5291704.4562082998</v>
+        <v>5256111.1377266571</v>
       </c>
       <c r="C30" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>891124.72544676426</v>
+        <v>887801.70181862509</v>
       </c>
       <c r="D30" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4705669.5886532655</v>
+        <v>4677546.9443047941</v>
       </c>
       <c r="E30" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2301727.4344226797</v>
+        <v>2297221.9667443484</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -21058,52 +21058,52 @@
       </c>
       <c r="H30" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2400739.9251324562</v>
+        <v>2396787.3663480976</v>
       </c>
       <c r="I30" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3319725.0332280574</v>
+        <v>3309733.2926111841</v>
       </c>
       <c r="J30" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2303421.12</v>
+        <v>2299394.1600000006</v>
       </c>
       <c r="K30" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>583185.11539610196</v>
+        <v>580883.66350381961</v>
       </c>
       <c r="L30" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>583185.11539610196</v>
+        <v>580883.66350381961</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
-        <v>6132780.0294299209</v>
+        <v>6091529.4277434908</v>
       </c>
       <c r="N30" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4352536.2657297431</v>
+        <v>4339632.0210281368</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B31" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5256111.1377266571</v>
+        <v>5220517.8192450143</v>
       </c>
       <c r="C31" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>887801.70181862509</v>
+        <v>884478.67819048627</v>
       </c>
       <c r="D31" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4677546.9443047941</v>
+        <v>4649424.2999563245</v>
       </c>
       <c r="E31" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2297221.9667443484</v>
+        <v>2292722.5293958476</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -21113,52 +21113,52 @@
       </c>
       <c r="H31" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2396787.3663480976</v>
+        <v>2392978.7357348814</v>
       </c>
       <c r="I31" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3309733.2926111841</v>
+        <v>3299741.5519943121</v>
       </c>
       <c r="J31" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2299394.1600000006</v>
+        <v>2295367.2000000007</v>
       </c>
       <c r="K31" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>580883.66350381961</v>
+        <v>578582.21161153703</v>
       </c>
       <c r="L31" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>580883.66350381961</v>
+        <v>578582.21161153703</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
-        <v>6091529.4277434908</v>
+        <v>6050278.8260570597</v>
       </c>
       <c r="N31" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4339632.0210281368</v>
+        <v>4326727.7763265288</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B32" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5220517.8192450143</v>
+        <v>5184924.5007633707</v>
       </c>
       <c r="C32" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>884478.67819048627</v>
+        <v>881155.6545623471</v>
       </c>
       <c r="D32" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4649424.2999563245</v>
+        <v>4621301.655607854</v>
       </c>
       <c r="E32" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2292722.5293958476</v>
+        <v>2288223.0920473468</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -21168,52 +21168,52 @@
       </c>
       <c r="H32" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2392978.7357348814</v>
+        <v>2389304.8623762177</v>
       </c>
       <c r="I32" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3299741.5519943121</v>
+        <v>3289749.8113774383</v>
       </c>
       <c r="J32" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2295367.2000000007</v>
+        <v>2291340.2399999998</v>
       </c>
       <c r="K32" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>578582.21161153703</v>
+        <v>576280.75971925457</v>
       </c>
       <c r="L32" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>578582.21161153703</v>
+        <v>576280.75971925457</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
-        <v>6050278.8260570597</v>
+        <v>6009028.2243706286</v>
       </c>
       <c r="N32" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4326727.7763265288</v>
+        <v>4313823.5316249179</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B33" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5184924.5007633707</v>
+        <v>5149331.1822817288</v>
       </c>
       <c r="C33" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>881155.6545623471</v>
+        <v>877832.63093420805</v>
       </c>
       <c r="D33" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4621301.655607854</v>
+        <v>4593179.0112593845</v>
       </c>
       <c r="E33" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2288223.0920473468</v>
+        <v>2283729.6504709106</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -21223,52 +21223,52 @@
       </c>
       <c r="H33" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2389304.8623762177</v>
+        <v>2385757.4087592675</v>
       </c>
       <c r="I33" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3289749.8113774383</v>
+        <v>3279758.0707605658</v>
       </c>
       <c r="J33" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2291340.2399999998</v>
+        <v>2287313.2799999993</v>
       </c>
       <c r="K33" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>576280.75971925457</v>
+        <v>573979.3078269721</v>
       </c>
       <c r="L33" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>576280.75971925457</v>
+        <v>573979.3078269721</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
-        <v>6009028.2243706286</v>
+        <v>5967777.6226841994</v>
       </c>
       <c r="N33" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4313823.5316249179</v>
+        <v>4300919.2869233117</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B34" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5149331.1822817288</v>
+        <v>5113737.8638000861</v>
       </c>
       <c r="C34" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>877832.63093420805</v>
+        <v>874509.60730606911</v>
       </c>
       <c r="D34" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4593179.0112593845</v>
+        <v>4565056.366910913</v>
       </c>
       <c r="E34" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2283729.6504709106</v>
+        <v>2279236.2088944758</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -21278,52 +21278,52 @@
       </c>
       <c r="H34" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2385757.4087592675</v>
+        <v>2382328.7730417219</v>
       </c>
       <c r="I34" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3279758.0707605658</v>
+        <v>3269766.3301436924</v>
       </c>
       <c r="J34" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2287313.2799999993</v>
+        <v>2283286.3199999994</v>
       </c>
       <c r="K34" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>573979.3078269721</v>
+        <v>571677.85593468964</v>
       </c>
       <c r="L34" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>573979.3078269721</v>
+        <v>571677.85593468964</v>
       </c>
       <c r="M34" s="4">
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
-        <v>5967777.6226841994</v>
+        <v>5926527.0209977683</v>
       </c>
       <c r="N34" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4300919.2869233117</v>
+        <v>4288015.0422217054</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B35" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5113737.8638000861</v>
+        <v>5078144.5453184424</v>
       </c>
       <c r="C35" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>874509.60730606911</v>
+        <v>871186.58367792994</v>
       </c>
       <c r="D35" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4565056.366910913</v>
+        <v>4536933.7225624444</v>
       </c>
       <c r="E35" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2279236.2088944758</v>
+        <v>2274748.7359375772</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -21333,52 +21333,52 @@
       </c>
       <c r="H35" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2382328.7730417219</v>
+        <v>2379012.0052493522</v>
       </c>
       <c r="I35" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3269766.3301436924</v>
+        <v>3259774.5895268191</v>
       </c>
       <c r="J35" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2283286.3199999994</v>
+        <v>2279259.36</v>
       </c>
       <c r="K35" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>571677.85593468964</v>
+        <v>569376.40404240706</v>
       </c>
       <c r="L35" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>571677.85593468964</v>
+        <v>569376.40404240706</v>
       </c>
       <c r="M35" s="4">
         <f>B35*'Coal Cost Multipliers'!$B$33</f>
-        <v>5926527.0209977683</v>
+        <v>5885276.4193113372</v>
       </c>
       <c r="N35" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4288015.0422217054</v>
+        <v>4275110.7975200973</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B36" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5078144.5453184424</v>
+        <v>5042551.2268367996</v>
       </c>
       <c r="C36" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>871186.58367792994</v>
+        <v>867863.56004979089</v>
       </c>
       <c r="D36" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4536933.7225624444</v>
+        <v>4508811.0782139739</v>
       </c>
       <c r="E36" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2274748.7359375772</v>
+        <v>2270261.2629806786</v>
       </c>
       <c r="F36" s="4">
         <v>0</v>
@@ -21388,87 +21388,35 @@
       </c>
       <c r="H36" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2379012.0052493522</v>
+        <v>2375800.7350839968</v>
       </c>
       <c r="I36" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3259774.5895268191</v>
+        <v>3249782.8489099462</v>
       </c>
       <c r="J36" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2279259.36</v>
+        <v>2275232.4000000004</v>
       </c>
       <c r="K36" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>569376.40404240706</v>
+        <v>567074.95215012471</v>
       </c>
       <c r="L36" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>569376.40404240706</v>
+        <v>567074.95215012471</v>
       </c>
       <c r="M36" s="4">
         <f>B36*'Coal Cost Multipliers'!$B$33</f>
-        <v>5885276.4193113372</v>
+        <v>5844025.817624907</v>
       </c>
       <c r="N36" s="50">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4275110.7975200973</v>
+        <v>4262206.5528184893</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B37" s="4">
-        <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5042551.2268367996</v>
-      </c>
-      <c r="C37" s="4">
-        <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>867863.56004979089</v>
-      </c>
-      <c r="D37" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4508811.0782139739</v>
-      </c>
-      <c r="E37" s="4">
-        <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2270261.2629806786</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4">
-        <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2375800.7350839968</v>
-      </c>
-      <c r="I37" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3249782.8489099462</v>
-      </c>
-      <c r="J37" s="4">
-        <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2275232.4000000004</v>
-      </c>
-      <c r="K37" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>567074.95215012471</v>
-      </c>
-      <c r="L37" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>567074.95215012471</v>
-      </c>
-      <c r="M37" s="4">
-        <f>B37*'Coal Cost Multipliers'!$B$33</f>
-        <v>5844025.817624907</v>
-      </c>
-      <c r="N37" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A37,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4262206.5528184893</v>
-      </c>
+      <c r="B37" s="12"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
@@ -21505,9 +21453,6 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipB\InputData\elec\CCaMC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12840"/>
   </bookViews>
@@ -16,7 +21,7 @@
     <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId7"/>
     <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -291,9 +296,6 @@
   </si>
   <si>
     <t>so we assume they are 2015 dollars.</t>
-  </si>
-  <si>
-    <t>curves to determine cost declines.  Therefore, we only specify the start year costs in this document (meaning the year before the first simulated year),</t>
   </si>
   <si>
     <t>and the model handles calculations for subsequent years.  (We do not use EIA for the start year solar and wind</t>
@@ -949,11 +951,14 @@
   <si>
     <t>2016 Onshore Wind Capital Cost</t>
   </si>
+  <si>
+    <t>curves to determine cost declines.  Therefore, we only specify the first simulated year costs in this spreadsheet,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1273,7 +1278,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1398,7 +1403,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1529,7 +1533,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1564,7 +1568,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1773,7 +1777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1817,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -1838,7 +1842,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1846,7 +1850,7 @@
         <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,7 +1858,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1863,18 +1867,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,7 +1891,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>83</v>
@@ -1895,18 +1899,18 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1918,7 +1922,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1927,7 +1931,7 @@
         <v>78</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1945,16 +1949,16 @@
         <v>79</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="50" t="s">
         <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2022,7 +2026,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -2059,7 +2063,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2072,7 +2076,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -2248,7 +2252,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="11"/>
@@ -2261,7 +2265,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="11"/>
@@ -2274,7 +2278,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="11"/>
@@ -2381,7 +2385,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2440,7 +2444,9 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
+      <c r="A64" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="B64" s="9"/>
       <c r="D64" s="7"/>
       <c r="E64" s="11"/>
@@ -2464,9 +2470,7 @@
       <c r="K65" s="11"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="A66" s="10"/>
       <c r="B66" s="9"/>
       <c r="D66" s="7"/>
       <c r="E66" s="11"/>
@@ -2670,7 +2674,7 @@
       <c r="K82" s="11"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="9"/>
       <c r="D83" s="7"/>
       <c r="E83" s="11"/>
@@ -2680,30 +2684,6 @@
       <c r="I83" s="11"/>
       <c r="J83" s="11"/>
       <c r="K83" s="11"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="9"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
-      <c r="B85" s="9"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2736,7 +2716,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>47</v>
@@ -2753,10 +2733,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -2787,10 +2767,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -2810,7 +2790,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>49</v>
@@ -2830,7 +2810,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -2864,7 +2844,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
@@ -2884,7 +2864,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
@@ -2918,7 +2898,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
@@ -2966,7 +2946,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -2986,7 +2966,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
@@ -3020,7 +3000,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
         <v>59</v>
@@ -3037,10 +3017,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -3057,10 +3037,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
         <v>60</v>
@@ -3080,7 +3060,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -3100,7 +3080,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
         <v>61</v>
@@ -3134,7 +3114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3179,7 +3161,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="16">
         <v>1.06</v>
@@ -3213,65 +3195,65 @@
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="H1" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="53"/>
+        <v>101</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="29">
         <v>1000</v>
@@ -3285,7 +3267,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="29">
         <v>1000</v>
@@ -3311,10 +3293,10 @@
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="C6" s="33">
         <v>3641</v>
@@ -3337,7 +3319,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -3349,7 +3331,7 @@
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="37">
         <v>1000</v>
@@ -3375,7 +3357,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -3387,7 +3369,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="37">
         <v>1000</v>
@@ -3413,7 +3395,7 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -3425,7 +3407,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="37">
         <v>1000</v>
@@ -3451,7 +3433,7 @@
     </row>
     <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="37">
         <v>1000</v>
@@ -3477,7 +3459,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="37">
         <v>1000</v>
@@ -3503,7 +3485,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="37">
         <v>1000</v>
@@ -3529,7 +3511,7 @@
     </row>
     <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="37">
         <v>1000</v>
@@ -3555,7 +3537,7 @@
     </row>
     <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="37">
         <v>1000</v>
@@ -3581,7 +3563,7 @@
     </row>
     <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="37">
         <v>1000</v>
@@ -3607,7 +3589,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="37">
         <v>1000</v>
@@ -3633,7 +3615,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" s="37">
         <v>1000</v>
@@ -3659,7 +3641,7 @@
     </row>
     <row r="21" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="37">
         <v>1000</v>
@@ -3685,7 +3667,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" s="37">
         <v>1000</v>
@@ -3711,7 +3693,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B23" s="37">
         <v>1000</v>
@@ -3737,7 +3719,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="37">
         <v>1000</v>
@@ -3763,7 +3745,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="37">
         <v>1000</v>
@@ -3789,19 +3771,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="37">
         <v>1000</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" s="41">
         <v>555</v>
@@ -3815,7 +3797,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="37">
         <v>1000</v>
@@ -3841,10 +3823,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>126</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>127</v>
       </c>
       <c r="C28" s="44">
         <v>3.73</v>
@@ -3867,7 +3849,7 @@
     </row>
     <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B29" s="45">
         <v>1000</v>
@@ -3893,10 +3875,10 @@
     </row>
     <row r="30" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C30" s="44">
         <v>7.69</v>
@@ -3919,12 +3901,12 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B33" s="49">
         <f>D6/AVERAGE(C6,E6)</f>
@@ -3935,7 +3917,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B34" s="49">
         <f>D28/(AVERAGE(C28,E28))</f>
@@ -3946,7 +3928,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="49">
         <f>D10/AVERAGE(E10,C10)</f>
@@ -3983,15 +3965,15 @@
   <sheetData>
     <row r="1" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="23">
         <v>2014</v>
@@ -4110,7 +4092,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="23">
         <v>6542.8564452168666</v>
@@ -4229,7 +4211,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="23">
         <v>6542.8564452168666</v>
@@ -4348,7 +4330,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="23">
         <v>6542.8564452168666</v>
@@ -4467,7 +4449,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C6" s="23">
         <v>6542.8564452168666</v>
@@ -4586,7 +4568,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="23">
         <v>6542.8564452168666</v>
@@ -4705,7 +4687,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="23">
         <v>6542.8564452168666</v>
@@ -4824,7 +4806,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C9" s="23">
         <v>1016.669044128</v>
@@ -4943,7 +4925,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="23">
         <v>1016.669044128</v>
@@ -5062,7 +5044,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="23">
         <v>1016.669044128</v>
@@ -5181,7 +5163,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="23">
         <v>5937.8628529899997</v>
@@ -5300,7 +5282,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="23">
         <v>5937.8628529899997</v>
@@ -5419,7 +5401,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="23">
         <v>5937.8628529899997</v>
@@ -5538,7 +5520,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="23">
         <v>5404.5923246599996</v>
@@ -5657,7 +5639,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="23">
         <v>5404.5923246599996</v>
@@ -5776,7 +5758,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="23">
         <v>5404.5923246599996</v>
@@ -5895,7 +5877,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="23">
         <v>3976.7149884099999</v>
@@ -6014,7 +5996,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="23">
         <v>3976.7149884099999</v>
@@ -6133,7 +6115,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="23">
         <v>3976.7149884099999</v>
@@ -6252,7 +6234,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="23">
         <v>3749.3454306399999</v>
@@ -6371,7 +6353,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" s="23">
         <v>3749.3454306399999</v>
@@ -6490,7 +6472,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="23">
         <v>3749.3454306399999</v>
@@ -6609,7 +6591,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="23">
         <v>6997.72266167</v>
@@ -6728,7 +6710,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="23">
         <v>6997.72266167</v>
@@ -6847,7 +6829,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="23">
         <v>6997.72266167</v>
@@ -6966,7 +6948,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="23">
         <v>6247.0408507000002</v>
@@ -7085,7 +7067,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="23">
         <v>6247.0408507000002</v>
@@ -7204,7 +7186,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="23">
         <v>6247.0408507000002</v>
@@ -7323,7 +7305,7 @@
         <v>17</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="23">
         <v>6118.6170122000003</v>
@@ -7442,7 +7424,7 @@
         <v>17</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="23">
         <v>6118.6170122000003</v>
@@ -7561,7 +7543,7 @@
         <v>17</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="23">
         <v>6118.6170122000003</v>
@@ -7680,7 +7662,7 @@
         <v>17</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="23">
         <v>5508.1456035900001</v>
@@ -7799,7 +7781,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="23">
         <v>5508.1456035900001</v>
@@ -7918,7 +7900,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="23">
         <v>5508.1456035900001</v>
@@ -8037,7 +8019,7 @@
         <v>16</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="23">
         <v>5486.0752926746272</v>
@@ -8156,7 +8138,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37">
         <v>6846</v>
@@ -8275,7 +8257,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38">
         <v>6846</v>
@@ -8394,7 +8376,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39">
         <v>6846</v>
@@ -8513,7 +8495,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C40">
         <v>6846</v>
@@ -8632,7 +8614,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C41">
         <v>6846</v>
@@ -8751,7 +8733,7 @@
         <v>19</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42">
         <v>6846</v>
@@ -8870,7 +8852,7 @@
         <v>19</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43">
         <v>6846</v>
@@ -8989,7 +8971,7 @@
         <v>19</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44">
         <v>6846</v>
@@ -9108,7 +9090,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45">
         <v>6846</v>
@@ -9227,7 +9209,7 @@
         <v>19</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46">
         <v>8024.8</v>
@@ -9346,7 +9328,7 @@
         <v>19</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47">
         <v>8024.8</v>
@@ -9465,7 +9447,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48">
         <v>8024.8</v>
@@ -9584,7 +9566,7 @@
         <v>19</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C49">
         <v>8024.8</v>
@@ -9703,7 +9685,7 @@
         <v>19</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50">
         <v>8024.8</v>
@@ -9822,7 +9804,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C51">
         <v>8024.8</v>
@@ -9941,7 +9923,7 @@
         <v>19</v>
       </c>
       <c r="B52" s="23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52">
         <v>8024.8</v>
@@ -10060,7 +10042,7 @@
         <v>19</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C53">
         <v>8024.8</v>
@@ -10179,7 +10161,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54">
         <v>8024.8</v>
@@ -10298,7 +10280,7 @@
         <v>20</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C55">
         <v>3717.5439999999999</v>
@@ -10417,7 +10399,7 @@
         <v>20</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C56">
         <v>3717.5439999999999</v>
@@ -10536,7 +10518,7 @@
         <v>20</v>
       </c>
       <c r="B57" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57">
         <v>3717.5439999999999</v>
@@ -10655,7 +10637,7 @@
         <v>20</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C58">
         <v>3829.4706747999999</v>
@@ -10774,7 +10756,7 @@
         <v>20</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C59">
         <v>3829.4706747999999</v>
@@ -10893,7 +10875,7 @@
         <v>20</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C60">
         <v>3829.4706747999999</v>
@@ -11012,7 +10994,7 @@
         <v>20</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C61">
         <v>3829.4706747999999</v>
@@ -11131,7 +11113,7 @@
         <v>20</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C62">
         <v>3829.4706747999999</v>
@@ -11250,7 +11232,7 @@
         <v>20</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C63">
         <v>3829.4706747999999</v>
@@ -11369,7 +11351,7 @@
         <v>34</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C64">
         <v>4567</v>
@@ -11488,7 +11470,7 @@
         <v>34</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C65">
         <v>4567</v>
@@ -11607,7 +11589,7 @@
         <v>34</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C66">
         <v>4567</v>
@@ -11726,7 +11708,7 @@
         <v>34</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C67">
         <v>5465</v>
@@ -11845,7 +11827,7 @@
         <v>34</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C68">
         <v>5465</v>
@@ -11964,7 +11946,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C69">
         <v>5465</v>
@@ -12083,7 +12065,7 @@
         <v>34</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C70">
         <v>8100</v>
@@ -12202,7 +12184,7 @@
         <v>34</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C71">
         <v>8100</v>
@@ -12321,7 +12303,7 @@
         <v>34</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C72">
         <v>8100</v>
@@ -12440,7 +12422,7 @@
         <v>34</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C73">
         <v>12179</v>
@@ -12559,7 +12541,7 @@
         <v>34</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C74">
         <v>12179</v>
@@ -12678,7 +12660,7 @@
         <v>34</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C75">
         <v>12179</v>
@@ -12797,7 +12779,7 @@
         <v>34</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C76">
         <v>8100</v>
@@ -12916,7 +12898,7 @@
         <v>34</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C77">
         <v>8100</v>
@@ -13035,7 +13017,7 @@
         <v>34</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C78">
         <v>8100</v>
@@ -13154,7 +13136,7 @@
         <v>34</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C79">
         <v>12179</v>
@@ -13273,7 +13255,7 @@
         <v>34</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C80">
         <v>12179</v>
@@ -13392,7 +13374,7 @@
         <v>34</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C81">
         <v>12179</v>
@@ -13511,7 +13493,7 @@
         <v>36</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C82">
         <v>869.1945425319999</v>
@@ -13630,7 +13612,7 @@
         <v>36</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C83">
         <v>869.1945425319999</v>
@@ -13749,7 +13731,7 @@
         <v>36</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C84">
         <v>869.1945425319999</v>
@@ -13865,10 +13847,10 @@
     </row>
     <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C85">
         <v>5391.5126343022939</v>
@@ -13984,10 +13966,10 @@
     </row>
     <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86">
         <v>5391.5126343022939</v>
@@ -14103,10 +14085,10 @@
     </row>
     <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C87">
         <v>5391.5126343022939</v>
@@ -14222,10 +14204,10 @@
     </row>
     <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88">
         <v>5391.512634302233</v>
@@ -14341,10 +14323,10 @@
     </row>
     <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C89">
         <v>5391.512634302233</v>
@@ -14460,10 +14442,10 @@
     </row>
     <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C90">
         <v>5391.512634302233</v>
@@ -14579,10 +14561,10 @@
     </row>
     <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91">
         <v>5391.5126343022639</v>
@@ -14698,10 +14680,10 @@
     </row>
     <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92">
         <v>5391.5126343022639</v>
@@ -14817,10 +14799,10 @@
     </row>
     <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93">
         <v>5391.5126343022639</v>
@@ -14936,10 +14918,10 @@
     </row>
     <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C94">
         <v>5391.5126343023448</v>
@@ -15055,10 +15037,10 @@
     </row>
     <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C95">
         <v>5391.5126343023448</v>
@@ -15174,10 +15156,10 @@
     </row>
     <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C96">
         <v>5391.5126343023448</v>
@@ -15293,10 +15275,10 @@
     </row>
     <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C97">
         <v>5953.3433007831181</v>
@@ -15412,10 +15394,10 @@
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98">
         <v>5953.3433007831181</v>
@@ -15531,10 +15513,10 @@
     </row>
     <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C99">
         <v>5953.3433007831181</v>
@@ -15650,10 +15632,10 @@
     </row>
     <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C100">
         <v>5953.3433007831181</v>
@@ -15769,10 +15751,10 @@
     </row>
     <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C101">
         <v>5953.3433007831181</v>
@@ -15888,10 +15870,10 @@
     </row>
     <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102">
         <v>5953.3433007831181</v>
@@ -16007,10 +15989,10 @@
     </row>
     <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C103">
         <v>5953.3433007831181</v>
@@ -16126,10 +16108,10 @@
     </row>
     <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C104">
         <v>5953.3433007831181</v>
@@ -16245,10 +16227,10 @@
     </row>
     <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C105">
         <v>5953.3433007831181</v>
@@ -16364,10 +16346,10 @@
     </row>
     <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C106">
         <v>6968.7620282760181</v>
@@ -16483,10 +16465,10 @@
     </row>
     <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C107">
         <v>6968.7620282760181</v>
@@ -16602,10 +16584,10 @@
     </row>
     <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C108">
         <v>6968.7620282760181</v>
@@ -16721,10 +16703,10 @@
     </row>
     <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C109">
         <v>6968.762028276089</v>
@@ -16840,10 +16822,10 @@
     </row>
     <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C110">
         <v>6968.762028276089</v>
@@ -16959,10 +16941,10 @@
     </row>
     <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C111">
         <v>6968.762028276089</v>
@@ -17078,10 +17060,10 @@
     </row>
     <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C112">
         <v>6968.762028276079</v>
@@ -17197,10 +17179,10 @@
     </row>
     <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C113">
         <v>6968.762028276079</v>
@@ -17316,10 +17298,10 @@
     </row>
     <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C114">
         <v>6968.762028276079</v>
@@ -18773,7 +18755,7 @@
     </row>
     <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="23">
         <f t="shared" si="1"/>
@@ -18951,18 +18933,18 @@
         <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4">
         <f>'EIA Costs'!F2*1000</f>
@@ -19026,7 +19008,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!F18*1000</f>
@@ -19138,7 +19120,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$35</f>
@@ -19155,7 +19137,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14">
         <f>'EIA Costs'!F19*1000</f>
@@ -19196,13 +19178,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -19271,7 +19253,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!E18</f>
@@ -19383,7 +19365,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
@@ -19400,7 +19382,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="23">
         <f>'EIA Costs'!E19*1000</f>
@@ -19424,7 +19406,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19449,7 +19431,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>37</v>
@@ -19461,7 +19443,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>10</v>
@@ -19482,15 +19464,15 @@
         <v>40</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B2" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19498,7 +19480,7 @@
       </c>
       <c r="C2" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>1003779</v>
+        <v>991575.67812926287</v>
       </c>
       <c r="D2" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19506,7 +19488,7 @@
       </c>
       <c r="E2" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2602573.1991149751</v>
+        <v>2588614.2535958025</v>
       </c>
       <c r="F2" s="20">
         <f>'Start Year Wind and Solar'!B3*10^3*About!$A$62</f>
@@ -19518,44 +19500,44 @@
       </c>
       <c r="H2" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3719150.3126843655</v>
+        <v>3579063.4690265493</v>
       </c>
       <c r="I2" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3607245.8903238592</v>
+        <v>3563598.6740940069</v>
       </c>
       <c r="J2" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2412149.04</v>
+        <v>2408122.0799999996</v>
       </c>
       <c r="K2" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>662277</v>
+        <v>654225.44741861895</v>
       </c>
       <c r="L2" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>662277</v>
+        <v>654225.44741861895</v>
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
         <v>7426043.1913562696</v>
       </c>
-      <c r="N2" s="50">
+      <c r="N2" s="20">
         <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5509420.9620956331</v>
+        <v>5406106.509524825</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6407604</v>
+        <v>6324501.0635977117</v>
       </c>
       <c r="C3" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>991575.67812926287</v>
+        <v>988819.15500394534</v>
       </c>
       <c r="D3" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19563,7 +19545,7 @@
       </c>
       <c r="E3" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2588614.2535958025</v>
+        <v>2574655.3080766289</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -19573,44 +19555,43 @@
       </c>
       <c r="H3" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3579063.4690265493</v>
+        <v>3438976.6253687306</v>
       </c>
       <c r="I3" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3563598.6740940069</v>
+        <v>3552150.0543228374</v>
       </c>
       <c r="J3" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2408122.0799999996</v>
+        <v>2404095.1200000006</v>
       </c>
       <c r="K3" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>654225.44741861895</v>
+        <v>652272.3387205411</v>
       </c>
       <c r="L3" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>654225.44741861895</v>
+        <v>652272.3387205411</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
-        <v>7426043.1913562696</v>
-      </c>
-      <c r="N3" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5406106.509524825</v>
+        <v>7329731.6847382076</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6324501.0635977117</v>
+        <v>6227955.0314686652</v>
       </c>
       <c r="C4" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>988819.15500394534</v>
+        <v>985294.78179011226</v>
       </c>
       <c r="D4" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19618,7 +19599,7 @@
       </c>
       <c r="E4" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2574655.3080766289</v>
+        <v>2560702.8051120425</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -19628,44 +19609,43 @@
       </c>
       <c r="H4" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3438976.6253687306</v>
+        <v>3298889.7817109143</v>
       </c>
       <c r="I4" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3552150.0543228374</v>
+        <v>3559522.4329931699</v>
       </c>
       <c r="J4" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2404095.1200000006</v>
+        <v>2400068.1600000006</v>
       </c>
       <c r="K4" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>652272.3387205411</v>
+        <v>649811.88595093053</v>
       </c>
       <c r="L4" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>652272.3387205411</v>
+        <v>649811.88595093053</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
-        <v>7329731.6847382076</v>
-      </c>
-      <c r="N4" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5302792.0569540178</v>
+        <v>7217840.4061035775</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6227955.0314686652</v>
+        <v>6124223.8852365119</v>
       </c>
       <c r="C5" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>985294.78179011226</v>
+        <v>979289.502287613</v>
       </c>
       <c r="D5" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19673,7 +19653,7 @@
       </c>
       <c r="E5" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2560702.8051120425</v>
+        <v>2546750.302147456</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -19683,44 +19663,43 @@
       </c>
       <c r="H5" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3298889.7817109143</v>
+        <v>3158802.938053098</v>
       </c>
       <c r="I5" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3559522.4329931699</v>
+        <v>3549532.803845725</v>
       </c>
       <c r="J5" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2400068.1600000006</v>
+        <v>2396041.2000000002</v>
       </c>
       <c r="K5" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>649811.88595093053</v>
+        <v>645390.95246922853</v>
       </c>
       <c r="L5" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>649811.88595093053</v>
+        <v>645390.95246922853</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
-        <v>7217840.4061035775</v>
-      </c>
-      <c r="N5" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5199477.6043832069</v>
+        <v>7097621.9949456993</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6124223.8852365119</v>
+        <v>6088061.5576230651</v>
       </c>
       <c r="C6" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>979289.502287613</v>
+        <v>976407.13601662824</v>
       </c>
       <c r="D6" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19728,7 +19707,7 @@
       </c>
       <c r="E6" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2546750.302147456</v>
+        <v>2532804.2145849285</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -19738,44 +19717,43 @@
       </c>
       <c r="H6" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3158802.938053098</v>
+        <v>3062684.4778761058</v>
       </c>
       <c r="I6" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3549532.803845725</v>
+        <v>3539540.8623545752</v>
       </c>
       <c r="J6" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2396041.2000000002</v>
+        <v>2392014.2399999993</v>
       </c>
       <c r="K6" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>645390.95246922853</v>
+        <v>643437.69417805946</v>
       </c>
       <c r="L6" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>645390.95246922853</v>
+        <v>643437.69417805946</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
-        <v>7097621.9949456993</v>
-      </c>
-      <c r="N6" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>5096163.1518123988</v>
+        <v>7055711.944518514</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B7" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6088061.5576230651</v>
+        <v>6057039.1972367624</v>
       </c>
       <c r="C7" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>976407.13601662824</v>
+        <v>973471.88135317795</v>
       </c>
       <c r="D7" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
@@ -19783,7 +19761,7 @@
       </c>
       <c r="E7" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2532804.2145849285</v>
+        <v>2518858.1270224005</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -19793,52 +19771,51 @@
       </c>
       <c r="H7" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3062684.4778761058</v>
+        <v>2966566.017699115</v>
       </c>
       <c r="I7" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3539540.8623545752</v>
+        <v>3529549.3347471482</v>
       </c>
       <c r="J7" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2392014.2399999993</v>
+        <v>2387987.2799999998</v>
       </c>
       <c r="K7" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>643437.69417805946</v>
+        <v>641442.67327765853</v>
       </c>
       <c r="L7" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>643437.69417805946</v>
+        <v>641442.67327765853</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
-        <v>7055711.944518514</v>
-      </c>
-      <c r="N7" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4969151.5928974757</v>
+        <v>7019758.8194304937</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6057039.1972367624</v>
+        <v>6026017.9332363233</v>
       </c>
       <c r="C8" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>973471.88135317795</v>
+        <v>970589.10973750602</v>
       </c>
       <c r="D8" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5296242</v>
+        <v>5268116.717585152</v>
       </c>
       <c r="E8" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2518858.1270224005</v>
+        <v>2504918.415367343</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -19848,52 +19825,51 @@
       </c>
       <c r="H8" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2966566.017699115</v>
+        <v>2870447.5575221237</v>
       </c>
       <c r="I8" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3529549.3347471482</v>
+        <v>3519555.68758268</v>
       </c>
       <c r="J8" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2387987.2799999998</v>
+        <v>2383960.3199999998</v>
       </c>
       <c r="K8" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>641442.67327765853</v>
+        <v>639489.166581125</v>
       </c>
       <c r="L8" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>641442.67327765853</v>
+        <v>639489.166581125</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
-        <v>7019758.8194304937</v>
-      </c>
-      <c r="N8" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4842140.0339825507</v>
+        <v>6983806.9649904054</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B9" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>6026017.9332363233</v>
+        <v>5988254.6391228698</v>
       </c>
       <c r="C9" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>970589.10973750602</v>
+        <v>967707.66174976574</v>
       </c>
       <c r="D9" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5268116.717585152</v>
+        <v>5239997.2947989823</v>
       </c>
       <c r="E9" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2504918.415367343</v>
+        <v>2490978.7037122855</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -19903,52 +19879,51 @@
       </c>
       <c r="H9" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2870447.5575221237</v>
+        <v>2774329.0973451324</v>
       </c>
       <c r="I9" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3519555.68758268</v>
+        <v>3509566.3027282432</v>
       </c>
       <c r="J9" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2383960.3199999998</v>
+        <v>2379933.3600000003</v>
       </c>
       <c r="K9" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>639489.166581125</v>
+        <v>637536.40933158563</v>
       </c>
       <c r="L9" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>639489.166581125</v>
+        <v>637536.40933158563</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
-        <v>6983806.9649904054</v>
-      </c>
-      <c r="N9" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4715128.4750676258</v>
+        <v>6940041.4867969342</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B10" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5988254.6391228698</v>
+        <v>5955706.6670725187</v>
       </c>
       <c r="C10" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>967707.66174976574</v>
+        <v>964698.16035180876</v>
       </c>
       <c r="D10" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5239997.2947989823</v>
+        <v>5211872.756320606</v>
       </c>
       <c r="E10" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2490978.7037122855</v>
+        <v>2477045.3383437586</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -19958,52 +19933,51 @@
       </c>
       <c r="H10" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2774329.0973451324</v>
+        <v>2678210.637168142</v>
       </c>
       <c r="I10" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3509566.3027282432</v>
+        <v>3499572.9801377142</v>
       </c>
       <c r="J10" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2379933.3600000003</v>
+        <v>2375906.4000000004</v>
       </c>
       <c r="K10" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>637536.40933158563</v>
+        <v>635482.86120436469</v>
       </c>
       <c r="L10" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>637536.40933158563</v>
+        <v>635482.86120436469</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
-        <v>6940041.4867969342</v>
-      </c>
-      <c r="N10" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4687911.7124429978</v>
+        <v>6902320.265848049</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B11" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5955706.6670725187</v>
+        <v>5916751.4649672946</v>
       </c>
       <c r="C11" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>964698.16035180876</v>
+        <v>956101.73111187026</v>
       </c>
       <c r="D11" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5211872.756320606</v>
+        <v>5183752.7893056097</v>
       </c>
       <c r="E11" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2477045.3383437586</v>
+        <v>2463111.9729752308</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -20013,52 +19987,51 @@
       </c>
       <c r="H11" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2678210.637168142</v>
+        <v>2635455.0568740098</v>
       </c>
       <c r="I11" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3499572.9801377142</v>
+        <v>3489583.4989846051</v>
       </c>
       <c r="J11" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2375906.4000000004</v>
+        <v>2371879.44</v>
       </c>
       <c r="K11" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>635482.86120436469</v>
+        <v>629014.61231266905</v>
       </c>
       <c r="L11" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>635482.86120436469</v>
+        <v>629014.61231266905</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
-        <v>6902320.265848049</v>
-      </c>
-      <c r="N11" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4660694.9498183709</v>
+        <v>6857173.4350886252</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B12" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5916751.4649672946</v>
+        <v>5868954.29254534</v>
       </c>
       <c r="C12" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>956101.73111187026</v>
+        <v>949477.38631026668</v>
       </c>
       <c r="D12" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5183752.7893056097</v>
+        <v>5155630.2835784713</v>
       </c>
       <c r="E12" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2463111.9729752308</v>
+        <v>2449184.9218038814</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -20068,52 +20041,51 @@
       </c>
       <c r="H12" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2635455.0568740098</v>
+        <v>2593569.0510433745</v>
       </c>
       <c r="I12" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3489583.4989846051</v>
+        <v>3479591.4337126394</v>
       </c>
       <c r="J12" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2371879.44</v>
+        <v>2367852.48</v>
       </c>
       <c r="K12" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>629014.61231266905</v>
+        <v>624104.63841106219</v>
       </c>
       <c r="L12" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>629014.61231266905</v>
+        <v>624104.63841106219</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
-        <v>6857173.4350886252</v>
-      </c>
-      <c r="N12" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4633478.1871937439</v>
+        <v>6801779.2710875198</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B13" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5868954.29254534</v>
+        <v>5836601.724217698</v>
       </c>
       <c r="C13" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>949477.38631026668</v>
+        <v>943335.32626244437</v>
       </c>
       <c r="D13" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5155630.2835784713</v>
+        <v>5127506.6643658997</v>
       </c>
       <c r="E13" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2449184.9218038814</v>
+        <v>2435257.8706325311</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -20123,52 +20095,51 @@
       </c>
       <c r="H13" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2593569.0510433745</v>
+        <v>2552428.2611193703</v>
       </c>
       <c r="I13" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3479591.4337126394</v>
+        <v>3469599.1172907539</v>
       </c>
       <c r="J13" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2367852.48</v>
+        <v>2363825.5199999996</v>
       </c>
       <c r="K13" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>624104.63841106219</v>
+        <v>619575.81905558321</v>
       </c>
       <c r="L13" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>624104.63841106219</v>
+        <v>619575.81905558321</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
-        <v>6801779.2710875198</v>
-      </c>
-      <c r="N13" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4606261.424569116</v>
+        <v>6764284.51177462</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B14" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5836601.724217698</v>
+        <v>5797589.0784554491</v>
       </c>
       <c r="C14" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>943335.32626244437</v>
+        <v>938967.0877953025</v>
       </c>
       <c r="D14" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5127506.6643658997</v>
+        <v>5099387.525828613</v>
       </c>
       <c r="E14" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2435257.8706325311</v>
+        <v>2421337.1015690072</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -20178,52 +20149,51 @@
       </c>
       <c r="H14" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2552428.2611193703</v>
+        <v>2511933.1593115116</v>
       </c>
       <c r="I14" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3469599.1172907539</v>
+        <v>3459609.8970702845</v>
       </c>
       <c r="J14" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2363825.5199999996</v>
+        <v>2359798.5600000005</v>
       </c>
       <c r="K14" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>619575.81905558321</v>
+        <v>616448.38075626816</v>
       </c>
       <c r="L14" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>619575.81905558321</v>
+        <v>616448.38075626816</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
-        <v>6764284.51177462</v>
-      </c>
-      <c r="N14" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4579044.6619444918</v>
+        <v>6719071.1071323324</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B15" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5797589.0784554491</v>
+        <v>5754417.5964696556</v>
       </c>
       <c r="C15" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>938967.0877953025</v>
+        <v>934324.03261257184</v>
       </c>
       <c r="D15" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5099387.525828613</v>
+        <v>5071263.9651833745</v>
       </c>
       <c r="E15" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2421337.1015690072</v>
+        <v>2407416.3325054822</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -20233,52 +20203,51 @@
       </c>
       <c r="H15" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2511933.1593115116</v>
+        <v>2472002.8504384374</v>
       </c>
       <c r="I15" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3459609.8970702845</v>
+        <v>3449617.6612474057</v>
       </c>
       <c r="J15" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2359798.5600000005</v>
+        <v>2355771.6</v>
       </c>
       <c r="K15" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>616448.38075626816</v>
+        <v>613103.989995774</v>
       </c>
       <c r="L15" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>616448.38075626816</v>
+        <v>613103.989995774</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
-        <v>6719071.1071323324</v>
-      </c>
-      <c r="N15" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4551827.8993198639</v>
+        <v>6669037.8513535168</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B16" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5754417.5964696556</v>
+        <v>5715710.8490506802</v>
       </c>
       <c r="C16" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>934324.03261257184</v>
+        <v>930112.73170077289</v>
       </c>
       <c r="D16" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5071263.9651833745</v>
+        <v>5043138.0864731837</v>
       </c>
       <c r="E16" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2407416.3325054822</v>
+        <v>2393501.8134604306</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -20288,52 +20257,51 @@
       </c>
       <c r="H16" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2472002.8504384374</v>
+        <v>2464610.1794671463</v>
       </c>
       <c r="I16" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3449617.6612474057</v>
+        <v>3439623.6560018696</v>
       </c>
       <c r="J16" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2355771.6</v>
+        <v>2351744.64</v>
       </c>
       <c r="K16" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>613103.989995774</v>
+        <v>610100.70335621736</v>
       </c>
       <c r="L16" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>613103.989995774</v>
+        <v>610100.70335621736</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
-        <v>6669037.8513535168</v>
-      </c>
-      <c r="N16" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4524611.1366952369</v>
+        <v>6624178.9652347378</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B17" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5715710.8490506802</v>
+        <v>5682778.383669503</v>
       </c>
       <c r="C17" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>930112.73170077289</v>
+        <v>926761.89047801169</v>
       </c>
       <c r="D17" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5043138.0864731837</v>
+        <v>5015018.1673003174</v>
       </c>
       <c r="E17" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2393501.8134604306</v>
+        <v>2379587.2944153799</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -20343,52 +20311,51 @@
       </c>
       <c r="H17" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2464610.1794671463</v>
+        <v>2457660.1067705727</v>
       </c>
       <c r="I17" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3439623.6560018696</v>
+        <v>3429633.6602299903</v>
       </c>
       <c r="J17" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2351744.64</v>
+        <v>2347717.6800000002</v>
       </c>
       <c r="K17" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>610100.70335621736</v>
+        <v>607777.3086571634</v>
       </c>
       <c r="L17" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>610100.70335621736</v>
+        <v>607777.3086571634</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
-        <v>6624178.9652347378</v>
-      </c>
-      <c r="N17" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4511274.9230091693</v>
+        <v>6586012.1387082441</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B18" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5682778.383669503</v>
+        <v>5642193.7803548686</v>
       </c>
       <c r="C18" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>926761.89047801169</v>
+        <v>923783.53953476355</v>
       </c>
       <c r="D18" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5015018.1673003174</v>
+        <v>4986896.9535291838</v>
       </c>
       <c r="E18" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2379587.2944153799</v>
+        <v>2365678.9908310375</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -20398,52 +20365,51 @@
       </c>
       <c r="H18" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2457660.1067705727</v>
+        <v>2451105.8357130196</v>
       </c>
       <c r="I18" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3429633.6602299903</v>
+        <v>3419643.3546162085</v>
       </c>
       <c r="J18" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2347717.6800000002</v>
+        <v>2343690.7200000002</v>
       </c>
       <c r="K18" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>607777.3086571634</v>
+        <v>605748.1000457817</v>
       </c>
       <c r="L18" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>607777.3086571634</v>
+        <v>605748.1000457817</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
-        <v>6586012.1387082441</v>
-      </c>
-      <c r="N18" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4497938.7093231035</v>
+        <v>6538976.9259955771</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B19" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5642193.7803548686</v>
+        <v>5606366.9449191354</v>
       </c>
       <c r="C19" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>923783.53953476355</v>
+        <v>920761.94092942204</v>
       </c>
       <c r="D19" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4986896.9535291838</v>
+        <v>4958774.659165916</v>
       </c>
       <c r="E19" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2365678.9908310375</v>
+        <v>2351770.6872466947</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -20453,52 +20419,51 @@
       </c>
       <c r="H19" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2451105.8357130196</v>
+        <v>2444907.5761304833</v>
       </c>
       <c r="I19" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3419643.3546162085</v>
+        <v>3409651.5318734273</v>
       </c>
       <c r="J19" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2343690.7200000002</v>
+        <v>2339663.7600000002</v>
       </c>
       <c r="K19" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>605748.1000457817</v>
+        <v>603684.81012468517</v>
       </c>
       <c r="L19" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>605748.1000457817</v>
+        <v>603684.81012468517</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
-        <v>6538976.9259955771</v>
-      </c>
-      <c r="N19" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4484602.4956370359</v>
+        <v>6497455.6916378727</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B20" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5606366.9449191354</v>
+        <v>5572150.0919803614</v>
       </c>
       <c r="C20" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>920761.94092942204</v>
+        <v>917371.86576616322</v>
       </c>
       <c r="D20" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4958774.659165916</v>
+        <v>4930651.7207391467</v>
       </c>
       <c r="E20" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2351770.6872466947</v>
+        <v>2337868.5695021199</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -20508,52 +20473,51 @@
       </c>
       <c r="H20" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2444907.5761304833</v>
+        <v>2439031.2110045226</v>
       </c>
       <c r="I20" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3409651.5318734273</v>
+        <v>3399659.5746953762</v>
       </c>
       <c r="J20" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2339663.7600000002</v>
+        <v>2335636.7999999998</v>
       </c>
       <c r="K20" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>603684.81012468517</v>
+        <v>601330.37504906254</v>
       </c>
       <c r="L20" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>603684.81012468517</v>
+        <v>601330.37504906254</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
-        <v>6497455.6916378727</v>
-      </c>
-      <c r="N20" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4471266.2819509702</v>
+        <v>6457800.3340665214</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B21" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5572150.0919803614</v>
+        <v>5539118.4834558573</v>
       </c>
       <c r="C21" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>917371.86576616322</v>
+        <v>913958.82450684451</v>
       </c>
       <c r="D21" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4930651.7207391467</v>
+        <v>4902527.8892413173</v>
       </c>
       <c r="E21" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2337868.5695021199</v>
+        <v>2333338.6744214161</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -20563,52 +20527,51 @@
       </c>
       <c r="H21" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2439031.2110045226</v>
+        <v>2433447.266097391</v>
       </c>
       <c r="I21" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3399659.5746953762</v>
+        <v>3389666.8436114313</v>
       </c>
       <c r="J21" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2335636.7999999998</v>
+        <v>2331609.8399999994</v>
       </c>
       <c r="K21" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>601330.37504906254</v>
+        <v>598957.8048655868</v>
       </c>
       <c r="L21" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>601330.37504906254</v>
+        <v>598957.8048655868</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
-        <v>6457800.3340665214</v>
-      </c>
-      <c r="N21" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4457930.0682649007</v>
+        <v>6419518.6063594185</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B22" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5539118.4834558573</v>
+        <v>5500407.7330473047</v>
       </c>
       <c r="C22" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>913958.82450684451</v>
+        <v>911014.35710941826</v>
       </c>
       <c r="D22" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4902527.8892413173</v>
+        <v>4874406.7607226819</v>
       </c>
       <c r="E22" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2333338.6744214161</v>
+        <v>2328814.9330911282</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -20618,52 +20581,51 @@
       </c>
       <c r="H22" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2433447.266097391</v>
+        <v>2428130.1035385677</v>
       </c>
       <c r="I22" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3389666.8436114313</v>
+        <v>3379676.3155708034</v>
       </c>
       <c r="J22" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2331609.8399999994</v>
+        <v>2327582.88</v>
       </c>
       <c r="K22" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>598957.8048655868</v>
+        <v>596955.4197425656</v>
       </c>
       <c r="L22" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>598957.8048655868</v>
+        <v>596955.4197425656</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
-        <v>6419518.6063594185</v>
-      </c>
-      <c r="N22" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4444593.854578835</v>
+        <v>6374655.0810067719</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B23" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5500407.7330473047</v>
+        <v>5468250.3014946543</v>
       </c>
       <c r="C23" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>911014.35710941826</v>
+        <v>907420.52088100906</v>
       </c>
       <c r="D23" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4874406.7607226819</v>
+        <v>4846283.6112670014</v>
       </c>
       <c r="E23" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2328814.9330911282</v>
+        <v>2324291.1917608404</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -20673,52 +20635,51 @@
       </c>
       <c r="H23" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2428130.1035385677</v>
+        <v>2423057.2833811534</v>
       </c>
       <c r="I23" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3379676.3155708034</v>
+        <v>3369684.2256353949</v>
       </c>
       <c r="J23" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2327582.88</v>
+        <v>2323555.9199999995</v>
       </c>
       <c r="K23" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>596955.4197425656</v>
+        <v>594440.08024455211</v>
       </c>
       <c r="L23" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>596955.4197425656</v>
+        <v>594440.08024455211</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
-        <v>6374655.0810067719</v>
-      </c>
-      <c r="N23" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4431257.6408927673</v>
+        <v>6337386.4739528615</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B24" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5468250.3014946543</v>
+        <v>5432367.0167962778</v>
       </c>
       <c r="C24" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>907420.52088100906</v>
+        <v>904471.68523875286</v>
       </c>
       <c r="D24" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4846283.6112670014</v>
+        <v>4818163.5130767515</v>
       </c>
       <c r="E24" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2324291.1917608404</v>
+        <v>2319773.5745600271</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -20728,52 +20689,51 @@
       </c>
       <c r="H24" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2423057.2833811534</v>
+        <v>2418209.052809441</v>
       </c>
       <c r="I24" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3369684.2256353949</v>
+        <v>3359693.9843631904</v>
       </c>
       <c r="J24" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2323555.9199999995</v>
+        <v>2319528.96</v>
       </c>
       <c r="K24" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>594440.08024455211</v>
+        <v>592434.16432381817</v>
       </c>
       <c r="L24" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>594440.08024455211</v>
+        <v>592434.16432381817</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
-        <v>6337386.4739528615</v>
-      </c>
-      <c r="N24" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4417921.4272067007</v>
+        <v>6295799.8181579839</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B25" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5432367.0167962778</v>
+        <v>5398484.411653229</v>
       </c>
       <c r="C25" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>904471.68523875286</v>
+        <v>901093.79633118142</v>
       </c>
       <c r="D25" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4818163.5130767515</v>
+        <v>4790037.5216986742</v>
       </c>
       <c r="E25" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2319773.5745600271</v>
+        <v>2315255.9573592143</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -20783,52 +20743,51 @@
       </c>
       <c r="H25" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2418209.052809441</v>
+        <v>2413567.9335367209</v>
       </c>
       <c r="I25" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3359693.9843631904</v>
+        <v>3349700.2550786757</v>
       </c>
       <c r="J25" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2319528.96</v>
+        <v>2315502.0000000005</v>
       </c>
       <c r="K25" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>592434.16432381817</v>
+        <v>590089.47107294935</v>
       </c>
       <c r="L25" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>592434.16432381817</v>
+        <v>590089.47107294935</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
-        <v>6295799.8181579839</v>
-      </c>
-      <c r="N25" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4404585.2135206331</v>
+        <v>6256531.8344892133</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B26" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5398484.411653229</v>
+        <v>5362891.0931715863</v>
       </c>
       <c r="C26" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>901093.79633118142</v>
+        <v>897770.77270304237</v>
       </c>
       <c r="D26" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4790037.5216986742</v>
+        <v>4761914.8773502056</v>
       </c>
       <c r="E26" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2315255.9573592143</v>
+        <v>2310744.4297301131</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -20838,52 +20797,51 @@
       </c>
       <c r="H26" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2413567.9335367209</v>
+        <v>2409118.3855665056</v>
       </c>
       <c r="I26" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3349700.2550786757</v>
+        <v>3339708.5144618037</v>
       </c>
       <c r="J26" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2315502.0000000005</v>
+        <v>2311475.04</v>
       </c>
       <c r="K26" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>590089.47107294935</v>
+        <v>587788.019180667</v>
       </c>
       <c r="L26" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>590089.47107294935</v>
+        <v>587788.019180667</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
-        <v>6256531.8344892133</v>
-      </c>
-      <c r="N26" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4391248.9998345645</v>
+        <v>6215281.2328027831</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B27" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5362891.0931715863</v>
+        <v>5327297.7746899435</v>
       </c>
       <c r="C27" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>897770.77270304237</v>
+        <v>894447.74907490343</v>
       </c>
       <c r="D27" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4761914.8773502056</v>
+        <v>4733792.2330017341</v>
       </c>
       <c r="E27" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2310744.4297301131</v>
+        <v>2306232.9021010105</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -20893,52 +20851,51 @@
       </c>
       <c r="H27" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2409118.3855665056</v>
+        <v>2404846.5309510562</v>
       </c>
       <c r="I27" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3339708.5144618037</v>
+        <v>3329716.7738449299</v>
       </c>
       <c r="J27" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2311475.04</v>
+        <v>2307448.0799999996</v>
       </c>
       <c r="K27" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>587788.019180667</v>
+        <v>585486.56728838454</v>
       </c>
       <c r="L27" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>587788.019180667</v>
+        <v>585486.56728838454</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
-        <v>6215281.2328027831</v>
-      </c>
-      <c r="N27" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4378344.7551329583</v>
+        <v>6174030.631116352</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B28" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5327297.7746899435</v>
+        <v>5291704.4562082998</v>
       </c>
       <c r="C28" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>894447.74907490343</v>
+        <v>891124.72544676426</v>
       </c>
       <c r="D28" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4733792.2330017341</v>
+        <v>4705669.5886532655</v>
       </c>
       <c r="E28" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2306232.9021010105</v>
+        <v>2301727.4344226797</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -20948,52 +20905,51 @@
       </c>
       <c r="H28" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2404846.5309510562</v>
+        <v>2400739.9251324562</v>
       </c>
       <c r="I28" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3329716.7738449299</v>
+        <v>3319725.0332280574</v>
       </c>
       <c r="J28" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2307448.0799999996</v>
+        <v>2303421.12</v>
       </c>
       <c r="K28" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>585486.56728838454</v>
+        <v>583185.11539610196</v>
       </c>
       <c r="L28" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>585486.56728838454</v>
+        <v>583185.11539610196</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
-        <v>6174030.631116352</v>
-      </c>
-      <c r="N28" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4365440.5104313511</v>
+        <v>6132780.0294299209</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B29" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5291704.4562082998</v>
+        <v>5256111.1377266571</v>
       </c>
       <c r="C29" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>891124.72544676426</v>
+        <v>887801.70181862509</v>
       </c>
       <c r="D29" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4705669.5886532655</v>
+        <v>4677546.9443047941</v>
       </c>
       <c r="E29" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2301727.4344226797</v>
+        <v>2297221.9667443484</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -21003,52 +20959,51 @@
       </c>
       <c r="H29" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2400739.9251324562</v>
+        <v>2396787.3663480976</v>
       </c>
       <c r="I29" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3319725.0332280574</v>
+        <v>3309733.2926111841</v>
       </c>
       <c r="J29" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2303421.12</v>
+        <v>2299394.1600000006</v>
       </c>
       <c r="K29" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>583185.11539610196</v>
+        <v>580883.66350381961</v>
       </c>
       <c r="L29" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>583185.11539610196</v>
+        <v>580883.66350381961</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
-        <v>6132780.0294299209</v>
-      </c>
-      <c r="N29" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4352536.2657297431</v>
+        <v>6091529.4277434908</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B30" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5256111.1377266571</v>
+        <v>5220517.8192450143</v>
       </c>
       <c r="C30" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>887801.70181862509</v>
+        <v>884478.67819048627</v>
       </c>
       <c r="D30" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4677546.9443047941</v>
+        <v>4649424.2999563245</v>
       </c>
       <c r="E30" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2297221.9667443484</v>
+        <v>2292722.5293958476</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -21058,52 +21013,51 @@
       </c>
       <c r="H30" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2396787.3663480976</v>
+        <v>2392978.7357348814</v>
       </c>
       <c r="I30" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3309733.2926111841</v>
+        <v>3299741.5519943121</v>
       </c>
       <c r="J30" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2299394.1600000006</v>
+        <v>2295367.2000000007</v>
       </c>
       <c r="K30" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>580883.66350381961</v>
+        <v>578582.21161153703</v>
       </c>
       <c r="L30" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>580883.66350381961</v>
+        <v>578582.21161153703</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
-        <v>6091529.4277434908</v>
-      </c>
-      <c r="N30" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4339632.0210281368</v>
+        <v>6050278.8260570597</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B31" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5220517.8192450143</v>
+        <v>5184924.5007633707</v>
       </c>
       <c r="C31" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>884478.67819048627</v>
+        <v>881155.6545623471</v>
       </c>
       <c r="D31" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4649424.2999563245</v>
+        <v>4621301.655607854</v>
       </c>
       <c r="E31" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2292722.5293958476</v>
+        <v>2288223.0920473468</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -21113,52 +21067,51 @@
       </c>
       <c r="H31" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2392978.7357348814</v>
+        <v>2389304.8623762177</v>
       </c>
       <c r="I31" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3299741.5519943121</v>
+        <v>3289749.8113774383</v>
       </c>
       <c r="J31" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2295367.2000000007</v>
+        <v>2291340.2399999998</v>
       </c>
       <c r="K31" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>578582.21161153703</v>
+        <v>576280.75971925457</v>
       </c>
       <c r="L31" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>578582.21161153703</v>
+        <v>576280.75971925457</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
-        <v>6050278.8260570597</v>
-      </c>
-      <c r="N31" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4326727.7763265288</v>
+        <v>6009028.2243706286</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B32" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5184924.5007633707</v>
+        <v>5149331.1822817288</v>
       </c>
       <c r="C32" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>881155.6545623471</v>
+        <v>877832.63093420805</v>
       </c>
       <c r="D32" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4621301.655607854</v>
+        <v>4593179.0112593845</v>
       </c>
       <c r="E32" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2288223.0920473468</v>
+        <v>2283729.6504709106</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -21168,52 +21121,51 @@
       </c>
       <c r="H32" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2389304.8623762177</v>
+        <v>2385757.4087592675</v>
       </c>
       <c r="I32" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3289749.8113774383</v>
+        <v>3279758.0707605658</v>
       </c>
       <c r="J32" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2291340.2399999998</v>
+        <v>2287313.2799999993</v>
       </c>
       <c r="K32" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>576280.75971925457</v>
+        <v>573979.3078269721</v>
       </c>
       <c r="L32" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>576280.75971925457</v>
+        <v>573979.3078269721</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
-        <v>6009028.2243706286</v>
-      </c>
-      <c r="N32" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4313823.5316249179</v>
+        <v>5967777.6226841994</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B33" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5149331.1822817288</v>
+        <v>5113737.8638000861</v>
       </c>
       <c r="C33" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>877832.63093420805</v>
+        <v>874509.60730606911</v>
       </c>
       <c r="D33" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4593179.0112593845</v>
+        <v>4565056.366910913</v>
       </c>
       <c r="E33" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2283729.6504709106</v>
+        <v>2279236.2088944758</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -21223,52 +21175,51 @@
       </c>
       <c r="H33" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2385757.4087592675</v>
+        <v>2382328.7730417219</v>
       </c>
       <c r="I33" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3279758.0707605658</v>
+        <v>3269766.3301436924</v>
       </c>
       <c r="J33" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2287313.2799999993</v>
+        <v>2283286.3199999994</v>
       </c>
       <c r="K33" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>573979.3078269721</v>
+        <v>571677.85593468964</v>
       </c>
       <c r="L33" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>573979.3078269721</v>
+        <v>571677.85593468964</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
-        <v>5967777.6226841994</v>
-      </c>
-      <c r="N33" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4300919.2869233117</v>
+        <v>5926527.0209977683</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B34" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5113737.8638000861</v>
+        <v>5078144.5453184424</v>
       </c>
       <c r="C34" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>874509.60730606911</v>
+        <v>871186.58367792994</v>
       </c>
       <c r="D34" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4565056.366910913</v>
+        <v>4536933.7225624444</v>
       </c>
       <c r="E34" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2279236.2088944758</v>
+        <v>2274748.7359375772</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -21278,52 +21229,51 @@
       </c>
       <c r="H34" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2382328.7730417219</v>
+        <v>2379012.0052493522</v>
       </c>
       <c r="I34" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3269766.3301436924</v>
+        <v>3259774.5895268191</v>
       </c>
       <c r="J34" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2283286.3199999994</v>
+        <v>2279259.36</v>
       </c>
       <c r="K34" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>571677.85593468964</v>
+        <v>569376.40404240706</v>
       </c>
       <c r="L34" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>571677.85593468964</v>
+        <v>569376.40404240706</v>
       </c>
       <c r="M34" s="4">
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
-        <v>5926527.0209977683</v>
-      </c>
-      <c r="N34" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4288015.0422217054</v>
+        <v>5885276.4193113372</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B35" s="4">
         <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5078144.5453184424</v>
+        <v>5042551.2268367996</v>
       </c>
       <c r="C35" s="4">
         <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>871186.58367792994</v>
+        <v>867863.56004979089</v>
       </c>
       <c r="D35" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4536933.7225624444</v>
+        <v>4508811.0782139739</v>
       </c>
       <c r="E35" s="4">
         <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2274748.7359375772</v>
+        <v>2270261.2629806786</v>
       </c>
       <c r="F35" s="4">
         <v>0</v>
@@ -21333,87 +21283,34 @@
       </c>
       <c r="H35" s="4">
         <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2379012.0052493522</v>
+        <v>2375800.7350839968</v>
       </c>
       <c r="I35" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3259774.5895268191</v>
+        <v>3249782.8489099462</v>
       </c>
       <c r="J35" s="4">
         <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2279259.36</v>
+        <v>2275232.4000000004</v>
       </c>
       <c r="K35" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>569376.40404240706</v>
+        <v>567074.95215012471</v>
       </c>
       <c r="L35" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>569376.40404240706</v>
+        <v>567074.95215012471</v>
       </c>
       <c r="M35" s="4">
         <f>B35*'Coal Cost Multipliers'!$B$33</f>
-        <v>5885276.4193113372</v>
-      </c>
-      <c r="N35" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4275110.7975200973</v>
+        <v>5844025.817624907</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B36" s="4">
-        <f>'EIA Costs'!$D$4*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("coal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>5042551.2268367996</v>
-      </c>
-      <c r="C36" s="4">
-        <f>'EIA Costs'!$D$6*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>867863.56004979089</v>
-      </c>
-      <c r="D36" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>4508811.0782139739</v>
-      </c>
-      <c r="E36" s="4">
-        <f>'EIA Costs'!$D$17*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2270261.2629806786</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4">
-        <f>'EIA Costs'!$D$20*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2375800.7350839968</v>
-      </c>
-      <c r="I36" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>3249782.8489099462</v>
-      </c>
-      <c r="J36" s="4">
-        <f>'EIA Costs'!$D$15*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>2275232.4000000004</v>
-      </c>
-      <c r="K36" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>567074.95215012471</v>
-      </c>
-      <c r="L36" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*1000*About!$A$58</f>
-        <v>567074.95215012471</v>
-      </c>
-      <c r="M36" s="4">
-        <f>B36*'Coal Cost Multipliers'!$B$33</f>
-        <v>5844025.817624907</v>
-      </c>
-      <c r="N36" s="50">
-        <f>AVERAGE('Cost Improvement and Off Wnd'!$C$85:$C$113)*INDEX('Cost Improvement and Off Wnd'!$B$118:$AL$126,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$118:$A$126,0),MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement and Off Wnd'!$B$117:$AL$117,0))*10^3*About!$A$60</f>
-        <v>4262206.5528184893</v>
-      </c>
+      <c r="B36" s="12"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12"/>
@@ -21450,9 +21347,6 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-1.5.0-us-wipJ\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12150" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="248">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Our EIA source uses 2013 dollars.</t>
   </si>
   <si>
-    <t xml:space="preserve">The GTM and LBNL sources for solar and wind prices don't specify the year of their currency, </t>
-  </si>
-  <si>
     <t>Except for wind and solar PV, our general approach is to take start year capital costs from the EIA and</t>
   </si>
   <si>
@@ -244,16 +241,7 @@
     <t>This document is included as Appendix B of a report by Brattle Group.  It is on Page 10 of the EnerNex report, which is Page 70 of the PDF</t>
   </si>
   <si>
-    <t>cause them to decline at the same rate as costs declined in projections in a 2012 study from Black &amp; Veatch.</t>
-  </si>
-  <si>
     <t>For coal, we use values for a coal plant that features carbon capture and sequestration (CCS),</t>
-  </si>
-  <si>
-    <t>We adjust 2015 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>so we assume they are 2015 dollars.</t>
   </si>
   <si>
     <t>and the model handles calculations for subsequent years.  (We do not use EIA for the start year solar and wind</t>
@@ -514,9 +502,6 @@
     <t>Onshore Wind ($/MW)</t>
   </si>
   <si>
-    <t>We adjust 2014 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
     <t>lignite</t>
   </si>
   <si>
@@ -556,12 +541,6 @@
     <t>National Renewable Energy Lab</t>
   </si>
   <si>
-    <t>For offshore wind, we decline costs according to NREL's annual technology baseline.</t>
-  </si>
-  <si>
-    <t>Overnight Capital Cost</t>
-  </si>
-  <si>
     <t>NREL Electricity Source</t>
   </si>
   <si>
@@ -655,42 +634,9 @@
     <t>Coal with 30% CCS</t>
   </si>
   <si>
-    <t>AEO 2018</t>
-  </si>
-  <si>
     <t>Capital Costs (Except Wind and Solar), Fixed O&amp;M, Variable O&amp;M</t>
   </si>
   <si>
-    <t>2015, 2018</t>
-  </si>
-  <si>
-    <t>Assumptions to Annual Energy Outlook 2015, 2018</t>
-  </si>
-  <si>
-    <t>Electricity Market Module</t>
-  </si>
-  <si>
-    <t>2017 Onshore Wind Capital Cost</t>
-  </si>
-  <si>
-    <t>2017 Wind Technologies Market Report</t>
-  </si>
-  <si>
-    <t>Page x, Cost Trends, bullet point 3</t>
-  </si>
-  <si>
-    <t>https://emp.lbl.gov/sites/default/files/2017_wind_technologies_market_report.pdf</t>
-  </si>
-  <si>
-    <t>Berkeley National Lab and Greentech Media.) Note that we use 2016 year in review data for</t>
-  </si>
-  <si>
-    <t>show almost no change between 2017 and 2016 (due to tariffs).</t>
-  </si>
-  <si>
-    <t>solar PV, as more recent numerical figures are not given by SEIA and graphs of year over year prices</t>
-  </si>
-  <si>
     <t>TRG 11 - Low</t>
   </si>
   <si>
@@ -712,18 +658,6 @@
     <t>Gas-CC-AvgCF - Low</t>
   </si>
   <si>
-    <t>https://data.nrel.gov/files/89/2018-ATB-data-interim-geo.xlsm</t>
-  </si>
-  <si>
-    <t>Cost Improvement Rate and 2017 Offshore Wind Costs</t>
-  </si>
-  <si>
-    <t>Annual Technology Baseline (ATB) Spreadsheet - 2018 Final</t>
-  </si>
-  <si>
-    <t>We adjust 2016 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
     <t>Average Utility Scale Solar Cost ($/W-dc)</t>
   </si>
   <si>
@@ -811,10 +745,103 @@
     <t>so we use the cost improvement rates for biomass power plants.</t>
   </si>
   <si>
-    <t>Potential Wind Plant Capacity</t>
-  </si>
-  <si>
     <t>2018 Solar Capital Cost</t>
+  </si>
+  <si>
+    <t>AEO 2019</t>
+  </si>
+  <si>
+    <t>AEO 2020</t>
+  </si>
+  <si>
+    <t>AEO 2021</t>
+  </si>
+  <si>
+    <t>AEO 2022</t>
+  </si>
+  <si>
+    <t>AEO 2023</t>
+  </si>
+  <si>
+    <t>AEO 2024</t>
+  </si>
+  <si>
+    <t>AEO 2025</t>
+  </si>
+  <si>
+    <t>AEO 2026</t>
+  </si>
+  <si>
+    <t>AEO 2027</t>
+  </si>
+  <si>
+    <t>AEO 2028</t>
+  </si>
+  <si>
+    <t>AEO 2029</t>
+  </si>
+  <si>
+    <t>AEO 2030</t>
+  </si>
+  <si>
+    <t>AEO 2031</t>
+  </si>
+  <si>
+    <t>AEO 2032</t>
+  </si>
+  <si>
+    <t>2015, 2019</t>
+  </si>
+  <si>
+    <t>Assumptions to Annual Energy Outlook 2015, 2019</t>
+  </si>
+  <si>
+    <t>Electricity Market Module, Table 2</t>
+  </si>
+  <si>
+    <t>2018 Wind Technologies Market Report</t>
+  </si>
+  <si>
+    <t>Page x, Cost Trends, bullet point 2</t>
+  </si>
+  <si>
+    <t>https://emp.lbl.gov/sites/default/files/wtmr_final_for_posting_8-9-19.pdf</t>
+  </si>
+  <si>
+    <t>Annual Technology Baseline (ATB) Spreadsheet - 2019 Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The SEIA and LBNL sources for solar and wind prices don't specify the year of their currency, </t>
+  </si>
+  <si>
+    <t>so we assume they are 2018 dollars.</t>
+  </si>
+  <si>
+    <t>Berkeley National Lab and Solar Energy Industries Association.)</t>
+  </si>
+  <si>
+    <t>cause them to decline at the same rate as costs declined in projections in the NREL</t>
+  </si>
+  <si>
+    <t>Annual Technology Baseline.</t>
+  </si>
+  <si>
+    <t>https://atb.nrel.gov/electricity/2019/data.html</t>
+  </si>
+  <si>
+    <t>NREL Overnight Capital Costs</t>
+  </si>
+  <si>
+    <t>Fraction of Start Year Costs</t>
+  </si>
+  <si>
+    <t>Potential Offshore Wind Plant Capacity (NREL Offshore Wind Tab)</t>
+  </si>
+  <si>
+    <t>2018 Onshore Wind Capital Cost</t>
+  </si>
+  <si>
+    <t>Cost Improvement Rate and Offshore Wind Costs</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1603,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1709,6 +1736,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2320,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2358,11 +2387,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2376,7 +2405,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="D7" s="2">
         <v>2018</v>
@@ -2384,10 +2413,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2395,15 +2424,15 @@
         <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2412,18 +2441,18 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2436,26 +2465,26 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" s="23" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2467,16 +2496,16 @@
         <v>28</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2485,31 +2514,31 @@
         <v>2015</v>
       </c>
       <c r="D21" s="2">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45">
       <c r="A23" s="7"/>
       <c r="B23" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="23"/>
     </row>
@@ -2545,7 +2574,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="11"/>
@@ -2558,7 +2587,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="11"/>
@@ -2571,7 +2600,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>152</v>
+        <v>241</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -2595,7 +2624,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11"/>
@@ -2608,7 +2637,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2621,7 +2650,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -2634,7 +2663,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
@@ -2647,7 +2676,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
@@ -2659,9 +2688,7 @@
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="10" t="s">
-        <v>196</v>
-      </c>
+      <c r="A38" s="10"/>
       <c r="D38" s="7"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -2673,7 +2700,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="11"/>
@@ -2685,7 +2712,9 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="10"/>
+      <c r="A40" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -2696,9 +2725,7 @@
       <c r="K40" s="11"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="A41" s="10"/>
       <c r="D41" s="7"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
@@ -2710,7 +2737,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -2722,7 +2749,9 @@
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="10"/>
+      <c r="A43" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -2734,7 +2763,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="10" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="11"/>
@@ -2747,7 +2776,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
@@ -2760,7 +2789,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="11"/>
@@ -2773,7 +2802,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -2785,9 +2814,7 @@
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="A48" s="10"/>
       <c r="D48" s="7"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -2799,7 +2826,7 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="11"/>
@@ -2811,7 +2838,9 @@
       <c r="K49" s="11"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="10"/>
+      <c r="A50" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D50" s="7"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -2823,7 +2852,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="11"/>
@@ -2835,9 +2864,7 @@
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="10" t="s">
-        <v>134</v>
-      </c>
+      <c r="A52" s="10"/>
       <c r="D52" s="7"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -2849,7 +2876,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="11"/>
@@ -2861,7 +2888,9 @@
       <c r="K53" s="11"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="10"/>
+      <c r="A54" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -2872,9 +2901,7 @@
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="10" t="s">
-        <v>235</v>
-      </c>
+      <c r="A55" s="10"/>
       <c r="D55" s="7"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -2885,8 +2912,8 @@
       <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="10" t="s">
-        <v>236</v>
+      <c r="A56" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="11"/>
@@ -2898,7 +2925,10 @@
       <c r="K56" s="11"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="10"/>
+      <c r="A57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="9"/>
       <c r="D57" s="7"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -2909,9 +2939,10 @@
       <c r="K57" s="11"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A58" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="9"/>
       <c r="D58" s="7"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -2923,7 +2954,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2936,8 +2967,8 @@
       <c r="K59" s="11"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="10" t="s">
-        <v>59</v>
+      <c r="A60" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="B60" s="9"/>
       <c r="D60" s="7"/>
@@ -2950,8 +2981,8 @@
       <c r="K60" s="11"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="10" t="s">
-        <v>75</v>
+      <c r="A61" s="19">
+        <v>0.98599999999999999</v>
       </c>
       <c r="B61" s="9"/>
       <c r="D61" s="7"/>
@@ -2964,8 +2995,8 @@
       <c r="K61" s="11"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="19" t="s">
-        <v>25</v>
+      <c r="A62" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B62" s="9"/>
       <c r="D62" s="7"/>
@@ -2978,8 +3009,8 @@
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="19">
-        <v>0.98599999999999999</v>
+      <c r="A63" s="25">
+        <v>0.9143</v>
       </c>
       <c r="B63" s="9"/>
       <c r="D63" s="7"/>
@@ -2992,9 +3023,7 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="23" t="s">
-        <v>138</v>
-      </c>
+      <c r="A64" s="25"/>
       <c r="B64" s="9"/>
       <c r="D64" s="7"/>
       <c r="E64" s="11"/>
@@ -3006,8 +3035,8 @@
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="18">
-        <v>0.97</v>
+      <c r="A65" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="B65" s="9"/>
       <c r="D65" s="7"/>
@@ -3020,14 +3049,19 @@
       <c r="K65" s="11"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="A66" s="10"/>
+      <c r="B66" s="9"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="25">
-        <v>0.96899999999999997</v>
-      </c>
+      <c r="A67" s="10"/>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
       <c r="E67" s="11"/>
@@ -3039,9 +3073,7 @@
       <c r="K67" s="11"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="A68" s="10"/>
       <c r="B68" s="9"/>
       <c r="D68" s="7"/>
       <c r="E68" s="11"/>
@@ -3053,9 +3085,7 @@
       <c r="K68" s="11"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="25">
-        <v>9.5699999999999993E-2</v>
-      </c>
+      <c r="A69" s="10"/>
       <c r="B69" s="9"/>
       <c r="D69" s="7"/>
       <c r="E69" s="11"/>
@@ -3067,9 +3097,7 @@
       <c r="K69" s="11"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="2" t="s">
-        <v>225</v>
-      </c>
+      <c r="A70" s="10"/>
       <c r="B70" s="9"/>
       <c r="D70" s="7"/>
       <c r="E70" s="11"/>
@@ -3081,9 +3109,7 @@
       <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="25">
-        <v>0.9143</v>
-      </c>
+      <c r="A71" s="10"/>
       <c r="B71" s="9"/>
       <c r="D71" s="7"/>
       <c r="E71" s="11"/>
@@ -3095,7 +3121,7 @@
       <c r="K71" s="11"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="25"/>
+      <c r="A72" s="10"/>
       <c r="B72" s="9"/>
       <c r="D72" s="7"/>
       <c r="E72" s="11"/>
@@ -3107,9 +3133,7 @@
       <c r="K72" s="11"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="19" t="s">
-        <v>24</v>
-      </c>
+      <c r="A73" s="10"/>
       <c r="B73" s="9"/>
       <c r="D73" s="7"/>
       <c r="E73" s="11"/>
@@ -3241,7 +3265,7 @@
       <c r="K83" s="11"/>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="10"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="9"/>
       <c r="D84" s="7"/>
       <c r="E84" s="11"/>
@@ -3252,111 +3276,17 @@
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="10"/>
-      <c r="B85" s="9"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="10"/>
-      <c r="B86" s="9"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="10"/>
-      <c r="B87" s="9"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="10"/>
-      <c r="B88" s="9"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="10"/>
-      <c r="B89" s="9"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="10"/>
-      <c r="B90" s="9"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="10"/>
-      <c r="B91" s="9"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="7"/>
-      <c r="B92" s="9"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html"/>
     <hyperlink ref="B16" r:id="rId2"/>
     <hyperlink ref="D16" r:id="rId3"/>
     <hyperlink ref="B9" r:id="rId4"/>
+    <hyperlink ref="D9" r:id="rId5"/>
+    <hyperlink ref="D23" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3365,7 +3295,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3383,7 +3313,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>46</v>
@@ -3398,18 +3328,18 @@
         <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="23" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
         <v>45</v>
@@ -3424,7 +3354,7 @@
         <v>31.16</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H2">
         <v>2013</v>
@@ -3432,28 +3362,28 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D3">
-        <v>5089</v>
+        <v>5169</v>
       </c>
       <c r="E3" s="16">
-        <v>7.17</v>
+        <v>7.31</v>
       </c>
       <c r="F3" s="16">
-        <v>70.7</v>
+        <v>72.12</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="H3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3461,25 +3391,25 @@
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
       <c r="D4">
-        <v>982</v>
+        <v>999</v>
       </c>
       <c r="E4" s="16">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="F4" s="16">
-        <v>11.11</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H4" s="23">
-        <v>2017</v>
+        <v>11.33</v>
+      </c>
+      <c r="G4" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3487,25 +3417,25 @@
         <v>33</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
       <c r="D5">
-        <v>1108</v>
+        <v>794</v>
       </c>
       <c r="E5" s="16">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="F5" s="16">
-        <v>10.1</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5" s="23">
-        <v>2017</v>
+        <v>10.3</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3513,25 +3443,25 @@
         <v>36</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
       </c>
       <c r="D6">
-        <v>1107</v>
+        <v>1126</v>
       </c>
       <c r="E6" s="16">
-        <v>3.54</v>
+        <v>3.61</v>
       </c>
       <c r="F6" s="16">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6" s="23">
-        <v>2017</v>
+        <v>18.03</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="H6" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3539,25 +3469,25 @@
         <v>36</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
         <v>50</v>
       </c>
       <c r="D7">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="E7" s="16">
-        <v>10.81</v>
+        <v>11.02</v>
       </c>
       <c r="F7" s="16">
-        <v>6.87</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="23">
-        <v>2017</v>
+        <v>7.01</v>
+      </c>
+      <c r="G7" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3565,25 +3495,25 @@
         <v>16</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
       <c r="D8">
-        <v>5946</v>
+        <v>6034</v>
       </c>
       <c r="E8" s="16">
-        <v>2.3199999999999998</v>
+        <v>2.37</v>
       </c>
       <c r="F8" s="16">
-        <v>101.28</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H8" s="23">
-        <v>2017</v>
+        <v>103.31</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3591,25 +3521,25 @@
         <v>20</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>3837</v>
+        <v>3900</v>
       </c>
       <c r="E9" s="16">
-        <v>5.58</v>
+        <v>5.7</v>
       </c>
       <c r="F9" s="16">
-        <v>112.15</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H9" s="23">
-        <v>2017</v>
+        <v>114.39</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3617,25 +3547,25 @@
         <v>34</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10">
-        <v>2746</v>
+        <v>2787</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
       </c>
       <c r="F10" s="16">
-        <v>119.87</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H10" s="23">
-        <v>2017</v>
+        <v>122.28</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3643,77 +3573,77 @@
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11">
-        <v>2898</v>
+        <v>2948</v>
       </c>
       <c r="E11" s="16">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="F11" s="16">
-        <v>40.049999999999997</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="23">
-        <v>2017</v>
+        <v>40.85</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="24">
-        <v>1657</v>
+        <v>1624</v>
       </c>
       <c r="E12" s="16">
         <v>0</v>
       </c>
       <c r="F12" s="16">
-        <v>47.47</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H12" s="23">
-        <v>2017</v>
+        <v>48.42</v>
+      </c>
+      <c r="G12" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="24">
-        <v>6454</v>
+        <v>6542</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
       </c>
       <c r="F13" s="16">
-        <v>78.56</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H13" s="23">
-        <v>2017</v>
+        <v>80.14</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3721,25 +3651,25 @@
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14">
-        <v>4228</v>
+        <v>4291</v>
       </c>
       <c r="E14" s="16">
         <v>0</v>
       </c>
       <c r="F14" s="16">
-        <v>71.41</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="23">
-        <v>2017</v>
+        <v>72.84</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3747,51 +3677,51 @@
         <v>18</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="24">
-        <v>2105</v>
+        <v>1783</v>
       </c>
       <c r="E15" s="16">
         <v>0</v>
       </c>
       <c r="F15" s="16">
-        <v>22.02</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="23">
-        <v>2017</v>
+        <v>22.46</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="23" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D16" s="52">
-        <v>8742</v>
+        <v>8895</v>
       </c>
       <c r="E16" s="16">
-        <v>9.2899999999999991</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="F16" s="16">
-        <v>417.02</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="H16" s="23">
-        <v>2017</v>
+        <v>425.38</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="53">
+        <v>2018</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3814,7 +3744,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3825,7 +3755,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="19" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
@@ -3841,13 +3771,13 @@
         <v>2017</v>
       </c>
       <c r="B3" s="19">
-        <v>1610</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="19" customFormat="1">
@@ -3881,7 +3811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3894,65 +3824,65 @@
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="A2" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="54" t="s">
-        <v>86</v>
+      <c r="H2" s="56" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="55"/>
+        <v>83</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" s="29">
         <v>1000</v>
@@ -3966,7 +3896,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B5" s="29">
         <v>1000</v>
@@ -3992,10 +3922,10 @@
     </row>
     <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="33">
         <v>3641</v>
@@ -4018,7 +3948,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -4030,7 +3960,7 @@
     </row>
     <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" s="37">
         <v>1000</v>
@@ -4056,7 +3986,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -4068,7 +3998,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" s="37">
         <v>1000</v>
@@ -4094,7 +4024,7 @@
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -4106,7 +4036,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B12" s="37">
         <v>1000</v>
@@ -4132,7 +4062,7 @@
     </row>
     <row r="13" spans="1:8" ht="42.75">
       <c r="A13" s="36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13" s="37">
         <v>1000</v>
@@ -4158,7 +4088,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B14" s="37">
         <v>1000</v>
@@ -4184,7 +4114,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15" s="37">
         <v>1000</v>
@@ -4210,7 +4140,7 @@
     </row>
     <row r="16" spans="1:8" ht="28.5">
       <c r="A16" s="36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B16" s="37">
         <v>1000</v>
@@ -4236,7 +4166,7 @@
     </row>
     <row r="17" spans="1:8" ht="28.5">
       <c r="A17" s="36" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B17" s="37">
         <v>1000</v>
@@ -4262,7 +4192,7 @@
     </row>
     <row r="18" spans="1:8" ht="28.5">
       <c r="A18" s="36" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B18" s="37">
         <v>1000</v>
@@ -4288,7 +4218,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B19" s="37">
         <v>1000</v>
@@ -4314,7 +4244,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B20" s="37">
         <v>1000</v>
@@ -4340,7 +4270,7 @@
     </row>
     <row r="21" spans="1:8" ht="28.5">
       <c r="A21" s="36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B21" s="37">
         <v>1000</v>
@@ -4366,7 +4296,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B22" s="37">
         <v>1000</v>
@@ -4392,7 +4322,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B23" s="37">
         <v>1000</v>
@@ -4418,7 +4348,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="36" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B24" s="37">
         <v>1000</v>
@@ -4444,7 +4374,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="36" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B25" s="37">
         <v>1000</v>
@@ -4470,19 +4400,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B26" s="37">
         <v>1000</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F26" s="41">
         <v>555</v>
@@ -4496,7 +4426,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B27" s="37">
         <v>1000</v>
@@ -4522,10 +4452,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C28" s="44">
         <v>3.73</v>
@@ -4548,7 +4478,7 @@
     </row>
     <row r="29" spans="1:8" ht="28.5">
       <c r="A29" s="32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B29" s="45">
         <v>1000</v>
@@ -4574,10 +4504,10 @@
     </row>
     <row r="30" spans="1:8" ht="28.5">
       <c r="A30" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C30" s="44">
         <v>7.69</v>
@@ -4600,12 +4530,12 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="47" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="48" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B33" s="49">
         <f>D6/AVERAGE(C6,E6)</f>
@@ -4616,7 +4546,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="48" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B34" s="49">
         <f>D28/(AVERAGE(C28,E28))</f>
@@ -4627,7 +4557,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="48" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B35" s="49">
         <f>D10/AVERAGE(E10,C10)</f>
@@ -4652,29 +4582,64 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ72"/>
+  <dimension ref="A1:AJ71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="23" customFormat="1">
-      <c r="C1" s="23" t="s">
-        <v>153</v>
-      </c>
+      <c r="A1" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
     </row>
     <row r="2" spans="1:36" s="23" customFormat="1">
       <c r="A2" s="23" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C2" s="23">
         <v>2017</v>
@@ -4784,7 +4749,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C3" s="53">
         <v>5179.5016296472777</v>
@@ -4894,7 +4859,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C4" s="53">
         <v>906.43752501948961</v>
@@ -5004,7 +4969,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C5" s="53">
         <v>6044.2528846388041</v>
@@ -5114,7 +5079,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C6" s="53">
         <v>5501.4276276478286</v>
@@ -5224,7 +5189,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C7" s="53">
         <v>4068.8324979159847</v>
@@ -5334,7 +5299,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C8" s="53">
         <v>3836.1961011946664</v>
@@ -5444,7 +5409,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C9" s="53">
         <v>7123.1024412096613</v>
@@ -5554,7 +5519,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C10" s="53">
         <v>6358.970494457717</v>
@@ -5664,7 +5629,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C11" s="53">
         <v>6228.2456569988753</v>
@@ -5774,7 +5739,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C12" s="53">
         <v>5606.8362940961097</v>
@@ -5884,7 +5849,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C13" s="53">
         <v>6199.7160723985862</v>
@@ -5994,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C14" s="53">
         <v>7561.0934235746954</v>
@@ -6104,7 +6069,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C15" s="53">
         <v>7561.0934235746954</v>
@@ -6214,7 +6179,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C16" s="53">
         <v>7561.0934235746954</v>
@@ -6324,7 +6289,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C17" s="53">
         <v>3827.2968566587979</v>
@@ -6434,7 +6399,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C18" s="53">
         <v>4013.1693740693227</v>
@@ -6544,7 +6509,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C19" s="53">
         <v>4013.1693740693227</v>
@@ -6654,7 +6619,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C20" s="53">
         <v>4305.3925876948315</v>
@@ -6764,7 +6729,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C21" s="53">
         <v>5576.5909167824766</v>
@@ -6874,7 +6839,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C22" s="53">
         <v>14196.524804379835</v>
@@ -6984,7 +6949,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C23" s="53">
         <v>31389.002895326357</v>
@@ -7094,7 +7059,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C24" s="53">
         <v>14196.524804379835</v>
@@ -7204,7 +7169,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C25" s="53">
         <v>31389.002895326357</v>
@@ -7314,7 +7279,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C26" s="53">
         <v>899.1125440742336</v>
@@ -7421,10 +7386,10 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C27" s="53">
         <v>2985.7163232225957</v>
@@ -7531,10 +7496,10 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C28" s="53">
         <v>3068.5330578578878</v>
@@ -7641,10 +7606,10 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C29" s="53">
         <v>3161.5232415013843</v>
@@ -7751,10 +7716,10 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C30" s="53">
         <v>3433.5732515006521</v>
@@ -7861,10 +7826,10 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C31" s="53">
         <v>3650.4675562858592</v>
@@ -7971,10 +7936,10 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C32" s="53">
         <v>4469.1889883621543</v>
@@ -8081,10 +8046,10 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C33" s="53">
         <v>4351.9349981933547</v>
@@ -8191,10 +8156,10 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C34" s="53">
         <v>4362.9480041823535</v>
@@ -8301,10 +8266,10 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C35" s="53">
         <v>4522.3633673455815</v>
@@ -8411,10 +8376,10 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C36" s="53">
         <v>4645.8187533874998</v>
@@ -8521,10 +8486,10 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C37" s="53">
         <v>4654.7690040318539</v>
@@ -8631,10 +8596,10 @@
     </row>
     <row r="38" spans="1:36" s="23" customFormat="1">
       <c r="A38" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C38" s="53">
         <v>4598.9063450796984</v>
@@ -8741,10 +8706,10 @@
     </row>
     <row r="39" spans="1:36" s="23" customFormat="1">
       <c r="A39" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="C39" s="53">
         <v>4826.7338115915436</v>
@@ -8851,10 +8816,10 @@
     </row>
     <row r="40" spans="1:36" s="23" customFormat="1">
       <c r="A40" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C40" s="53">
         <v>4996.613495139718</v>
@@ -8961,10 +8926,10 @@
     </row>
     <row r="41" spans="1:36" s="23" customFormat="1">
       <c r="A41" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C41" s="53">
         <v>5256.8000129437169</v>
@@ -9070,1504 +9035,1548 @@
       </c>
     </row>
     <row r="42" spans="1:36" s="23" customFormat="1"/>
-    <row r="43" spans="1:36" s="23" customFormat="1"/>
-    <row r="44" spans="1:36">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23">
+    <row r="43" spans="1:36" s="53" customFormat="1">
+      <c r="A43" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="55"/>
+    </row>
+    <row r="44" spans="1:36" s="53" customFormat="1">
+      <c r="A44"/>
+      <c r="B44" s="23"/>
+    </row>
+    <row r="45" spans="1:36" s="53" customFormat="1">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="23">
+        <v>12.491269722013936</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" s="53" customFormat="1">
+      <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="23">
+        <v>24.982539444027871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" s="53" customFormat="1">
+      <c r="A47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="23">
+        <v>49.965078888055743</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" s="53" customFormat="1">
+      <c r="A48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="23">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" s="53" customFormat="1">
+      <c r="A49" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="23">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" s="53" customFormat="1">
+      <c r="A50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="23">
+        <v>12.491269722013936</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" s="53" customFormat="1">
+      <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51" s="23">
+        <v>24.982539444027871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" s="53" customFormat="1">
+      <c r="A52" t="s">
+        <v>195</v>
+      </c>
+      <c r="B52" s="23">
+        <v>49.965078888055743</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" s="53" customFormat="1">
+      <c r="A53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="23">
+        <v>99.930157776111486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" s="53" customFormat="1">
+      <c r="A54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" s="53" customFormat="1">
+      <c r="A55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" s="53" customFormat="1">
+      <c r="A56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" s="53" customFormat="1">
+      <c r="A57" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" s="53" customFormat="1">
+      <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" s="23">
+        <v>199.86031555222297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" s="53" customFormat="1">
+      <c r="A59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="23">
+        <v>143.39977640871999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" s="53" customFormat="1"/>
+    <row r="61" spans="1:35" s="23" customFormat="1">
+      <c r="A61" s="55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
+      <c r="AF61" s="54"/>
+      <c r="AG61" s="54"/>
+      <c r="AH61" s="54"/>
+      <c r="AI61" s="54"/>
+    </row>
+    <row r="62" spans="1:35">
+      <c r="A62" s="23"/>
+      <c r="B62" s="23">
         <v>2017</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C62" s="47">
         <v>2018</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D62" s="47">
         <v>2019</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E62" s="47">
         <v>2020</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F62" s="47">
         <v>2021</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G62" s="47">
         <v>2022</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H62" s="47">
         <v>2023</v>
       </c>
-      <c r="I44" s="47">
+      <c r="I62" s="47">
         <v>2024</v>
       </c>
-      <c r="J44" s="47">
+      <c r="J62" s="47">
         <v>2025</v>
       </c>
-      <c r="K44" s="47">
+      <c r="K62" s="47">
         <v>2026</v>
       </c>
-      <c r="L44" s="47">
+      <c r="L62" s="47">
         <v>2027</v>
       </c>
-      <c r="M44" s="47">
+      <c r="M62" s="47">
         <v>2028</v>
       </c>
-      <c r="N44" s="47">
+      <c r="N62" s="47">
         <v>2029</v>
       </c>
-      <c r="O44" s="47">
+      <c r="O62" s="47">
         <v>2030</v>
       </c>
-      <c r="P44" s="47">
+      <c r="P62" s="47">
         <v>2031</v>
       </c>
-      <c r="Q44" s="47">
+      <c r="Q62" s="47">
         <v>2032</v>
       </c>
-      <c r="R44" s="47">
+      <c r="R62" s="47">
         <v>2033</v>
       </c>
-      <c r="S44" s="47">
+      <c r="S62" s="47">
         <v>2034</v>
       </c>
-      <c r="T44" s="47">
+      <c r="T62" s="47">
         <v>2035</v>
       </c>
-      <c r="U44" s="47">
+      <c r="U62" s="47">
         <v>2036</v>
       </c>
-      <c r="V44" s="47">
+      <c r="V62" s="47">
         <v>2037</v>
       </c>
-      <c r="W44" s="47">
+      <c r="W62" s="47">
         <v>2038</v>
       </c>
-      <c r="X44" s="47">
+      <c r="X62" s="47">
         <v>2039</v>
       </c>
-      <c r="Y44" s="47">
+      <c r="Y62" s="47">
         <v>2040</v>
       </c>
-      <c r="Z44" s="47">
+      <c r="Z62" s="47">
         <v>2041</v>
       </c>
-      <c r="AA44" s="47">
+      <c r="AA62" s="47">
         <v>2042</v>
       </c>
-      <c r="AB44" s="47">
+      <c r="AB62" s="47">
         <v>2043</v>
       </c>
-      <c r="AC44" s="47">
+      <c r="AC62" s="47">
         <v>2044</v>
       </c>
-      <c r="AD44" s="47">
+      <c r="AD62" s="47">
         <v>2045</v>
       </c>
-      <c r="AE44" s="47">
+      <c r="AE62" s="47">
         <v>2046</v>
       </c>
-      <c r="AF44" s="47">
+      <c r="AF62" s="47">
         <v>2047</v>
       </c>
-      <c r="AG44" s="47">
+      <c r="AG62" s="47">
         <v>2048</v>
       </c>
-      <c r="AH44" s="47">
+      <c r="AH62" s="47">
         <v>2049</v>
       </c>
-      <c r="AI44" s="47">
+      <c r="AI62" s="47">
         <v>2050</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
-      <c r="A45" s="23" t="s">
+    <row r="63" spans="1:35">
+      <c r="A63" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="23">
-        <f t="shared" ref="B45:AI45" si="0">AVERAGEIF($A$3:$A$41,$A45,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A45,$C$3:$C$41)</f>
+      <c r="B63" s="23">
+        <f t="shared" ref="B63:AI63" si="0">AVERAGEIF($A$3:$A$41,$A63,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A63,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C63" s="53">
         <f t="shared" si="0"/>
         <v>0.99361387867111461</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D63" s="53">
         <f t="shared" si="0"/>
         <v>0.98722775734222923</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E63" s="53">
         <f t="shared" si="0"/>
         <v>0.98084163601334406</v>
       </c>
-      <c r="F45" s="53">
+      <c r="F63" s="53">
         <f t="shared" si="0"/>
         <v>0.97445551468445868</v>
       </c>
-      <c r="G45" s="53">
+      <c r="G63" s="53">
         <f t="shared" si="0"/>
         <v>0.96806939335557329</v>
       </c>
-      <c r="H45" s="53">
+      <c r="H63" s="53">
         <f t="shared" si="0"/>
         <v>0.96168327202668813</v>
       </c>
-      <c r="I45" s="53">
+      <c r="I63" s="53">
         <f t="shared" si="0"/>
         <v>0.95575502423058456</v>
       </c>
-      <c r="J45" s="53">
+      <c r="J63" s="53">
         <f t="shared" si="0"/>
         <v>0.95376418570365662</v>
       </c>
-      <c r="K45" s="53">
+      <c r="K63" s="53">
         <f t="shared" si="0"/>
         <v>0.95139261374308337</v>
       </c>
-      <c r="L45" s="53">
+      <c r="L63" s="53">
         <f t="shared" si="0"/>
         <v>0.94852007231170787</v>
       </c>
-      <c r="M45" s="53">
+      <c r="M63" s="53">
         <f t="shared" si="0"/>
         <v>0.94466258129256508</v>
       </c>
-      <c r="N45" s="53">
+      <c r="N63" s="53">
         <f t="shared" si="0"/>
         <v>0.93884950207788953</v>
       </c>
-      <c r="O45" s="53">
+      <c r="O63" s="53">
         <f t="shared" si="0"/>
         <v>0.93456496865882499</v>
       </c>
-      <c r="P45" s="53">
+      <c r="P63" s="53">
         <f t="shared" si="0"/>
         <v>0.93030546804985181</v>
       </c>
-      <c r="Q45" s="53">
+      <c r="Q63" s="53">
         <f t="shared" si="0"/>
         <v>0.92553728258489454</v>
       </c>
-      <c r="R45" s="53">
+      <c r="R63" s="53">
         <f t="shared" si="0"/>
         <v>0.9211574901041627</v>
       </c>
-      <c r="S45" s="53">
+      <c r="S63" s="53">
         <f t="shared" si="0"/>
         <v>0.91750184895739795</v>
       </c>
-      <c r="T45" s="53">
+      <c r="T63" s="53">
         <f t="shared" si="0"/>
         <v>0.91269144432598337</v>
       </c>
-      <c r="U45" s="53">
+      <c r="U63" s="53">
         <f t="shared" si="0"/>
         <v>0.90827188751369381</v>
       </c>
-      <c r="V45" s="53">
+      <c r="V63" s="53">
         <f t="shared" si="0"/>
         <v>0.90363470423676473</v>
       </c>
-      <c r="W45" s="53">
+      <c r="W63" s="53">
         <f t="shared" si="0"/>
         <v>0.89949479347065597</v>
       </c>
-      <c r="X45" s="53">
+      <c r="X63" s="53">
         <f t="shared" si="0"/>
         <v>0.89487579418408858</v>
       </c>
-      <c r="Y45" s="53">
+      <c r="Y63" s="53">
         <f t="shared" si="0"/>
         <v>0.89037032831183294</v>
       </c>
-      <c r="Z45" s="53">
+      <c r="Z63" s="53">
         <f t="shared" si="0"/>
         <v>0.88678090500801032</v>
       </c>
-      <c r="AA45" s="53">
+      <c r="AA63" s="53">
         <f t="shared" si="0"/>
         <v>0.88119299673102536</v>
       </c>
-      <c r="AB45" s="53">
+      <c r="AB63" s="53">
         <f t="shared" si="0"/>
         <v>0.87806005588995828</v>
       </c>
-      <c r="AC45" s="53">
+      <c r="AC63" s="53">
         <f t="shared" si="0"/>
         <v>0.87266621682046297</v>
       </c>
-      <c r="AD45" s="53">
+      <c r="AD63" s="53">
         <f t="shared" si="0"/>
         <v>0.86933443748820738</v>
       </c>
-      <c r="AE45" s="53">
+      <c r="AE63" s="53">
         <f t="shared" si="0"/>
         <v>0.86428508846842067</v>
       </c>
-      <c r="AF45" s="53">
+      <c r="AF63" s="53">
         <f t="shared" si="0"/>
         <v>0.86004245813458313</v>
       </c>
-      <c r="AG45" s="53">
+      <c r="AG63" s="53">
         <f t="shared" si="0"/>
         <v>0.85578564375138377</v>
       </c>
-      <c r="AH45" s="53">
+      <c r="AH63" s="53">
         <f t="shared" si="0"/>
         <v>0.85145208680729234</v>
       </c>
-      <c r="AI45" s="53">
+      <c r="AI63" s="53">
         <f t="shared" si="0"/>
         <v>0.84058920735081899</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
-      <c r="A46" s="23" t="s">
+    <row r="64" spans="1:35">
+      <c r="A64" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="23">
-        <f t="shared" ref="B46:AI46" si="1">AVERAGEIF($A$3:$A$41,$A46,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A46,$C$3:$C$41)</f>
+      <c r="B64" s="23">
+        <f t="shared" ref="B64:AI64" si="1">AVERAGEIF($A$3:$A$41,$A64,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A64,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C64" s="53">
         <f t="shared" si="1"/>
         <v>0.99289565601927343</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D64" s="53">
         <f t="shared" si="1"/>
         <v>0.98579131203854686</v>
       </c>
-      <c r="E46" s="53">
+      <c r="E64" s="53">
         <f t="shared" si="1"/>
         <v>0.97868696805782029</v>
       </c>
-      <c r="F46" s="53">
+      <c r="F64" s="53">
         <f t="shared" si="1"/>
         <v>0.9715826240770935</v>
       </c>
-      <c r="G46" s="53">
+      <c r="G64" s="53">
         <f t="shared" si="1"/>
         <v>0.96447828009636694</v>
       </c>
-      <c r="H46" s="53">
+      <c r="H64" s="53">
         <f t="shared" si="1"/>
         <v>0.94986509740833081</v>
       </c>
-      <c r="I46" s="53">
+      <c r="I64" s="53">
         <f t="shared" si="1"/>
         <v>0.94251232636883664</v>
       </c>
-      <c r="J46" s="53">
+      <c r="J64" s="53">
         <f t="shared" si="1"/>
         <v>0.93884141486351436</v>
       </c>
-      <c r="K46" s="53">
+      <c r="K64" s="53">
         <f t="shared" si="1"/>
         <v>0.93509506075622273</v>
       </c>
-      <c r="L46" s="53">
+      <c r="L64" s="53">
         <f t="shared" si="1"/>
         <v>0.93114650465823812</v>
       </c>
-      <c r="M46" s="53">
+      <c r="M64" s="53">
         <f t="shared" si="1"/>
         <v>0.92776809620357947</v>
       </c>
-      <c r="N46" s="53">
+      <c r="N64" s="53">
         <f t="shared" si="1"/>
         <v>0.92249404190792728</v>
       </c>
-      <c r="O46" s="53">
+      <c r="O64" s="53">
         <f t="shared" si="1"/>
         <v>0.91950118460718078</v>
       </c>
-      <c r="P46" s="53">
+      <c r="P64" s="53">
         <f t="shared" si="1"/>
         <v>0.91672504132656596</v>
       </c>
-      <c r="Q46" s="53">
+      <c r="Q64" s="53">
         <f t="shared" si="1"/>
         <v>0.91296593219468369</v>
       </c>
-      <c r="R46" s="53">
+      <c r="R64" s="53">
         <f t="shared" si="1"/>
         <v>0.91001053553845368</v>
       </c>
-      <c r="S46" s="53">
+      <c r="S64" s="53">
         <f t="shared" si="1"/>
         <v>0.90746245925091229</v>
       </c>
-      <c r="T46" s="53">
+      <c r="T64" s="53">
         <f t="shared" si="1"/>
         <v>0.90416225095749481</v>
       </c>
-      <c r="U46" s="53">
+      <c r="U64" s="53">
         <f t="shared" si="1"/>
         <v>0.90101490638278403</v>
       </c>
-      <c r="V46" s="53">
+      <c r="V64" s="53">
         <f t="shared" si="1"/>
         <v>0.89813993680267379</v>
       </c>
-      <c r="W46" s="53">
+      <c r="W64" s="53">
         <f t="shared" si="1"/>
         <v>0.89622430569802169</v>
       </c>
-      <c r="X46" s="53">
+      <c r="X64" s="53">
         <f t="shared" si="1"/>
         <v>0.89383097648089882</v>
       </c>
-      <c r="Y46" s="53">
+      <c r="Y64" s="53">
         <f t="shared" si="1"/>
         <v>0.89155001563415048</v>
       </c>
-      <c r="Z46" s="53">
+      <c r="Z64" s="53">
         <f t="shared" si="1"/>
         <v>0.89018794212555774</v>
       </c>
-      <c r="AA46" s="53">
+      <c r="AA64" s="53">
         <f t="shared" si="1"/>
         <v>0.88681844175674396</v>
       </c>
-      <c r="AB46" s="53">
+      <c r="AB64" s="53">
         <f t="shared" si="1"/>
         <v>0.88591957066847604</v>
       </c>
-      <c r="AC46" s="53">
+      <c r="AC64" s="53">
         <f t="shared" si="1"/>
         <v>0.88274004210700152</v>
       </c>
-      <c r="AD46" s="53">
+      <c r="AD64" s="53">
         <f t="shared" si="1"/>
         <v>0.88164624452454521</v>
       </c>
-      <c r="AE46" s="53">
+      <c r="AE64" s="53">
         <f t="shared" si="1"/>
         <v>0.87881160892440002</v>
       </c>
-      <c r="AF46" s="53">
+      <c r="AF64" s="53">
         <f t="shared" si="1"/>
         <v>0.8767956515348625</v>
       </c>
-      <c r="AG46" s="53">
+      <c r="AG64" s="53">
         <f t="shared" si="1"/>
         <v>0.87476556369092151</v>
       </c>
-      <c r="AH46" s="53">
+      <c r="AH64" s="53">
         <f t="shared" si="1"/>
         <v>0.87265754775778004</v>
       </c>
-      <c r="AI46" s="53">
+      <c r="AI64" s="53">
         <f t="shared" si="1"/>
         <v>0.8638396791213292</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
-      <c r="A47" s="23" t="s">
+    <row r="65" spans="1:35">
+      <c r="A65" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="23">
-        <f t="shared" ref="B47:AI47" si="2">AVERAGEIF($A$3:$A$41,$A47,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A47,$C$3:$C$41)</f>
+      <c r="B65" s="23">
+        <f t="shared" ref="B65:AI65" si="2">AVERAGEIF($A$3:$A$41,$A65,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A65,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C65" s="53">
         <f t="shared" si="2"/>
         <v>0.99299706323394998</v>
       </c>
-      <c r="D47" s="53">
+      <c r="D65" s="53">
         <f t="shared" si="2"/>
         <v>0.98599412646789986</v>
       </c>
-      <c r="E47" s="53">
+      <c r="E65" s="53">
         <f t="shared" si="2"/>
         <v>0.97899118970184984</v>
       </c>
-      <c r="F47" s="53">
+      <c r="F65" s="53">
         <f t="shared" si="2"/>
         <v>0.97198825293579971</v>
       </c>
-      <c r="G47" s="53">
+      <c r="G65" s="53">
         <f t="shared" si="2"/>
         <v>0.9649853161697497</v>
       </c>
-      <c r="H47" s="53">
+      <c r="H65" s="53">
         <f t="shared" si="2"/>
         <v>0.95798237940369968</v>
       </c>
-      <c r="I47" s="53">
+      <c r="I65" s="53">
         <f t="shared" si="2"/>
         <v>0.9514380268203958</v>
       </c>
-      <c r="J47" s="53">
+      <c r="J65" s="53">
         <f t="shared" si="2"/>
         <v>0.94881266625648586</v>
       </c>
-      <c r="K47" s="53">
+      <c r="K65" s="53">
         <f t="shared" si="2"/>
         <v>0.94580560403108094</v>
       </c>
-      <c r="L47" s="53">
+      <c r="L65" s="53">
         <f t="shared" si="2"/>
         <v>0.94229815162946873</v>
       </c>
-      <c r="M47" s="53">
+      <c r="M65" s="53">
         <f t="shared" si="2"/>
         <v>0.93781099262875101</v>
       </c>
-      <c r="N47" s="53">
+      <c r="N65" s="53">
         <f t="shared" si="2"/>
         <v>0.93138304519871018</v>
       </c>
-      <c r="O47" s="53">
+      <c r="O65" s="53">
         <f t="shared" si="2"/>
         <v>0.92647245464194639</v>
       </c>
-      <c r="P47" s="53">
+      <c r="P65" s="53">
         <f t="shared" si="2"/>
         <v>0.92158644841071546</v>
       </c>
-      <c r="Q47" s="53">
+      <c r="Q65" s="53">
         <f t="shared" si="2"/>
         <v>0.91619674484378688</v>
       </c>
-      <c r="R47" s="53">
+      <c r="R65" s="53">
         <f t="shared" si="2"/>
         <v>0.91119190892101065</v>
       </c>
-      <c r="S47" s="53">
+      <c r="S65" s="53">
         <f t="shared" si="2"/>
         <v>0.90690285527447145</v>
       </c>
-      <c r="T47" s="53">
+      <c r="T65" s="53">
         <f t="shared" si="2"/>
         <v>0.90147225680378973</v>
       </c>
-      <c r="U47" s="53">
+      <c r="U65" s="53">
         <f t="shared" si="2"/>
         <v>0.89642801084429113</v>
       </c>
-      <c r="V47" s="53">
+      <c r="V65" s="53">
         <f t="shared" si="2"/>
         <v>0.8911693178724599</v>
       </c>
-      <c r="W47" s="53">
+      <c r="W65" s="53">
         <f t="shared" si="2"/>
         <v>0.88640131346991513</v>
       </c>
-      <c r="X47" s="53">
+      <c r="X65" s="53">
         <f t="shared" si="2"/>
         <v>0.88116090900532995</v>
       </c>
-      <c r="Y47" s="53">
+      <c r="Y65" s="53">
         <f t="shared" si="2"/>
         <v>0.8760326516087541</v>
       </c>
-      <c r="Z47" s="53">
+      <c r="Z65" s="53">
         <f t="shared" si="2"/>
         <v>0.87180517776536537</v>
       </c>
-      <c r="AA47" s="53">
+      <c r="AA65" s="53">
         <f t="shared" si="2"/>
         <v>0.86561351805612274</v>
       </c>
-      <c r="AB47" s="53">
+      <c r="AB65" s="53">
         <f t="shared" si="2"/>
         <v>0.86183332046796002</v>
       </c>
-      <c r="AC47" s="53">
+      <c r="AC65" s="53">
         <f t="shared" si="2"/>
         <v>0.85583377022979312</v>
       </c>
-      <c r="AD47" s="53">
+      <c r="AD65" s="53">
         <f t="shared" si="2"/>
         <v>0.85185654996956839</v>
       </c>
-      <c r="AE47" s="53">
+      <c r="AE65" s="53">
         <f t="shared" si="2"/>
         <v>0.84619628302670113</v>
       </c>
-      <c r="AF47" s="53">
+      <c r="AF65" s="53">
         <f t="shared" si="2"/>
         <v>0.84132630906727179</v>
       </c>
-      <c r="AG47" s="53">
+      <c r="AG65" s="53">
         <f t="shared" si="2"/>
         <v>0.83644191361051734</v>
       </c>
-      <c r="AH47" s="53">
+      <c r="AH65" s="53">
         <f t="shared" si="2"/>
         <v>0.83148261136523338</v>
       </c>
-      <c r="AI47" s="53">
+      <c r="AI65" s="53">
         <f t="shared" si="2"/>
         <v>0.82015272478064627</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
-      <c r="A48" s="23" t="s">
+    <row r="66" spans="1:35">
+      <c r="A66" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="23">
-        <f t="shared" ref="B48:AI48" si="3">AVERAGEIF($A$3:$A$41,$A48,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A48,$C$3:$C$41)</f>
+      <c r="B66" s="23">
+        <f t="shared" ref="B66:AI66" si="3">AVERAGEIF($A$3:$A$41,$A66,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A66,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C48" s="53">
+      <c r="C66" s="53">
         <f t="shared" si="3"/>
         <v>0.98500285010457367</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D66" s="53">
         <f t="shared" si="3"/>
         <v>0.97000570020914689</v>
       </c>
-      <c r="E48" s="53">
+      <c r="E66" s="53">
         <f t="shared" si="3"/>
         <v>0.95500855031372067</v>
       </c>
-      <c r="F48" s="53">
+      <c r="F66" s="53">
         <f t="shared" si="3"/>
         <v>0.94001140041829412</v>
       </c>
-      <c r="G48" s="53">
+      <c r="G66" s="53">
         <f t="shared" si="3"/>
         <v>0.92501425052286779</v>
       </c>
-      <c r="H48" s="53">
+      <c r="H66" s="53">
         <f t="shared" si="3"/>
         <v>0.91001710062744134</v>
       </c>
-      <c r="I48" s="53">
+      <c r="I66" s="53">
         <f t="shared" si="3"/>
         <v>0.8950199507320149</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J66" s="53">
         <f t="shared" si="3"/>
         <v>0.88002280083658868</v>
       </c>
-      <c r="K48" s="53">
+      <c r="K66" s="53">
         <f t="shared" si="3"/>
         <v>0.86502565094116191</v>
       </c>
-      <c r="L48" s="53">
+      <c r="L66" s="53">
         <f t="shared" si="3"/>
         <v>0.85002850104573568</v>
       </c>
-      <c r="M48" s="53">
+      <c r="M66" s="53">
         <f t="shared" si="3"/>
         <v>0.83503135115030913</v>
       </c>
-      <c r="N48" s="53">
+      <c r="N66" s="53">
         <f t="shared" si="3"/>
         <v>0.82003420125488258</v>
       </c>
-      <c r="O48" s="53">
+      <c r="O66" s="53">
         <f t="shared" si="3"/>
         <v>0.80503705135945625</v>
       </c>
-      <c r="P48" s="53">
+      <c r="P66" s="53">
         <f t="shared" si="3"/>
         <v>0.79003990146402991</v>
       </c>
-      <c r="Q48" s="53">
+      <c r="Q66" s="53">
         <f t="shared" si="3"/>
         <v>0.77504275156860336</v>
       </c>
-      <c r="R48" s="53">
+      <c r="R66" s="53">
         <f t="shared" si="3"/>
         <v>0.76004560167317692</v>
       </c>
-      <c r="S48" s="53">
+      <c r="S66" s="53">
         <f t="shared" si="3"/>
         <v>0.74504845177775059</v>
       </c>
-      <c r="T48" s="53">
+      <c r="T66" s="53">
         <f t="shared" si="3"/>
         <v>0.73005130188232414</v>
       </c>
-      <c r="U48" s="53">
+      <c r="U66" s="53">
         <f t="shared" si="3"/>
         <v>0.72612221934481047</v>
       </c>
-      <c r="V48" s="53">
+      <c r="V66" s="53">
         <f t="shared" si="3"/>
         <v>0.72219313680729702</v>
       </c>
-      <c r="W48" s="53">
+      <c r="W66" s="53">
         <f t="shared" si="3"/>
         <v>0.71826405426978335</v>
       </c>
-      <c r="X48" s="53">
+      <c r="X66" s="53">
         <f t="shared" si="3"/>
         <v>0.71433497173226956</v>
       </c>
-      <c r="Y48" s="53">
+      <c r="Y66" s="53">
         <f t="shared" si="3"/>
         <v>0.71040588919475611</v>
       </c>
-      <c r="Z48" s="53">
+      <c r="Z66" s="53">
         <f t="shared" si="3"/>
         <v>0.70647680665724244</v>
       </c>
-      <c r="AA48" s="53">
+      <c r="AA66" s="53">
         <f t="shared" si="3"/>
         <v>0.70254772411972888</v>
       </c>
-      <c r="AB48" s="53">
+      <c r="AB66" s="53">
         <f t="shared" si="3"/>
         <v>0.69861864158221521</v>
       </c>
-      <c r="AC48" s="53">
+      <c r="AC66" s="53">
         <f t="shared" si="3"/>
         <v>0.69468955904470164</v>
       </c>
-      <c r="AD48" s="53">
+      <c r="AD66" s="53">
         <f t="shared" si="3"/>
         <v>0.69076047650718797</v>
       </c>
-      <c r="AE48" s="53">
+      <c r="AE66" s="53">
         <f t="shared" si="3"/>
         <v>0.68683139396967441</v>
       </c>
-      <c r="AF48" s="53">
+      <c r="AF66" s="53">
         <f t="shared" si="3"/>
         <v>0.68290231143216074</v>
       </c>
-      <c r="AG48" s="53">
+      <c r="AG66" s="53">
         <f t="shared" si="3"/>
         <v>0.67897322889464717</v>
       </c>
-      <c r="AH48" s="53">
+      <c r="AH66" s="53">
         <f t="shared" si="3"/>
         <v>0.67504414635713361</v>
       </c>
-      <c r="AI48" s="53">
+      <c r="AI66" s="53">
         <f t="shared" si="3"/>
         <v>0.67111506381962005</v>
       </c>
     </row>
-    <row r="49" spans="1:35" s="23" customFormat="1">
-      <c r="A49" s="23" t="s">
+    <row r="67" spans="1:35" s="23" customFormat="1">
+      <c r="A67" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="23">
-        <f t="shared" ref="B49:AI49" si="4">AVERAGEIF($A$3:$A$41,$A49,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A49,$C$3:$C$41)</f>
+      <c r="B67" s="23">
+        <f t="shared" ref="B67:AI67" si="4">AVERAGEIF($A$3:$A$41,$A67,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A67,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C67" s="53">
         <f t="shared" si="4"/>
         <v>0.95860906787400912</v>
       </c>
-      <c r="D49" s="53">
+      <c r="D67" s="53">
         <f t="shared" si="4"/>
         <v>0.9172181357480178</v>
       </c>
-      <c r="E49" s="53">
+      <c r="E67" s="53">
         <f t="shared" si="4"/>
         <v>0.87582720362202637</v>
       </c>
-      <c r="F49" s="53">
+      <c r="F67" s="53">
         <f t="shared" si="4"/>
         <v>0.83443627149603539</v>
       </c>
-      <c r="G49" s="53">
+      <c r="G67" s="53">
         <f t="shared" si="4"/>
         <v>0.78545475742407822</v>
       </c>
-      <c r="H49" s="53">
+      <c r="H67" s="53">
         <f t="shared" si="4"/>
         <v>0.7434692512162604</v>
       </c>
-      <c r="I49" s="53">
+      <c r="I67" s="53">
         <f t="shared" si="4"/>
         <v>0.69766611832130099</v>
       </c>
-      <c r="J49" s="53">
+      <c r="J67" s="53">
         <f t="shared" si="4"/>
         <v>0.6518629854263418</v>
       </c>
-      <c r="K49" s="53">
+      <c r="K67" s="53">
         <f t="shared" si="4"/>
         <v>0.60605985253138261</v>
       </c>
-      <c r="L49" s="53">
+      <c r="L67" s="53">
         <f t="shared" si="4"/>
         <v>0.56025671963642332</v>
       </c>
-      <c r="M49" s="53">
+      <c r="M67" s="53">
         <f t="shared" si="4"/>
         <v>0.51445358674146391</v>
       </c>
-      <c r="N49" s="53">
+      <c r="N67" s="53">
         <f t="shared" si="4"/>
         <v>0.46865045384650467</v>
       </c>
-      <c r="O49" s="53">
+      <c r="O67" s="53">
         <f t="shared" si="4"/>
         <v>0.42284732095154565</v>
       </c>
-      <c r="P49" s="53">
+      <c r="P67" s="53">
         <f t="shared" si="4"/>
         <v>0.41864257896922646</v>
       </c>
-      <c r="Q49" s="53">
+      <c r="Q67" s="53">
         <f t="shared" si="4"/>
         <v>0.41443783698690723</v>
       </c>
-      <c r="R49" s="53">
+      <c r="R67" s="53">
         <f t="shared" si="4"/>
         <v>0.4102330950045881</v>
       </c>
-      <c r="S49" s="53">
+      <c r="S67" s="53">
         <f t="shared" si="4"/>
         <v>0.40602835302226875</v>
       </c>
-      <c r="T49" s="53">
+      <c r="T67" s="53">
         <f t="shared" si="4"/>
         <v>0.40182361103994962</v>
       </c>
-      <c r="U49" s="53">
+      <c r="U67" s="53">
         <f t="shared" si="4"/>
         <v>0.39761886905763044</v>
       </c>
-      <c r="V49" s="53">
+      <c r="V67" s="53">
         <f t="shared" si="4"/>
         <v>0.39341412707531132</v>
       </c>
-      <c r="W49" s="53">
+      <c r="W67" s="53">
         <f t="shared" si="4"/>
         <v>0.38920938509299208</v>
       </c>
-      <c r="X49" s="53">
+      <c r="X67" s="53">
         <f t="shared" si="4"/>
         <v>0.38500464311067273</v>
       </c>
-      <c r="Y49" s="53">
+      <c r="Y67" s="53">
         <f t="shared" si="4"/>
         <v>0.38079990112835366</v>
       </c>
-      <c r="Z49" s="53">
+      <c r="Z67" s="53">
         <f t="shared" si="4"/>
         <v>0.37659515914603442</v>
       </c>
-      <c r="AA49" s="53">
+      <c r="AA67" s="53">
         <f t="shared" si="4"/>
         <v>0.37239041716371518</v>
       </c>
-      <c r="AB49" s="53">
+      <c r="AB67" s="53">
         <f t="shared" si="4"/>
         <v>0.36818567518139605</v>
       </c>
-      <c r="AC49" s="53">
+      <c r="AC67" s="53">
         <f t="shared" si="4"/>
         <v>0.36398093319907687</v>
       </c>
-      <c r="AD49" s="53">
+      <c r="AD67" s="53">
         <f t="shared" si="4"/>
         <v>0.35977619121675758</v>
       </c>
-      <c r="AE49" s="53">
+      <c r="AE67" s="53">
         <f t="shared" si="4"/>
         <v>0.35557144923443851</v>
       </c>
-      <c r="AF49" s="53">
+      <c r="AF67" s="53">
         <f t="shared" si="4"/>
         <v>0.35136670725211921</v>
       </c>
-      <c r="AG49" s="53">
+      <c r="AG67" s="53">
         <f t="shared" si="4"/>
         <v>0.34716196526979998</v>
       </c>
-      <c r="AH49" s="53">
+      <c r="AH67" s="53">
         <f t="shared" si="4"/>
         <v>0.34295722328748079</v>
       </c>
-      <c r="AI49" s="53">
+      <c r="AI67" s="53">
         <f t="shared" si="4"/>
         <v>0.33875248130516172</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="23" t="s">
+    <row r="68" spans="1:35">
+      <c r="A68" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="23">
-        <f t="shared" ref="B50:AI50" si="5">AVERAGEIF($A$3:$A$41,$A50,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A50,$C$3:$C$41)</f>
+      <c r="B68" s="23">
+        <f t="shared" ref="B68:AI68" si="5">AVERAGEIF($A$3:$A$41,$A68,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A68,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C50" s="53">
+      <c r="C68" s="53">
         <f t="shared" si="5"/>
         <v>0.99866706531590688</v>
       </c>
-      <c r="D50" s="53">
+      <c r="D68" s="53">
         <f t="shared" si="5"/>
         <v>0.99733413063181364</v>
       </c>
-      <c r="E50" s="53">
+      <c r="E68" s="53">
         <f t="shared" si="5"/>
         <v>0.99572315608622486</v>
       </c>
-      <c r="F50" s="53">
+      <c r="F68" s="53">
         <f t="shared" si="5"/>
         <v>1.006844205541084</v>
       </c>
-      <c r="G50" s="53">
+      <c r="G68" s="53">
         <f t="shared" si="5"/>
         <v>0.98099485229086403</v>
       </c>
-      <c r="H50" s="53">
+      <c r="H68" s="53">
         <f t="shared" si="5"/>
         <v>0.97625494126096368</v>
       </c>
-      <c r="I50" s="53">
+      <c r="I68" s="53">
         <f t="shared" si="5"/>
         <v>0.97195053751129057</v>
       </c>
-      <c r="J50" s="53">
+      <c r="J68" s="53">
         <f t="shared" si="5"/>
         <v>0.97144423922539058</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K68" s="53">
         <f t="shared" si="5"/>
         <v>0.97057654461538967</v>
       </c>
-      <c r="L50" s="53">
+      <c r="L68" s="53">
         <f t="shared" si="5"/>
         <v>0.96922954130968253</v>
       </c>
-      <c r="M50" s="53">
+      <c r="M68" s="53">
         <f t="shared" si="5"/>
         <v>0.96693141521083936</v>
       </c>
-      <c r="N50" s="53">
+      <c r="N68" s="53">
         <f t="shared" si="5"/>
         <v>0.96273418242138675</v>
       </c>
-      <c r="O50" s="53">
+      <c r="O68" s="53">
         <f t="shared" si="5"/>
         <v>0.96002039877923506</v>
       </c>
-      <c r="P50" s="53">
+      <c r="P68" s="53">
         <f t="shared" si="5"/>
         <v>0.95733114239508632</v>
       </c>
-      <c r="Q50" s="53">
+      <c r="Q68" s="53">
         <f t="shared" si="5"/>
         <v>0.95414543365001081</v>
       </c>
-      <c r="R50" s="53">
+      <c r="R68" s="53">
         <f t="shared" si="5"/>
         <v>0.95133837301468205</v>
       </c>
-      <c r="S50" s="53">
+      <c r="S68" s="53">
         <f t="shared" si="5"/>
         <v>0.94924070534335847</v>
       </c>
-      <c r="T50" s="53">
+      <c r="T68" s="53">
         <f t="shared" si="5"/>
         <v>0.94601201531706791</v>
       </c>
-      <c r="U50" s="53">
+      <c r="U68" s="53">
         <f t="shared" si="5"/>
         <v>0.94316603432158919</v>
       </c>
-      <c r="V50" s="53">
+      <c r="V68" s="53">
         <f t="shared" si="5"/>
         <v>0.94010560974761981</v>
       </c>
-      <c r="W50" s="53">
+      <c r="W68" s="53">
         <f t="shared" si="5"/>
         <v>0.93753491204764161</v>
       </c>
-      <c r="X50" s="53">
+      <c r="X68" s="53">
         <f t="shared" si="5"/>
         <v>0.93449120532015484</v>
       </c>
-      <c r="Y50" s="53">
+      <c r="Y68" s="53">
         <f t="shared" si="5"/>
         <v>0.93155909929288172</v>
       </c>
-      <c r="Z50" s="53">
+      <c r="Z68" s="53">
         <f t="shared" si="5"/>
         <v>0.92953479789727411</v>
       </c>
-      <c r="AA50" s="53">
+      <c r="AA68" s="53">
         <f t="shared" si="5"/>
         <v>0.92552810506553873</v>
       </c>
-      <c r="AB50" s="53">
+      <c r="AB68" s="53">
         <f t="shared" si="5"/>
         <v>0.92395996075469167</v>
       </c>
-      <c r="AC50" s="53">
+      <c r="AC68" s="53">
         <f t="shared" si="5"/>
         <v>0.92014217392752329</v>
       </c>
-      <c r="AD50" s="53">
+      <c r="AD68" s="53">
         <f t="shared" si="5"/>
         <v>0.91837997796090998</v>
       </c>
-      <c r="AE50" s="53">
+      <c r="AE68" s="53">
         <f t="shared" si="5"/>
         <v>0.91490329989722352</v>
       </c>
-      <c r="AF50" s="53">
+      <c r="AF68" s="53">
         <f t="shared" si="5"/>
         <v>0.91223261342364481</v>
       </c>
-      <c r="AG50" s="53">
+      <c r="AG68" s="53">
         <f t="shared" si="5"/>
         <v>0.90954792862679801</v>
       </c>
-      <c r="AH50" s="53">
+      <c r="AH68" s="53">
         <f t="shared" si="5"/>
         <v>0.90678646139822128</v>
       </c>
-      <c r="AI50" s="53">
+      <c r="AI68" s="53">
         <f t="shared" si="5"/>
         <v>0.89744477508287412</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
-      <c r="A51" s="23" t="s">
+    <row r="69" spans="1:35">
+      <c r="A69" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="23">
-        <f t="shared" ref="B51:AI51" si="6">AVERAGEIF($A$3:$A$41,$A51,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A51,$C$3:$C$41)</f>
+      <c r="B69" s="23">
+        <f t="shared" ref="B69:AI69" si="6">AVERAGEIF($A$3:$A$41,$A69,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A69,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C69" s="53">
         <f t="shared" si="6"/>
         <v>0.94356363905780227</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D69" s="53">
         <f t="shared" si="6"/>
         <v>0.88712727811560432</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E69" s="53">
         <f t="shared" si="6"/>
         <v>0.83069091717340648</v>
       </c>
-      <c r="F51" s="53">
+      <c r="F69" s="53">
         <f t="shared" si="6"/>
         <v>0.77425455623120853</v>
       </c>
-      <c r="G51" s="53">
+      <c r="G69" s="53">
         <f t="shared" si="6"/>
         <v>0.71781819528901092</v>
       </c>
-      <c r="H51" s="53">
+      <c r="H69" s="53">
         <f t="shared" si="6"/>
         <v>0.66138183434681308</v>
       </c>
-      <c r="I51" s="53">
+      <c r="I69" s="53">
         <f t="shared" si="6"/>
         <v>0.60494547340461513</v>
       </c>
-      <c r="J51" s="53">
+      <c r="J69" s="53">
         <f t="shared" si="6"/>
         <v>0.54850911246241718</v>
       </c>
-      <c r="K51" s="53">
+      <c r="K69" s="53">
         <f t="shared" si="6"/>
         <v>0.49207275152021934</v>
       </c>
-      <c r="L51" s="53">
+      <c r="L69" s="53">
         <f t="shared" si="6"/>
         <v>0.4356363905780215</v>
       </c>
-      <c r="M51" s="53">
+      <c r="M69" s="53">
         <f t="shared" si="6"/>
         <v>0.37920002963582355</v>
       </c>
-      <c r="N51" s="53">
+      <c r="N69" s="53">
         <f t="shared" si="6"/>
         <v>0.3227636686936256</v>
       </c>
-      <c r="O51" s="53">
+      <c r="O69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="P51" s="53">
+      <c r="P69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="Q51" s="53">
+      <c r="Q69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="R51" s="53">
+      <c r="R69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="S51" s="53">
+      <c r="S69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="T51" s="53">
+      <c r="T69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="U51" s="53">
+      <c r="U69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="V51" s="53">
+      <c r="V69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="W51" s="53">
+      <c r="W69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="X51" s="53">
+      <c r="X69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="Y51" s="53">
+      <c r="Y69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="Z51" s="53">
+      <c r="Z69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AA51" s="53">
+      <c r="AA69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AB51" s="53">
+      <c r="AB69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AC51" s="53">
+      <c r="AC69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AD51" s="53">
+      <c r="AD69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AE51" s="53">
+      <c r="AE69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AF51" s="53">
+      <c r="AF69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AG51" s="53">
+      <c r="AG69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AH51" s="53">
+      <c r="AH69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
-      <c r="AI51" s="53">
+      <c r="AI69" s="53">
         <f t="shared" si="6"/>
         <v>0.26632730775142766</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
-      <c r="A52" s="23" t="s">
+    <row r="70" spans="1:35">
+      <c r="A70" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="23">
-        <f t="shared" ref="B52:AI52" si="7">AVERAGEIF($A$3:$A$41,$A52,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A52,$C$3:$C$41)</f>
+      <c r="B70" s="23">
+        <f t="shared" ref="B70:AI70" si="7">AVERAGEIF($A$3:$A$41,$A70,C$3:C$41)/AVERAGEIF($A$3:$A$41,$A70,$C$3:$C$41)</f>
         <v>1</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C70" s="53">
         <f t="shared" si="7"/>
         <v>0.99843239210146095</v>
       </c>
-      <c r="D52" s="53">
+      <c r="D70" s="53">
         <f t="shared" si="7"/>
         <v>0.99686478420292202</v>
       </c>
-      <c r="E52" s="53">
+      <c r="E70" s="53">
         <f t="shared" si="7"/>
         <v>1.0040053609027875</v>
       </c>
-      <c r="F52" s="53">
+      <c r="F70" s="53">
         <f t="shared" si="7"/>
         <v>0.99193556990426157</v>
       </c>
-      <c r="G52" s="53">
+      <c r="G70" s="53">
         <f t="shared" si="7"/>
         <v>0.9845361127745369</v>
       </c>
-      <c r="H52" s="53">
+      <c r="H70" s="53">
         <f t="shared" si="7"/>
         <v>0.96513000029532214</v>
       </c>
-      <c r="I52" s="53">
+      <c r="I70" s="53">
         <f t="shared" si="7"/>
         <v>0.95615239080336878</v>
       </c>
-      <c r="J52" s="53">
+      <c r="J70" s="53">
         <f t="shared" si="7"/>
         <v>0.95081929414849531</v>
       </c>
-      <c r="K52" s="53">
+      <c r="K70" s="53">
         <f t="shared" si="7"/>
         <v>0.94554090553662251</v>
       </c>
-      <c r="L52" s="53">
+      <c r="L70" s="53">
         <f t="shared" si="7"/>
         <v>0.94018622836390731</v>
       </c>
-      <c r="M52" s="53">
+      <c r="M70" s="53">
         <f t="shared" si="7"/>
         <v>0.93610361308294421</v>
       </c>
-      <c r="N52" s="53">
+      <c r="N70" s="53">
         <f t="shared" si="7"/>
         <v>0.9301202095613057</v>
       </c>
-      <c r="O52" s="53">
+      <c r="O70" s="53">
         <f t="shared" si="7"/>
         <v>0.92679350840479824</v>
       </c>
-      <c r="P52" s="53">
+      <c r="P70" s="53">
         <f t="shared" si="7"/>
         <v>0.92377255675392778</v>
       </c>
-      <c r="Q52" s="53">
+      <c r="Q70" s="53">
         <f t="shared" si="7"/>
         <v>0.91954176438353663</v>
       </c>
-      <c r="R52" s="53">
+      <c r="R70" s="53">
         <f t="shared" si="7"/>
         <v>0.91631268610689376</v>
       </c>
-      <c r="S52" s="53">
+      <c r="S70" s="53">
         <f t="shared" si="7"/>
         <v>0.91335255678838023</v>
       </c>
-      <c r="T52" s="53">
+      <c r="T70" s="53">
         <f t="shared" si="7"/>
         <v>0.90981349690811741</v>
       </c>
-      <c r="U52" s="53">
+      <c r="U70" s="53">
         <f t="shared" si="7"/>
         <v>0.90632156135940878</v>
       </c>
-      <c r="V52" s="53">
+      <c r="V70" s="53">
         <f t="shared" si="7"/>
         <v>0.90332745851820551</v>
       </c>
-      <c r="W52" s="53">
+      <c r="W70" s="53">
         <f t="shared" si="7"/>
         <v>0.90151131816352381</v>
       </c>
-      <c r="X52" s="53">
+      <c r="X70" s="53">
         <f t="shared" si="7"/>
         <v>0.89921462636086258</v>
       </c>
-      <c r="Y52" s="53">
+      <c r="Y70" s="53">
         <f t="shared" si="7"/>
         <v>0.8970309918393935</v>
       </c>
-      <c r="Z52" s="53">
+      <c r="Z70" s="53">
         <f t="shared" si="7"/>
         <v>0.89577190748462732</v>
       </c>
-      <c r="AA52" s="53">
+      <c r="AA70" s="53">
         <f t="shared" si="7"/>
         <v>0.89249282681209385</v>
       </c>
-      <c r="AB52" s="53">
+      <c r="AB70" s="53">
         <f t="shared" si="7"/>
         <v>0.89170014422238164</v>
       </c>
-      <c r="AC52" s="53">
+      <c r="AC70" s="53">
         <f t="shared" si="7"/>
         <v>0.88861192948609069</v>
       </c>
-      <c r="AD52" s="53">
+      <c r="AD70" s="53">
         <f t="shared" si="7"/>
         <v>0.88762326109406264</v>
       </c>
-      <c r="AE52" s="53">
+      <c r="AE70" s="53">
         <f t="shared" si="7"/>
         <v>0.88488207370562277</v>
       </c>
-      <c r="AF52" s="53">
+      <c r="AF70" s="53">
         <f t="shared" si="7"/>
         <v>0.88296511544991185</v>
       </c>
-      <c r="AG52" s="53">
+      <c r="AG70" s="53">
         <f t="shared" si="7"/>
         <v>0.88103401189453079</v>
       </c>
-      <c r="AH52" s="53">
+      <c r="AH70" s="53">
         <f t="shared" si="7"/>
         <v>0.87902427775817016</v>
       </c>
-      <c r="AI52" s="53">
+      <c r="AI70" s="53">
         <f t="shared" si="7"/>
         <v>0.8702549929776886</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
-      <c r="A53" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="23">
-        <f t="shared" ref="B53:AI53" si="8">(SUMPRODUCT(C$27:C$41,$B$58:$B$72)/SUM($B$58:$B$72))/(SUMPRODUCT($C$27:$C$41,$B$58:$B$72)/SUM($B$58:$B$72))</f>
+    <row r="71" spans="1:35">
+      <c r="A71" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="23">
+        <f>(SUMPRODUCT(C$27:C$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>1</v>
       </c>
-      <c r="C53" s="23">
-        <f t="shared" si="8"/>
+      <c r="C71" s="23">
+        <f>(SUMPRODUCT(D$27:D$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.76893251532958939</v>
       </c>
-      <c r="D53" s="23">
-        <f t="shared" si="8"/>
+      <c r="D71" s="23">
+        <f>(SUMPRODUCT(E$27:E$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.73908611988359929</v>
       </c>
-      <c r="E53" s="23">
-        <f t="shared" si="8"/>
+      <c r="E71" s="23">
+        <f>(SUMPRODUCT(F$27:F$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.71041231821700446</v>
       </c>
-      <c r="F53" s="23">
-        <f t="shared" si="8"/>
+      <c r="F71" s="23">
+        <f>(SUMPRODUCT(G$27:G$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.68286455787608569</v>
       </c>
-      <c r="G53" s="23">
-        <f t="shared" si="8"/>
+      <c r="G71" s="23">
+        <f>(SUMPRODUCT(H$27:H$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.65639815098108378</v>
       </c>
-      <c r="H53" s="23">
-        <f t="shared" si="8"/>
+      <c r="H71" s="23">
+        <f>(SUMPRODUCT(I$27:I$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.63097019899268714</v>
       </c>
-      <c r="I53" s="23">
-        <f t="shared" si="8"/>
+      <c r="I71" s="23">
+        <f>(SUMPRODUCT(J$27:J$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.60653952053245963</v>
       </c>
-      <c r="J53" s="23">
-        <f t="shared" si="8"/>
+      <c r="J71" s="23">
+        <f>(SUMPRODUCT(K$27:K$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.58306658213263374</v>
       </c>
-      <c r="K53" s="23">
-        <f t="shared" si="8"/>
+      <c r="K71" s="23">
+        <f>(SUMPRODUCT(L$27:L$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.56051343179579671</v>
       </c>
-      <c r="L53" s="23">
-        <f t="shared" si="8"/>
+      <c r="L71" s="23">
+        <f>(SUMPRODUCT(M$27:M$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.53884363524988776</v>
       </c>
-      <c r="M53" s="23">
-        <f t="shared" si="8"/>
+      <c r="M71" s="23">
+        <f>(SUMPRODUCT(N$27:N$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.51802221478861732</v>
       </c>
-      <c r="N53" s="23">
-        <f t="shared" si="8"/>
+      <c r="N71" s="23">
+        <f>(SUMPRODUCT(O$27:O$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.49801559059191758</v>
       </c>
-      <c r="O53" s="23">
-        <f t="shared" si="8"/>
+      <c r="O71" s="23">
+        <f>(SUMPRODUCT(P$27:P$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.47879152442534423</v>
       </c>
-      <c r="P53" s="23">
-        <f t="shared" si="8"/>
+      <c r="P71" s="23">
+        <f>(SUMPRODUCT(Q$27:Q$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.46031906562148955</v>
       </c>
-      <c r="Q53" s="23">
-        <f t="shared" si="8"/>
+      <c r="Q71" s="23">
+        <f>(SUMPRODUCT(R$27:R$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.44256849925043112</v>
       </c>
-      <c r="R53" s="23">
-        <f t="shared" si="8"/>
+      <c r="R71" s="23">
+        <f>(SUMPRODUCT(S$27:S$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.4255112963900457</v>
       </c>
-      <c r="S53" s="23">
-        <f t="shared" si="8"/>
+      <c r="S71" s="23">
+        <f>(SUMPRODUCT(T$27:T$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.40912006641066312</v>
       </c>
-      <c r="T53" s="23">
-        <f t="shared" si="8"/>
+      <c r="T71" s="23">
+        <f>(SUMPRODUCT(U$27:U$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.39336851119203725</v>
       </c>
-      <c r="U53" s="23">
-        <f t="shared" si="8"/>
+      <c r="U71" s="23">
+        <f>(SUMPRODUCT(V$27:V$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.3782313811939606</v>
       </c>
-      <c r="V53" s="23">
-        <f t="shared" si="8"/>
+      <c r="V71" s="23">
+        <f>(SUMPRODUCT(W$27:W$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.36368443330506955</v>
       </c>
-      <c r="W53" s="23">
-        <f t="shared" si="8"/>
+      <c r="W71" s="23">
+        <f>(SUMPRODUCT(X$27:X$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.34970439039746898</v>
       </c>
-      <c r="X53" s="23">
-        <f t="shared" si="8"/>
+      <c r="X71" s="23">
+        <f>(SUMPRODUCT(Y$27:Y$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.33626890251776775</v>
       </c>
-      <c r="Y53" s="23">
-        <f t="shared" si="8"/>
+      <c r="Y71" s="23">
+        <f>(SUMPRODUCT(Z$27:Z$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.3233565096479471</v>
       </c>
-      <c r="Z53" s="23">
-        <f t="shared" si="8"/>
+      <c r="Z71" s="23">
+        <f>(SUMPRODUCT(AA$27:AA$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.31094660597221052</v>
       </c>
-      <c r="AA53" s="23">
-        <f t="shared" si="8"/>
+      <c r="AA71" s="23">
+        <f>(SUMPRODUCT(AB$27:AB$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.29901940558856843</v>
       </c>
-      <c r="AB53" s="23">
-        <f t="shared" si="8"/>
+      <c r="AB71" s="23">
+        <f>(SUMPRODUCT(AC$27:AC$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.2875559096064163</v>
       </c>
-      <c r="AC53" s="23">
-        <f t="shared" si="8"/>
+      <c r="AC71" s="23">
+        <f>(SUMPRODUCT(AD$27:AD$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.27653787457376039</v>
       </c>
-      <c r="AD53" s="23">
-        <f t="shared" si="8"/>
+      <c r="AD71" s="23">
+        <f>(SUMPRODUCT(AE$27:AE$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.26594778218005038</v>
       </c>
-      <c r="AE53" s="23">
-        <f t="shared" si="8"/>
+      <c r="AE71" s="23">
+        <f>(SUMPRODUCT(AF$27:AF$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.25576881018278191</v>
       </c>
-      <c r="AF53" s="23">
-        <f t="shared" si="8"/>
+      <c r="AF71" s="23">
+        <f>(SUMPRODUCT(AG$27:AG$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.24598480450814955</v>
       </c>
-      <c r="AG53" s="23">
-        <f t="shared" si="8"/>
+      <c r="AG71" s="23">
+        <f>(SUMPRODUCT(AH$27:AH$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.23658025247806094</v>
       </c>
-      <c r="AH53" s="23">
-        <f t="shared" si="8"/>
+      <c r="AH71" s="23">
+        <f>(SUMPRODUCT(AI$27:AI$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.22754025711776654</v>
       </c>
-      <c r="AI53" s="23">
-        <f t="shared" si="8"/>
+      <c r="AI71" s="23">
+        <f>(SUMPRODUCT(AJ$27:AJ$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>0.21885051250023072</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35">
-      <c r="A56" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35">
-      <c r="A58" t="s">
-        <v>210</v>
-      </c>
-      <c r="B58" s="23">
-        <v>12.491269722013936</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
-      <c r="A59" t="s">
-        <v>211</v>
-      </c>
-      <c r="B59" s="23">
-        <v>24.982539444027871</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
-      <c r="A60" t="s">
-        <v>212</v>
-      </c>
-      <c r="B60" s="23">
-        <v>49.965078888055743</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35">
-      <c r="A61" t="s">
-        <v>213</v>
-      </c>
-      <c r="B61" s="23">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35">
-      <c r="A62" t="s">
-        <v>214</v>
-      </c>
-      <c r="B62" s="23">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35">
-      <c r="A63" t="s">
-        <v>215</v>
-      </c>
-      <c r="B63" s="23">
-        <v>12.491269722013936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
-      <c r="A64" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="23">
-        <v>24.982539444027871</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" s="23">
-        <v>49.965078888055743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" s="23">
-        <v>99.930157776111486</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>219</v>
-      </c>
-      <c r="B67" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>220</v>
-      </c>
-      <c r="B68" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>221</v>
-      </c>
-      <c r="B69" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>223</v>
-      </c>
-      <c r="B71" s="23">
-        <v>199.86031555222297</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>224</v>
-      </c>
-      <c r="B72" s="23">
-        <v>143.39977640871999</v>
       </c>
     </row>
   </sheetData>
@@ -10583,7 +10592,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10599,29 +10608,29 @@
         <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="4">
-        <f>('EIA Costs'!F2*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F2*1000)*(About!$A$61)</f>
         <v>30723.759999999998</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!F3*1000*About!$A$63</f>
-        <v>69710.2</v>
+        <f>'EIA Costs'!F3*1000*About!$A$61</f>
+        <v>71110.319999999992</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10629,15 +10638,15 @@
         <v>33</v>
       </c>
       <c r="B3" s="4">
-        <f>('EIA Costs'!F4*1000)*(About!$A$71)</f>
-        <v>10157.873</v>
+        <f>('EIA Costs'!F4*1000)*(About!$A$63)</f>
+        <v>10359.019</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!F5*1000*About!$A$71</f>
-        <v>9234.43</v>
+        <f>'EIA Costs'!F5*1000*About!$A$63</f>
+        <v>9417.2900000000009</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10645,15 +10654,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <f>('EIA Costs'!F8*1000)*(About!$A$71)</f>
-        <v>92600.304000000004</v>
+        <f>('EIA Costs'!F8*1000)*(About!$A$63)</f>
+        <v>94456.332999999999</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!F8*1000*About!$A$71</f>
-        <v>92600.304000000004</v>
+        <f>'EIA Costs'!F8*1000*About!$A$63</f>
+        <v>94456.332999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10661,31 +10670,31 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <f>('EIA Costs'!F11*1000)*(About!$A$71)</f>
-        <v>36617.714999999997</v>
+        <f>('EIA Costs'!F11*1000)*(About!$A$63)</f>
+        <v>37349.154999999999</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!F11*1000*About!$A$71</f>
-        <v>36617.714999999997</v>
+        <f>'EIA Costs'!F11*1000*About!$A$63</f>
+        <v>37349.154999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" s="4">
-        <f>('EIA Costs'!F12*1000)*(About!$A$71)</f>
-        <v>43401.821000000004</v>
+        <f>('EIA Costs'!F12*1000)*(About!$A$63)</f>
+        <v>44270.406000000003</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!F12*1000*About!$A$71</f>
-        <v>43401.821000000004</v>
+        <f>'EIA Costs'!F12*1000*About!$A$63</f>
+        <v>44270.406000000003</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10693,15 +10702,15 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <f>('EIA Costs'!F15*1000)*(About!$A$71)</f>
-        <v>20132.885999999999</v>
+        <f>('EIA Costs'!F15*1000)*(About!$A$63)</f>
+        <v>20535.178</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!F15*1000*About!$A$71</f>
-        <v>20132.885999999999</v>
+        <f>'EIA Costs'!F15*1000*About!$A$63</f>
+        <v>20535.178</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10709,15 +10718,15 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <f>('EIA Costs'!F14*1000)*(About!$A$71)</f>
-        <v>65290.163</v>
+        <f>('EIA Costs'!F14*1000)*(About!$A$63)</f>
+        <v>66597.611999999994</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!F14*1000*About!$A$71</f>
-        <v>65290.163</v>
+        <f>'EIA Costs'!F14*1000*About!$A$63</f>
+        <v>66597.611999999994</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10725,15 +10734,15 @@
         <v>20</v>
       </c>
       <c r="B9" s="4">
-        <f>('EIA Costs'!F9*1000)*(About!$A$71)</f>
-        <v>102538.745</v>
+        <f>('EIA Costs'!F9*1000)*(About!$A$63)</f>
+        <v>104586.777</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!F9*1000*About!$A$71</f>
-        <v>102538.745</v>
+        <f>'EIA Costs'!F9*1000*About!$A$63</f>
+        <v>104586.777</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10741,15 +10750,15 @@
         <v>34</v>
       </c>
       <c r="B10" s="4">
-        <f>('EIA Costs'!F10*1000)*(About!$A$71)</f>
-        <v>109597.141</v>
+        <f>('EIA Costs'!F10*1000)*(About!$A$63)</f>
+        <v>111800.60400000001</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!F10*1000*About!$A$71</f>
-        <v>109597.141</v>
+        <f>'EIA Costs'!F10*1000*About!$A$63</f>
+        <v>111800.60400000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10757,15 +10766,15 @@
         <v>35</v>
       </c>
       <c r="B11" s="4">
-        <f>(B12)*(About!$A$71)</f>
-        <v>14771.139138300001</v>
+        <f>(B12)*(About!$A$63)</f>
+        <v>15072.079154700001</v>
       </c>
       <c r="C11" s="23">
         <v>0</v>
       </c>
       <c r="D11" s="4">
         <f>D12</f>
-        <v>6281.241</v>
+        <v>6409.2430000000004</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10773,24 +10782,24 @@
         <v>36</v>
       </c>
       <c r="B12" s="4">
-        <f>('EIA Costs'!F6*1000)*(About!$A$71)</f>
-        <v>16155.681</v>
+        <f>('EIA Costs'!F6*1000)*(About!$A$63)</f>
+        <v>16484.829000000002</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!F7*1000*About!$A$71</f>
-        <v>6281.241</v>
+        <f>'EIA Costs'!F7*1000*About!$A$63</f>
+        <v>6409.2430000000004</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B13" s="4">
-        <f>(B2*'Coal Cost Multipliers'!$B$35)*(About!$A$71)</f>
-        <v>28090.733767999998</v>
+        <f>B2*'Coal Cost Multipliers'!$B$35</f>
+        <v>30723.759999999998</v>
       </c>
       <c r="C13" s="4">
         <f>C2*'Coal Cost Multipliers'!$B$35</f>
@@ -10798,71 +10807,71 @@
       </c>
       <c r="D13" s="4">
         <f>D2*'Coal Cost Multipliers'!$B$35</f>
-        <v>69710.2</v>
+        <v>71110.319999999992</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B14" s="4">
-        <f>('EIA Costs'!F13*1000)*(About!$A$71)</f>
-        <v>71827.407999999996</v>
+        <f>('EIA Costs'!F13*1000)*(About!$A$63)</f>
+        <v>73272.001999999993</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!F13*1000*About!$A$71</f>
-        <v>71827.407999999996</v>
+        <f>'EIA Costs'!F13*1000*About!$A$63</f>
+        <v>73272.001999999993</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
-        <v>14771.139138300001</v>
+        <v>15072.079154700001</v>
       </c>
       <c r="C15" s="23">
         <v>0</v>
       </c>
       <c r="D15" s="4">
         <f>D11</f>
-        <v>6281.241</v>
+        <v>6409.2430000000004</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
-        <v>14771.139138300001</v>
+        <v>15072.079154700001</v>
       </c>
       <c r="C16" s="23">
         <v>0</v>
       </c>
       <c r="D16" s="4">
         <f>D11</f>
-        <v>6281.241</v>
+        <v>6409.2430000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B17" s="4">
-        <f>('EIA Costs'!F16*1000)*(About!$A$71)</f>
-        <v>381281.386</v>
+        <f>('EIA Costs'!F16*1000)*(About!$A$63)</f>
+        <v>388924.93400000001</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!F16*1000*About!$A$71</f>
-        <v>381281.386</v>
+        <f>'EIA Costs'!F16*1000*About!$A$63</f>
+        <v>388924.93400000001</v>
       </c>
     </row>
   </sheetData>
@@ -10878,7 +10887,9 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -10892,13 +10903,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10906,15 +10917,15 @@
         <v>15</v>
       </c>
       <c r="B2" s="16">
-        <f>'EIA Costs'!E2*About!$A$63</f>
+        <f>'EIA Costs'!E2*About!$A$61</f>
         <v>4.4074200000000001</v>
       </c>
       <c r="C2" s="23">
         <v>0</v>
       </c>
       <c r="D2" s="16">
-        <f>'EIA Costs'!E3*About!$A$63</f>
-        <v>7.0696199999999996</v>
+        <f>'EIA Costs'!E3*About!$A$61</f>
+        <v>7.2076599999999997</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10922,15 +10933,15 @@
         <v>33</v>
       </c>
       <c r="B3" s="16">
-        <f>'EIA Costs'!E4*About!$A$71</f>
-        <v>3.2366220000000001</v>
+        <f>'EIA Costs'!E4*About!$A$63</f>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C3" s="23">
         <v>0</v>
       </c>
       <c r="D3" s="16">
-        <f>'EIA Costs'!E5*About!$A$71</f>
-        <v>1.846886</v>
+        <f>'EIA Costs'!E5*About!$A$63</f>
+        <v>1.8834580000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10938,15 +10949,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="16">
-        <f>'EIA Costs'!E8*About!$A$71</f>
-        <v>2.1211759999999997</v>
+        <f>'EIA Costs'!E8*About!$A$63</f>
+        <v>2.1668910000000001</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="16">
-        <f>'EIA Costs'!E8*About!$A$71</f>
-        <v>2.1211759999999997</v>
+        <f>'EIA Costs'!E8*About!$A$63</f>
+        <v>2.1668910000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10954,30 +10965,30 @@
         <v>17</v>
       </c>
       <c r="B5" s="16">
-        <f>'EIA Costs'!E11*About!$A$71</f>
-        <v>1.216019</v>
+        <f>'EIA Costs'!E11*About!$A$63</f>
+        <v>1.2434480000000001</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="16">
-        <f>'EIA Costs'!E11*About!$A$71</f>
-        <v>1.216019</v>
+        <f>'EIA Costs'!E11*About!$A$63</f>
+        <v>1.2434480000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B6" s="4">
-        <f>'EIA Costs'!E12*About!$A$71</f>
+        <f>'EIA Costs'!E12*About!$A$63</f>
         <v>0</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!E12*About!$A$71</f>
+        <f>'EIA Costs'!E12*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
@@ -10986,14 +10997,14 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <f>'EIA Costs'!E15*About!$A$71</f>
+        <f>'EIA Costs'!E15*About!$A$63</f>
         <v>0</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!E15*About!$A$71</f>
+        <f>'EIA Costs'!E15*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
@@ -11002,14 +11013,14 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <f>'EIA Costs'!E14*About!$A$71</f>
+        <f>'EIA Costs'!E14*About!$A$63</f>
         <v>0</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!E14*About!$A$71</f>
+        <f>'EIA Costs'!E14*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
@@ -11018,15 +11029,15 @@
         <v>20</v>
       </c>
       <c r="B9" s="16">
-        <f>'EIA Costs'!E9*About!$A$71</f>
-        <v>5.1017939999999999</v>
+        <f>'EIA Costs'!E9*About!$A$63</f>
+        <v>5.2115100000000005</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f>'EIA Costs'!E9*About!$A$71</f>
-        <v>5.1017939999999999</v>
+        <f>'EIA Costs'!E9*About!$A$63</f>
+        <v>5.2115100000000005</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11034,14 +11045,14 @@
         <v>34</v>
       </c>
       <c r="B10" s="4">
-        <f>'EIA Costs'!E10*About!$A$71</f>
+        <f>'EIA Costs'!E10*About!$A$63</f>
         <v>0</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!E10*About!$A$71</f>
+        <f>'EIA Costs'!E10*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
@@ -11051,14 +11062,14 @@
       </c>
       <c r="B11" s="16">
         <f>B12</f>
-        <v>3.2366220000000001</v>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C11" s="23">
         <v>0</v>
       </c>
       <c r="D11" s="16">
         <f>D12</f>
-        <v>9.8835829999999998</v>
+        <v>10.075585999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11066,20 +11077,20 @@
         <v>36</v>
       </c>
       <c r="B12" s="16">
-        <f>'EIA Costs'!E6*About!$A$71</f>
-        <v>3.2366220000000001</v>
+        <f>'EIA Costs'!E6*About!$A$63</f>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
       </c>
       <c r="D12" s="16">
-        <f>'EIA Costs'!E7*About!$A$71</f>
-        <v>9.8835829999999998</v>
+        <f>'EIA Costs'!E7*About!$A$63</f>
+        <v>10.075585999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="23" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
@@ -11091,12 +11102,12 @@
       </c>
       <c r="D13" s="16">
         <f>D2*'Coal Cost Multipliers'!$B$34</f>
-        <v>11.976768</v>
+        <v>12.210623999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B14" s="23">
         <f>'EIA Costs'!E13*1000</f>
@@ -11106,56 +11117,56 @@
         <v>0</v>
       </c>
       <c r="D14" s="23">
-        <f>'EIA Costs'!E13*1000*About!$A$71</f>
+        <f>'EIA Costs'!E13*1000*About!$A$63</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="23" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="B15" s="16">
         <f>B11</f>
-        <v>3.2366220000000001</v>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C15" s="23">
         <v>0</v>
       </c>
       <c r="D15" s="16">
         <f>D11</f>
-        <v>9.8835829999999998</v>
+        <v>10.075585999999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="23" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="B16" s="16">
         <f>B11</f>
-        <v>3.2366220000000001</v>
+        <v>3.3006229999999999</v>
       </c>
       <c r="C16" s="23">
         <v>0</v>
       </c>
       <c r="D16" s="16">
         <f>D11</f>
-        <v>9.8835829999999998</v>
+        <v>10.075585999999999</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="23" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="B17" s="16">
-        <f>'EIA Costs'!E16*About!$A$71</f>
-        <v>8.4938469999999988</v>
+        <f>'EIA Costs'!E16*About!$A$63</f>
+        <v>8.6584210000000006</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="16">
-        <f>'EIA Costs'!E16*About!$A$71</f>
-        <v>8.4938469999999988</v>
+        <f>'EIA Costs'!E16*About!$A$63</f>
+        <v>8.6584210000000006</v>
       </c>
     </row>
   </sheetData>
@@ -11170,8 +11181,8 @@
   </sheetPr>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11198,7 +11209,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>37</v>
@@ -11210,7 +11221,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>10</v>
@@ -11231,19 +11242,19 @@
         <v>40</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="Q1" s="51" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11251,68 +11262,68 @@
         <v>2018</v>
       </c>
       <c r="B2" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4985710.0141575001</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>5064086.276907078</v>
       </c>
       <c r="C2" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1005847.3841146511</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>720796.7716489468</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5398356.8398834039</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5478251.7947959062</v>
       </c>
       <c r="E2" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2609904.3307550726</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2654933.7360476032</v>
       </c>
       <c r="F2" s="20">
-        <f>'Start Year Wind and Solar'!B3*10^3*About!$A$71</f>
-        <v>1472023</v>
+        <f>'Start Year Wind and Solar'!B3*10^3*About!$A$63</f>
+        <v>1344021</v>
       </c>
       <c r="G2" s="20">
-        <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$71</f>
+        <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$63</f>
         <v>1106952.27008149</v>
       </c>
       <c r="H2" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3705657.1127614691</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3760873.857819173</v>
       </c>
       <c r="I2" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3503492.939728946</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3561017.0614915011</v>
       </c>
       <c r="J2" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2368974.8458332461</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2404345.5554760592</v>
       </c>
       <c r="K2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>620749.38054688869</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>630790.91464397067</v>
       </c>
       <c r="L2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>620749.38054688869</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>630790.91464397067</v>
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
-        <v>5778150.1329843532</v>
+        <v>5868983.6976608615</v>
       </c>
       <c r="N2" s="20">
-        <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B58:B72,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B58:B72)*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*10^3*About!$A$71</f>
+        <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B45:B59,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B45:B59)*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*10^3*About!$A$63</f>
         <v>3030248.6826914768</v>
       </c>
       <c r="O2" s="4">
         <f>K2</f>
-        <v>620749.38054688869</v>
+        <v>630790.91464397067</v>
       </c>
       <c r="P2" s="4">
         <f>K2</f>
-        <v>620749.38054688869</v>
+        <v>630790.91464397067</v>
       </c>
       <c r="Q2" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7982156.7055278737</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>8121858.1440940769</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11320,20 +11331,20 @@
         <v>2019</v>
       </c>
       <c r="B3" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4953666.0283149993</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>5031538.553814155</v>
       </c>
       <c r="C3" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>998650.36822930234</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>715639.34329789365</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5360285.879766807</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5439617.3895918122</v>
       </c>
       <c r="E3" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2570167.261510144</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2614511.0720952055</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -11342,43 +11353,43 @@
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3545653.8255229369</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3598486.4156383448</v>
       </c>
       <c r="I3" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3498816.7794578923</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3556264.1229830021</v>
       </c>
       <c r="J3" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2227281.8916664924</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2260537.0109521174</v>
       </c>
       <c r="K3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>619774.76109377737</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>629800.5292879414</v>
       </c>
       <c r="L3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>619774.76109377737</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>629800.5292879414</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
-        <v>5741013.0029604603</v>
+        <v>5831262.7652392657</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ref="O3:O34" si="0">K3</f>
-        <v>619774.76109377737</v>
+        <v>629800.5292879414</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P34" si="1">K3</f>
-        <v>619774.76109377737</v>
+        <v>629800.5292879414</v>
       </c>
       <c r="Q3" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7971502.811055745</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>8111017.7881881548</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11386,20 +11397,20 @@
         <v>2020</v>
       </c>
       <c r="B4" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4921622.0424725004</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4998990.830721234</v>
       </c>
       <c r="C4" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>991453.35234395368</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>710481.91494684049</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5322214.9196502101</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5400982.9843877172</v>
       </c>
       <c r="E4" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2530430.1922652172</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2574088.4081428093</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -11408,43 +11419,43 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3385650.5382844037</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3436098.9734575162</v>
       </c>
       <c r="I4" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3493165.2083361712</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3550519.7582775778</v>
       </c>
       <c r="J4" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2085588.9374997385</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2116728.466428176</v>
       </c>
       <c r="K4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>624214.22900192463</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>634311.81211813237</v>
       </c>
       <c r="L4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>624214.22900192463</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>634311.81211813237</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
-        <v>5703875.8729365692</v>
+        <v>5793541.8328176718</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>624214.22900192463</v>
+        <v>634311.81211813237</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>624214.22900192463</v>
+        <v>634311.81211813237</v>
       </c>
       <c r="Q4" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7958626.596631432</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>8097916.2179177077</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -11452,20 +11463,20 @@
         <v>2021</v>
       </c>
       <c r="B5" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4889578.0566300014</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4966443.107628312</v>
       </c>
       <c r="C5" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>984256.3364586049</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>705324.48659578711</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5284143.9595336132</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5362348.5791836223</v>
       </c>
       <c r="E5" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2490693.1230202895</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2533665.7441904116</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -11474,43 +11485,43 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3225647.2510458729</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3273711.5312766884</v>
       </c>
       <c r="I5" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3532179.7303932798</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3590174.8627922307</v>
       </c>
       <c r="J5" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1943895.9833329846</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1972919.9219042347</v>
       </c>
       <c r="K5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>616710.15026315721</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>626686.34387035528</v>
       </c>
       <c r="L5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>616710.15026315721</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>626686.34387035528</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
-        <v>5666738.742912678</v>
+        <v>5755820.900396076</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>616710.15026315721</v>
+        <v>626686.34387035528</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>616710.15026315721</v>
+        <v>626686.34387035528</v>
       </c>
       <c r="Q5" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>8047515.0385973537</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>8188360.3601376666</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -11518,20 +11529,20 @@
         <v>2022</v>
       </c>
       <c r="B6" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4857534.0707875015</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4933895.38453539</v>
       </c>
       <c r="C6" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>977059.320573256</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>700167.05824473395</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5246072.9994170172</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5323714.1739795282</v>
       </c>
       <c r="E6" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2450956.0537753622</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2493243.0802380154</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -11540,43 +11551,43 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3036301.351765865</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3081544.2527027735</v>
       </c>
       <c r="I6" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3441495.8280658736</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3498002.0144531941</v>
       </c>
       <c r="J6" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1802203.0291662314</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1829111.3773802938</v>
       </c>
       <c r="K6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>612109.73017863615</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>622011.50522564363</v>
       </c>
       <c r="L6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>612109.73017863615</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>622011.50522564363</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
-        <v>5629601.6128887851</v>
+        <v>5718099.9679744812</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="0"/>
-        <v>612109.73017863615</v>
+        <v>622011.50522564363</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
-        <v>612109.73017863615</v>
+        <v>622011.50522564363</v>
       </c>
       <c r="Q6" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7840906.0539358519</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7978135.3637336325</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -11584,20 +11595,20 @@
         <v>2023</v>
       </c>
       <c r="B7" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4825490.0849450026</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4901347.6614424679</v>
       </c>
       <c r="C7" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>962255.51768496411</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>689558.55689698691</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5208002.0393004203</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5285079.7687754352</v>
       </c>
       <c r="E7" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2411218.9845304345</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2452820.4162856182</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -11606,43 +11617,43 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2873999.6430443497</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2916824.1410367326</v>
       </c>
       <c r="I7" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3424867.4186540279</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3481100.5819001063</v>
       </c>
       <c r="J7" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1660510.0749994777</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1685302.8328563524</v>
       </c>
       <c r="K7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>600044.48430360877</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>609751.08625557902</v>
       </c>
       <c r="L7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>600044.48430360877</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>609751.08625557902</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
-        <v>5592464.482864894</v>
+        <v>5680379.0355528863</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>600044.48430360877</v>
+        <v>609751.08625557902</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>600044.48430360877</v>
+        <v>609751.08625557902</v>
       </c>
       <c r="Q7" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7803020.8428130085</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7939587.0964106284</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -11650,20 +11661,20 @@
         <v>2024</v>
       </c>
       <c r="B8" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4795743.5958531126</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4871133.5521644214</v>
       </c>
       <c r="C8" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>954806.8341589222</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>684220.78187922772</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5172424.1389835458</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5248975.3203206714</v>
       </c>
       <c r="E8" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2371481.9152855068</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2412397.752333221</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -11672,43 +11683,43 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2696940.2860163674</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2737126.4823311814</v>
       </c>
       <c r="I8" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3409766.8424255005</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3465752.0681416341</v>
       </c>
       <c r="J8" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1518817.1208327236</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1541494.2883324109</v>
       </c>
       <c r="K8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>594462.88901983364</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>604079.20045986038</v>
       </c>
       <c r="L8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>594462.88901983364</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>604079.20045986038</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
-        <v>5557990.0189642562</v>
+        <v>5645362.6268473649</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>594462.88901983364</v>
+        <v>604079.20045986038</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
-        <v>594462.88901983364</v>
+        <v>604079.20045986038</v>
       </c>
       <c r="Q8" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7768616.5588959409</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7904580.6784922676</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -11716,20 +11727,20 @@
         <v>2025</v>
       </c>
       <c r="B9" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4785754.0578712663</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4860986.9768395703</v>
       </c>
       <c r="C9" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>951088.03781556</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>681555.86825411068</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5158151.5558288814</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5234491.5048556123</v>
       </c>
       <c r="E9" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2331744.84604058</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2371975.0883808243</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -11738,43 +11749,43 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2519880.9289883869</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2557428.8236256307</v>
       </c>
       <c r="I9" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3407990.6624235231</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3463946.7249027211</v>
       </c>
       <c r="J9" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1377124.1666659696</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1397685.7438084695</v>
       </c>
       <c r="K9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>591147.174835179</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>600709.84972221882</v>
       </c>
       <c r="L9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>591147.174835179</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>600709.84972221882</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
-        <v>5546412.7210359061</v>
+        <v>5633603.3317026133</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>591147.174835179</v>
+        <v>600709.84972221882</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>591147.174835179</v>
+        <v>600709.84972221882</v>
       </c>
       <c r="Q9" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7764569.8125896389</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7900463.1071819756</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -11782,20 +11793,20 @@
         <v>2026</v>
       </c>
       <c r="B10" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4773854.0931798108</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4848899.9425518662</v>
       </c>
       <c r="C10" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>947292.81476675125</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678836.18675523507</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5141803.8791503608</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5217901.8847617349</v>
       </c>
       <c r="E10" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2292007.7767956513</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2331552.4244284267</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -11804,43 +11815,43 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2342821.5719604054</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2377731.1649200805</v>
       </c>
       <c r="I10" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3404946.6430044817</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3460852.7254932183</v>
       </c>
       <c r="J10" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1235431.2124992157</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1253877.1992845279</v>
       </c>
       <c r="K10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>587865.47395385115</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>597375.06250310456</v>
       </c>
       <c r="L10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>587865.47395385115</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>597375.06250310456</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
-        <v>5532621.3488202756</v>
+        <v>5619595.1566225216</v>
       </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="0"/>
-        <v>587865.47395385115</v>
+        <v>597375.06250310456</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>587865.47395385115</v>
+        <v>597375.06250310456</v>
       </c>
       <c r="Q10" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7757634.4939132584</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7893406.4085287629</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -11848,20 +11859,20 @@
         <v>2027</v>
       </c>
       <c r="B11" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4759440.3869223613</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4834259.650226308</v>
       </c>
       <c r="C11" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>943292.75212360208</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>675969.71587196749</v>
       </c>
       <c r="D11" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5122735.8674070584</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5198551.6690101232</v>
       </c>
       <c r="E11" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2252270.7075507245</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2291129.7604760304</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -11870,43 +11881,43 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2165762.214932424</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2198033.5062145297</v>
       </c>
       <c r="I11" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3400221.1276298021</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3456049.6215158268</v>
       </c>
       <c r="J11" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1093738.2583324621</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1110068.654760587</v>
       </c>
       <c r="K11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>584536.34264332184</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>593992.07759784628</v>
       </c>
       <c r="L11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>584536.34264332184</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>593992.07759784628</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
-        <v>5515916.6952219354</v>
+        <v>5602627.9028497105</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="0"/>
-        <v>584536.34264332184</v>
+        <v>593992.07759784628</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>584536.34264332184</v>
+        <v>593992.07759784628</v>
       </c>
       <c r="Q11" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7746868.1516131693</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7882451.6367649436</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -11914,20 +11925,20 @@
         <v>2028</v>
       </c>
       <c r="B12" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4740084.4459310938</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4814599.4303434519</v>
       </c>
       <c r="C12" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>939870.27435769746</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>673517.14606499264</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5098341.7514725374</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5173796.5234418577</v>
       </c>
       <c r="E12" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2212533.6383057963</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2250707.0965236328</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -11936,43 +11947,43 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1988702.8579044417</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2018335.8475089783</v>
       </c>
       <c r="I12" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3392158.9126619366</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3447855.0324163544</v>
       </c>
       <c r="J12" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>952045.3041657079</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>966260.11023664533</v>
       </c>
       <c r="K12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>581998.08274038043</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>591412.75760823954</v>
       </c>
       <c r="L12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>581998.08274038043</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>591412.75760823954</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
-        <v>5493484.2768311454</v>
+        <v>5579842.8427864406</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
-        <v>581998.08274038043</v>
+        <v>591412.75760823954</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
-        <v>581998.08274038043</v>
+        <v>591412.75760823954</v>
       </c>
       <c r="Q12" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7728499.6649701986</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7863761.6700880704</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -11980,20 +11991,20 @@
         <v>2029</v>
       </c>
       <c r="B13" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4710915.8444493385</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4784972.2931732424</v>
       </c>
       <c r="C13" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>934527.42318819102</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>669688.42419803585</v>
       </c>
       <c r="D13" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5063396.6793669248</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5138334.26897074</v>
       </c>
       <c r="E13" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2172796.569060869</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2210284.4325712356</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -12002,43 +12013,43 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1811643.5008764607</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1838638.1888034281</v>
       </c>
       <c r="I13" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3377434.3102844721</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3432888.6656527086</v>
       </c>
       <c r="J13" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>810352.34999895387</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>822451.56571270374</v>
       </c>
       <c r="K13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>578278.05716929329</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>587632.55515291414</v>
       </c>
       <c r="L13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>578278.05716929329</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>587632.55515291414</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
-        <v>5459679.5513151847</v>
+        <v>5545506.700874079</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
-        <v>578278.05716929329</v>
+        <v>587632.55515291414</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
-        <v>578278.05716929329</v>
+        <v>587632.55515291414</v>
       </c>
       <c r="Q13" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7694951.9782399936</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7829626.8412771393</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -12046,20 +12057,20 @@
         <v>2030</v>
       </c>
       <c r="B14" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4689417.1097476929</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4763135.5944755012</v>
       </c>
       <c r="C14" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>931495.52585967071</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>667515.74687055824</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5036700.6083497163</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5111243.09969428</v>
       </c>
       <c r="E14" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2133059.4998159413</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2169861.7686188393</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -12068,43 +12079,43 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1634584.1438484804</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1658940.5300978783</v>
       </c>
       <c r="I14" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3367913.89836699</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3423211.9373550331</v>
       </c>
       <c r="J14" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>576209.76721946476</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>585530.80757154443</v>
       </c>
       <c r="L14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>576209.76721946476</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>585530.80757154443</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
-        <v>5434763.7586953649</v>
+        <v>5520199.2274899473</v>
       </c>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="0"/>
-        <v>576209.76721946476</v>
+        <v>585530.80757154443</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
-        <v>576209.76721946476</v>
+        <v>585530.80757154443</v>
       </c>
       <c r="Q14" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7673261.2195788976</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7807556.4571212865</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -12112,20 +12123,20 @@
         <v>2031</v>
       </c>
       <c r="B15" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4668043.9835290164</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4741426.478848788</v>
       </c>
       <c r="C15" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>928683.16945564619</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>665500.39399619412</v>
       </c>
       <c r="D15" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>5010138.1882432802</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5084287.5593440877</v>
       </c>
       <c r="E15" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2093322.4305710143</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2129439.1046664426</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -12134,43 +12145,43 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1618330.0392752115</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1642444.2286021602</v>
       </c>
       <c r="I15" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3358479.5322181419</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3413622.6676181271</v>
       </c>
       <c r="J15" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>574331.56907527894</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>583622.22681032016</v>
       </c>
       <c r="L15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>574331.56907527894</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>583622.22681032016</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
-        <v>5409993.5390572287</v>
+        <v>5495039.6155210864</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="0"/>
-        <v>574331.56907527894</v>
+        <v>583622.22681032016</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>574331.56907527894</v>
+        <v>583622.22681032016</v>
       </c>
       <c r="Q15" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7651766.5026455559</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7785685.5457598045</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -12178,20 +12189,20 @@
         <v>2032</v>
       </c>
       <c r="B16" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4644118.4018394854</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4717124.7826897809</v>
       </c>
       <c r="C16" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>924875.02500060399</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>662771.45293364581</v>
       </c>
       <c r="D16" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4980837.45393827</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5054553.1781136096</v>
       </c>
       <c r="E16" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2053585.3613260863</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2089016.440714045</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -12200,43 +12211,43 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1602075.9347019426</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1625947.9271064417</v>
       </c>
       <c r="I16" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3347303.5272370684</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3402263.1629461991</v>
       </c>
       <c r="J16" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>571701.18391958985</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>580949.29130652454</v>
       </c>
       <c r="L16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>571701.18391958985</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>580949.29130652454</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
-        <v>5382265.1708552018</v>
+        <v>5466875.3523581317</v>
       </c>
       <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="0"/>
-        <v>571701.18391958985</v>
+        <v>580949.29130652454</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="1"/>
-        <v>571701.18391958985</v>
+        <v>580949.29130652454</v>
       </c>
       <c r="Q16" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7626303.7360194027</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7759777.1370272925</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -12244,20 +12255,20 @@
         <v>2033</v>
       </c>
       <c r="B17" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4622141.6806001225</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4694802.583419539</v>
       </c>
       <c r="C17" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>921881.07696823147</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>660625.97031838971</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4953629.0247932514</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5026942.0678779799</v>
       </c>
       <c r="E17" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>2013848.2920811588</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2048593.776761648</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -12266,43 +12277,43 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1585821.8301286742</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1609451.6256107236</v>
       </c>
       <c r="I17" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3337455.8838543813</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3392253.8303445629</v>
       </c>
       <c r="J17" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>569693.58845712245</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>578909.22003510536</v>
       </c>
       <c r="L17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>569693.58845712245</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>578909.22003510536</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
-        <v>5356795.4194273818</v>
+        <v>5441005.2118333932</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="0"/>
-        <v>569693.58845712245</v>
+        <v>578909.22003510536</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="1"/>
-        <v>569693.58845712245</v>
+        <v>578909.22003510536</v>
       </c>
       <c r="Q17" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7603867.4320185054</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7736948.159208945</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -12310,20 +12321,20 @@
         <v>2034</v>
       </c>
       <c r="B18" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4603798.572613379</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4676171.118459139</v>
       </c>
       <c r="C18" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>919299.76255436498</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>658776.18363552867</v>
       </c>
       <c r="D18" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4930311.8943135142</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>5003279.8470043289</v>
       </c>
       <c r="E18" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1974111.2228362313</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>2008171.1128092513</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -12332,43 +12343,43 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1569567.7255554048</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1592955.3241150051</v>
       </c>
       <c r="I18" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3330096.910947775</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3384774.0298921876</v>
       </c>
       <c r="J18" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>567853.20501669892</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>577039.06568608666</v>
       </c>
       <c r="L18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>567853.20501669892</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>577039.06568608666</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
-        <v>5335536.8160284711</v>
+        <v>5419412.4193458781</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="0"/>
-        <v>567853.20501669892</v>
+        <v>577039.06568608666</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="1"/>
-        <v>567853.20501669892</v>
+        <v>577039.06568608666</v>
       </c>
       <c r="Q18" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7587101.1716198716</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7719888.4604848735</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -12376,20 +12387,20 @@
         <v>2035</v>
       </c>
       <c r="B19" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4579661.1455324804</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4651654.2466609143</v>
       </c>
       <c r="C19" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>915956.5050238847</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>656380.38356404728</v>
       </c>
       <c r="D19" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4900788.8378168615</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4973319.8532436835</v>
       </c>
       <c r="E19" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1934374.1535913039</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1967748.4488568543</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -12398,43 +12409,43 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1553313.6209821361</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1576459.022619287</v>
       </c>
       <c r="I19" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3318770.1203640644</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3373261.2638571416</v>
       </c>
       <c r="J19" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>565652.8865517024</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>574803.15383415646</v>
       </c>
       <c r="L19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>565652.8865517024</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>574803.15383415646</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
-        <v>5307562.9312454909</v>
+        <v>5390998.7800369319</v>
       </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
-        <v>565652.8865517024</v>
+        <v>574803.15383415646</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="1"/>
-        <v>565652.8865517024</v>
+        <v>574803.15383415646</v>
       </c>
       <c r="Q19" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7561294.8637536224</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7693630.4979510959</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -12442,20 +12453,20 @@
         <v>2036</v>
       </c>
       <c r="B20" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4557484.8966593873</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4629129.3831464667</v>
       </c>
       <c r="C20" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>912768.10522760358</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>654095.55555118888</v>
       </c>
       <c r="D20" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4873366.1588526061</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4945491.3223203206</v>
       </c>
       <c r="E20" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1923963.4938358904</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1957158.1710932388</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -12464,43 +12475,43 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1537059.5164088674</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1559962.7211235689</v>
       </c>
       <c r="I20" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3308785.9377765385</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3363113.1502028932</v>
       </c>
       <c r="J20" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>563481.86641461716</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>572597.01425367699</v>
       </c>
       <c r="L20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>563481.86641461716</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>572597.01425367699</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
-        <v>5281861.9388068421</v>
+        <v>5364893.7633508667</v>
       </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="0"/>
-        <v>563481.86641461716</v>
+        <v>572597.01425367699</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="1"/>
-        <v>563481.86641461716</v>
+        <v>572597.01425367699</v>
       </c>
       <c r="Q20" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7538547.4766855622</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7670484.9925781367</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -12508,20 +12519,20 @@
         <v>2037</v>
       </c>
       <c r="B21" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4534216.6517228428</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4605495.3571930388</v>
       </c>
       <c r="C21" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>909855.63339430257</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>652008.45930963557</v>
       </c>
       <c r="D21" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4844777.6541888779</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4916479.7116339877</v>
       </c>
       <c r="E21" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1913552.8340804782</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1946567.8933296236</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -12530,43 +12541,43 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1520805.4118355988</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1543466.4196278511</v>
       </c>
       <c r="I21" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3298049.4508532588</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3352200.3800697704</v>
       </c>
       <c r="J21" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>561620.3608197727</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>570705.39606832794</v>
       </c>
       <c r="L21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>561620.3608197727</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>570705.39606832794</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
-        <v>5254895.3859602809</v>
+        <v>5337503.2914184891</v>
       </c>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="0"/>
-        <v>561620.3608197727</v>
+        <v>570705.39606832794</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
-        <v>561620.3608197727</v>
+        <v>570705.39606832794</v>
       </c>
       <c r="Q21" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7514086.0827102391</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7645595.4822360529</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -12574,20 +12585,20 @@
         <v>2038</v>
       </c>
       <c r="B22" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4513443.5979165575</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4584395.747225523</v>
       </c>
       <c r="C22" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>907915.01403126901</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>650617.79886356287</v>
       </c>
       <c r="D22" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4818856.7425043611</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4890175.1739440486</v>
       </c>
       <c r="E22" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1903142.1743250648</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1935977.615566008</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -12596,43 +12607,43 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1504551.3072623296</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1526970.1181321328</v>
       </c>
       <c r="I22" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3289031.0086167539</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3343033.8633321188</v>
       </c>
       <c r="J22" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>560491.22277389863</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>569557.99255406461</v>
       </c>
       <c r="L22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>560491.22277389863</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>569557.99255406461</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
-        <v>5230820.6156121381</v>
+        <v>5313050.0613281867</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="0"/>
-        <v>560491.22277389863</v>
+        <v>569557.99255406461</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="1"/>
-        <v>560491.22277389863</v>
+        <v>569557.99255406461</v>
       </c>
       <c r="Q22" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7493538.9828844583</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7624688.7729074871</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -12640,20 +12651,20 @@
         <v>2039</v>
       </c>
       <c r="B23" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4490266.595770387</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4560854.3984156279</v>
       </c>
       <c r="C23" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>905490.46527050633</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>648880.35146640975</v>
       </c>
       <c r="D23" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4790367.6619898453</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4861264.4588709604</v>
       </c>
       <c r="E23" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1892731.5145696511</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1925387.3378023915</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -12662,43 +12673,43 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1488297.2026890602</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1510473.8166364138</v>
       </c>
       <c r="I23" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3278353.1707259226</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3332180.7051944486</v>
       </c>
       <c r="J23" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>559063.31435958087</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>568106.98562128015</v>
       </c>
       <c r="L23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>559063.31435958087</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>568106.98562128015</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
-        <v>5203959.8078931188</v>
+        <v>5285766.9968558718</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="0"/>
-        <v>559063.31435958087</v>
+        <v>568106.98562128015</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>559063.31435958087</v>
+        <v>568106.98562128015</v>
       </c>
       <c r="Q23" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7469211.21148971</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7599935.2237704154</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -12706,20 +12717,20 @@
         <v>2040</v>
       </c>
       <c r="B24" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4467659.2763680127</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4537891.6878652498</v>
       </c>
       <c r="C24" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>903179.7506580886</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>647224.47835967725</v>
       </c>
       <c r="D24" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4762488.2609135453</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4832972.4464097433</v>
       </c>
       <c r="E24" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1882320.8548142386</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1914797.0600387768</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -12728,43 +12739,43 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1472043.098115792</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1493977.515140696</v>
       </c>
       <c r="I24" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3268066.8469631197</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3321725.4894855786</v>
       </c>
       <c r="J24" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>557705.69637035497</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>566727.40616458142</v>
       </c>
       <c r="L24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>557705.69637035497</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>566727.40616458142</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
-        <v>5177759.2295922721</v>
+        <v>5259154.5407275399</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="0"/>
-        <v>557705.69637035497</v>
+        <v>566727.40616458142</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>557705.69637035497</v>
+        <v>566727.40616458142</v>
       </c>
       <c r="Q24" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7445775.4433545973</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7576089.2894805698</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -12772,20 +12783,20 @@
         <v>2041</v>
       </c>
       <c r="B25" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4449648.4332275633</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4519597.7110145967</v>
       </c>
       <c r="C25" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>901799.90971782035</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>646235.67537540558</v>
       </c>
       <c r="D25" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4739505.9045875743</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4809649.9543022905</v>
       </c>
       <c r="E25" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1871910.1950588252</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1904206.782275161</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -12794,43 +12805,43 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1455788.9935425231</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1477481.2136449779</v>
       </c>
       <c r="I25" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3260965.2553579621</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3314507.2962981635</v>
       </c>
       <c r="J25" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>556922.89340897254</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>565931.94021411764</v>
       </c>
       <c r="L25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>556922.89340897254</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>565931.94021411764</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
-        <v>5156885.7019720068</v>
+        <v>5237952.8774795271</v>
       </c>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="0"/>
-        <v>556922.89340897254</v>
+        <v>565931.94021411764</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="1"/>
-        <v>556922.89340897254</v>
+        <v>565931.94021411764</v>
       </c>
       <c r="Q25" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7429595.5857021902</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7559626.2565569635</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -12838,20 +12849,20 @@
         <v>2042</v>
       </c>
       <c r="B26" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4421609.6841190895</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4491118.1877012318</v>
       </c>
       <c r="C26" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>898386.45623839565</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>643789.57243076363</v>
       </c>
       <c r="D26" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4705845.3936161082</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4775491.2722972743</v>
       </c>
       <c r="E26" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1861499.5353034122</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1893616.5045115454</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -12860,43 +12871,43 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1439534.888969254</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1460984.9121492596</v>
       </c>
       <c r="I26" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3246909.0993724768</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3300220.3511995459</v>
       </c>
       <c r="J26" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>554884.21025692218</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>563860.27836401947</v>
       </c>
       <c r="L26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>554884.21025692218</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>563860.27836401947</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
-        <v>5124390.4101419989</v>
+        <v>5204946.7537873816</v>
       </c>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="0"/>
-        <v>554884.21025692218</v>
+        <v>563860.27836401947</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="1"/>
-        <v>554884.21025692218</v>
+        <v>563860.27836401947</v>
       </c>
       <c r="Q26" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7397570.8487657513</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7527041.0317743495</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -12904,20 +12915,20 @@
         <v>2043</v>
       </c>
       <c r="B27" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4405889.3576820614</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4475150.7348906612</v>
       </c>
       <c r="C27" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>897475.85991610389</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>643137.03318897693</v>
       </c>
       <c r="D27" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4685294.6223583268</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4754636.3523898665</v>
       </c>
       <c r="E27" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1851088.8755479991</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1883026.2267479296</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -12926,43 +12937,43 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1423280.7843959855</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1444488.6106535415</v>
       </c>
       <c r="I27" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3241407.783956822</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3294628.709260257</v>
       </c>
       <c r="J27" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>554391.38046651601</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>563359.47632700379</v>
       </c>
       <c r="L27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>554391.38046651601</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>563359.47632700379</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
-        <v>5106171.459173183</v>
+        <v>5186441.3976156767</v>
       </c>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="0"/>
-        <v>554391.38046651601</v>
+        <v>563359.47632700379</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="1"/>
-        <v>554391.38046651601</v>
+        <v>563359.47632700379</v>
       </c>
       <c r="Q27" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7385036.9682956832</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7514287.7868897393</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -12970,20 +12981,20 @@
         <v>2044</v>
       </c>
       <c r="B28" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4378824.4001157461</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4447660.3112985436</v>
       </c>
       <c r="C28" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>894254.85631226201</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>640828.84107575472</v>
       </c>
       <c r="D28" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4652678.500656059</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4721537.5164747164</v>
       </c>
       <c r="E28" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1840678.2157925859</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1872435.9489843145</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -12992,43 +13003,43 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1407026.6798227169</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1427992.3091578234</v>
       </c>
       <c r="I28" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3228014.3421793631</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3281015.3595255446</v>
       </c>
       <c r="J28" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>552471.36324781028</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>561408.40000623069</v>
       </c>
       <c r="L28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>552471.36324781028</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>561408.40000623069</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
-        <v>5074804.7355336314</v>
+        <v>5154581.5834099697</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="0"/>
-        <v>552471.36324781028</v>
+        <v>561408.40000623069</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>552471.36324781028</v>
+        <v>561408.40000623069</v>
       </c>
       <c r="Q28" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7354522.1212749518</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7483238.8776871078</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -13036,20 +13047,20 @@
         <v>2045</v>
       </c>
       <c r="B29" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4362106.3510442022</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4430679.4514732715</v>
       </c>
       <c r="C29" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>893146.79079662124</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>640034.79412682063</v>
       </c>
       <c r="D29" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4631056.6298666513</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4699595.644906722</v>
       </c>
       <c r="E29" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1830267.5560371724</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1861845.6712206989</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -13058,43 +13069,43 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1390772.5752494477</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1411496.0076621051</v>
       </c>
       <c r="I29" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3221832.2607411454</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3274731.7740136739</v>
       </c>
       <c r="J29" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>551856.68438044505</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>560783.77780424629</v>
       </c>
       <c r="L29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>551856.68438044505</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>560783.77780424629</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
-        <v>5055429.4816196105</v>
+        <v>5134901.7470017215</v>
       </c>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>551856.68438044505</v>
+        <v>560783.77780424629</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="1"/>
-        <v>551856.68438044505</v>
+        <v>560783.77780424629</v>
       </c>
       <c r="Q29" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7340437.2226737272</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7468907.4691927256</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -13102,20 +13113,20 @@
         <v>2046</v>
       </c>
       <c r="B30" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4336769.959802771</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4404944.7675811611</v>
       </c>
       <c r="C30" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>890275.17907585343</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>637976.97850742575</v>
       </c>
       <c r="D30" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4600284.9973030258</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4668368.5963213015</v>
       </c>
       <c r="E30" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1819856.8962817597</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1851255.3934570833</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -13124,43 +13135,43 @@
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1374518.470676179</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1394999.7061663871</v>
       </c>
       <c r="I30" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3209635.4861874729</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3262334.739674523</v>
       </c>
       <c r="J30" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>550152.42239255458</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>559051.94687243411</v>
       </c>
       <c r="L30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>550152.42239255458</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>559051.94687243411</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
-        <v>5026066.0665783612</v>
+        <v>5105076.7337676473</v>
       </c>
       <c r="N30" s="4">
         <v>0</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="0"/>
-        <v>550152.42239255458</v>
+        <v>559051.94687243411</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="1"/>
-        <v>550152.42239255458</v>
+        <v>559051.94687243411</v>
       </c>
       <c r="Q30" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7312648.7933935076</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7440632.6947191991</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -13168,20 +13179,20 @@
         <v>2047</v>
       </c>
       <c r="B31" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4315481.4844746375</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4383321.6335722934</v>
       </c>
       <c r="C31" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>888232.92473174375</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>636513.4857734699</v>
       </c>
       <c r="D31" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4573809.735484709</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4641501.5041901665</v>
       </c>
       <c r="E31" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1809446.2365263463</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1840665.1156934679</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -13190,43 +13201,43 @@
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1358264.3661029099</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1378503.4046706685</v>
       </c>
       <c r="I31" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3200266.2664250759</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3252811.6859676302</v>
       </c>
       <c r="J31" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>548960.60343798099</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>557840.84849359537</v>
       </c>
       <c r="L31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>548960.60343798099</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>557840.84849359537</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
-        <v>5001393.9524363447</v>
+        <v>5080016.7695310405</v>
       </c>
       <c r="N31" s="4">
         <v>0</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="0"/>
-        <v>548960.60343798099</v>
+        <v>557840.84849359537</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="1"/>
-        <v>548960.60343798099</v>
+        <v>557840.84849359537</v>
       </c>
       <c r="Q31" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7291302.5022382103</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7418912.8068415569</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -13234,20 +13245,20 @@
         <v>2048</v>
       </c>
       <c r="B32" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4294121.837076081</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4361626.2086551897</v>
       </c>
       <c r="C32" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>886176.35560993128</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>635039.73497679201</v>
       </c>
       <c r="D32" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4547256.0722374143</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4614554.8502994552</v>
       </c>
       <c r="E32" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1799035.5767709336</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1830074.8379298523</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -13256,43 +13267,43 @@
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1342010.261529641</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1362007.1031749502</v>
       </c>
       <c r="I32" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3190847.9381775381</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3243238.7174595776</v>
       </c>
       <c r="J32" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>547759.99001111533</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>556620.81337894208</v>
       </c>
       <c r="L32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>547759.99001111533</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>556620.81337894208</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
-        <v>4976639.3539727349</v>
+        <v>5054873.0243043946</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="0"/>
-        <v>547759.99001111533</v>
+        <v>556620.81337894208</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>547759.99001111533</v>
+        <v>556620.81337894208</v>
       </c>
       <c r="Q32" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7269844.3251363151</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7397079.0748212673</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -13300,20 +13311,20 @@
         <v>2049</v>
       </c>
       <c r="B33" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4272377.1143856384</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4339539.6549929967</v>
       </c>
       <c r="C33" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>884040.8418737516</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>633509.41195646103</v>
       </c>
       <c r="D33" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4520295.1836425504</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4587194.9441808192</v>
       </c>
       <c r="E33" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1788624.9170155204</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1819484.5601662367</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -13322,43 +13333,43 @@
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1325756.1569563723</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1345510.8016792322</v>
       </c>
       <c r="I33" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3181160.2441755827</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3233391.9604599359</v>
       </c>
       <c r="J33" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>546510.49006492062</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>555351.1009336178</v>
       </c>
       <c r="L33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>546510.49006492062</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>555351.1009336178</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
-        <v>4951438.4754722388</v>
+        <v>5029275.9834380029</v>
       </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="0"/>
-        <v>546510.49006492062</v>
+        <v>555351.1009336178</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="1"/>
-        <v>546510.49006492062</v>
+        <v>555351.1009336178</v>
       </c>
       <c r="Q33" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7247772.4406001931</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7374620.8944336222</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -13366,20 +13377,20 @@
         <v>2050</v>
       </c>
       <c r="B34" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("coal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$63</f>
-        <v>4217869.8575414019</v>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <v>4284175.5342172347</v>
       </c>
       <c r="C34" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>875107.94943165942</v>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>627108.04318478121</v>
       </c>
       <c r="D34" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>4458701.0732432539</v>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>4524689.2492347453</v>
       </c>
       <c r="E34" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1778214.2572601077</v>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1808894.2824026213</v>
       </c>
       <c r="F34" s="4">
         <v>0</v>
@@ -13388,43 +13399,43 @@
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>1309502.0523831041</v>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>1329014.5001835146</v>
       </c>
       <c r="I34" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>3148388.0289021889</v>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>3200081.6556472601</v>
       </c>
       <c r="J34" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>668659.39583219984</v>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>678643.02118876216</v>
       </c>
       <c r="K34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>541058.41525406053</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>549810.83079493511</v>
       </c>
       <c r="L34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>541058.41525406053</v>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>549810.83079493511</v>
       </c>
       <c r="M34" s="4">
         <f>B34*'Coal Cost Multipliers'!$B$33</f>
-        <v>4888267.7109294161</v>
+        <v>4965112.1630564258</v>
       </c>
       <c r="N34" s="4">
         <v>0</v>
       </c>
       <c r="O34" s="4">
         <f t="shared" si="0"/>
-        <v>541058.41525406053</v>
+        <v>549810.83079493511</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="1"/>
-        <v>541058.41525406053</v>
+        <v>549810.83079493511</v>
       </c>
       <c r="Q34" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$45:$AI$53,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$45:$A$53,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$44:$AI$44,0))*1000*About!$A$71</f>
-        <v>7173106.1111970115</v>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>
+        <v>7298647.7761493279</v>
       </c>
     </row>
     <row r="35" spans="1:17">

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="243">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -613,12 +613,6 @@
     <t>Gas-CT-AvgCF - Low</t>
   </si>
   <si>
-    <t>Solar Energy Industries Association</t>
-  </si>
-  <si>
-    <t>"National Solar PV System Pricing" section, last paragraph (using "fixed-tilt" value)</t>
-  </si>
-  <si>
     <t>curves to determine cost declines.  Therefore, we only specify the first simulated year costs in this spreadsheet,</t>
   </si>
   <si>
@@ -712,12 +706,6 @@
     <t>We adjust 2018 dollars to 2012 dollars using the following conversion factor:</t>
   </si>
   <si>
-    <t>U.S. Solar Market Insight Report: 2018 Year in Review (Executive Summary)</t>
-  </si>
-  <si>
-    <t>https://www.seia.org/research-resources/solar-market-insight-report-2018-year-review</t>
-  </si>
-  <si>
     <t>crude oil</t>
   </si>
   <si>
@@ -745,9 +733,6 @@
     <t>so we use the cost improvement rates for biomass power plants.</t>
   </si>
   <si>
-    <t>2018 Solar Capital Cost</t>
-  </si>
-  <si>
     <t>AEO 2019</t>
   </si>
   <si>
@@ -841,7 +826,7 @@
     <t>2018 Onshore Wind Capital Cost</t>
   </si>
   <si>
-    <t>Cost Improvement Rate and Offshore Wind Costs</t>
+    <t>2018 Solar Capital Cost, Cost Imrpovement Rates, and Offshore Wind Costs</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1588,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1761,6 +1746,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="228">
@@ -2351,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2387,11 +2375,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2405,7 +2393,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D7" s="2">
         <v>2018</v>
@@ -2413,10 +2401,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2424,15 +2412,15 @@
         <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2444,15 +2432,15 @@
         <v>124</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>171</v>
+      <c r="D13" s="53" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2467,8 +2455,8 @@
       <c r="B15" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>204</v>
+      <c r="D15" s="53" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2476,16 +2464,14 @@
         <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>172</v>
-      </c>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" s="23"/>
@@ -2495,45 +2481,34 @@
       <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>247</v>
-      </c>
+      <c r="D19" s="64"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>146</v>
-      </c>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>2015</v>
       </c>
-      <c r="D21" s="2">
-        <v>2019</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>236</v>
-      </c>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="45">
       <c r="A23" s="7"/>
       <c r="B23" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="7"/>
@@ -2587,7 +2562,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="11"/>
@@ -2600,7 +2575,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -2637,7 +2612,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2676,7 +2651,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
@@ -2876,7 +2851,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="11"/>
@@ -2889,7 +2864,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="11"/>
@@ -2940,7 +2915,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B58" s="9"/>
       <c r="D58" s="7"/>
@@ -2954,7 +2929,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -2996,7 +2971,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B62" s="9"/>
       <c r="D62" s="7"/>
@@ -3280,13 +3255,12 @@
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html"/>
     <hyperlink ref="B16" r:id="rId2"/>
-    <hyperlink ref="D16" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="D9" r:id="rId5"/>
-    <hyperlink ref="D23" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3328,10 +3302,10 @@
         <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3354,7 +3328,7 @@
         <v>31.16</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H2">
         <v>2013</v>
@@ -3368,7 +3342,7 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3">
         <v>5169</v>
@@ -3380,7 +3354,7 @@
         <v>72.12</v>
       </c>
       <c r="G3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H3">
         <v>2018</v>
@@ -3406,7 +3380,7 @@
         <v>11.33</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H4" s="53">
         <v>2018</v>
@@ -3432,7 +3406,7 @@
         <v>10.3</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H5" s="53">
         <v>2018</v>
@@ -3458,7 +3432,7 @@
         <v>18.03</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H6" s="53">
         <v>2018</v>
@@ -3484,7 +3458,7 @@
         <v>7.01</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H7" s="53">
         <v>2018</v>
@@ -3510,7 +3484,7 @@
         <v>103.31</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H8" s="53">
         <v>2018</v>
@@ -3536,7 +3510,7 @@
         <v>114.39</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H9" s="53">
         <v>2018</v>
@@ -3562,7 +3536,7 @@
         <v>122.28</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H10" s="53">
         <v>2018</v>
@@ -3588,7 +3562,7 @@
         <v>40.85</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H11" s="53">
         <v>2018</v>
@@ -3614,7 +3588,7 @@
         <v>48.42</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H12" s="53">
         <v>2018</v>
@@ -3640,7 +3614,7 @@
         <v>80.14</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H13" s="53">
         <v>2018</v>
@@ -3666,7 +3640,7 @@
         <v>72.84</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H14" s="53">
         <v>2018</v>
@@ -3692,7 +3666,7 @@
         <v>22.46</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H15" s="53">
         <v>2018</v>
@@ -3700,13 +3674,13 @@
     </row>
     <row r="16" spans="1:8" s="23" customFormat="1">
       <c r="A16" s="23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D16" s="52">
         <v>8895</v>
@@ -3718,7 +3692,7 @@
         <v>425.38</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H16" s="53">
         <v>2018</v>
@@ -3744,7 +3718,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3755,7 +3729,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="19" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
@@ -3777,7 +3751,7 @@
     <row r="4" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="19" customFormat="1">
@@ -3793,7 +3767,7 @@
         <v>2018</v>
       </c>
       <c r="B7" s="16">
-        <v>1.04</v>
+        <v>1.0960000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4596,7 +4570,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="23" customFormat="1">
       <c r="A1" s="55" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -4749,7 +4723,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="53">
         <v>5179.5016296472777</v>
@@ -4859,7 +4833,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C4" s="53">
         <v>906.43752501948961</v>
@@ -8489,7 +8463,7 @@
         <v>120</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C37" s="53">
         <v>4654.7690040318539</v>
@@ -8599,7 +8573,7 @@
         <v>120</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C38" s="53">
         <v>4598.9063450796984</v>
@@ -8709,7 +8683,7 @@
         <v>120</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C39" s="53">
         <v>4826.7338115915436</v>
@@ -8819,7 +8793,7 @@
         <v>120</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C40" s="53">
         <v>4996.613495139718</v>
@@ -8929,7 +8903,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C41" s="53">
         <v>5256.8000129437169</v>
@@ -9037,7 +9011,7 @@
     <row r="42" spans="1:36" s="23" customFormat="1"/>
     <row r="43" spans="1:36" s="53" customFormat="1">
       <c r="A43" s="55" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B43" s="55"/>
     </row>
@@ -9047,7 +9021,7 @@
     </row>
     <row r="45" spans="1:36" s="53" customFormat="1">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B45" s="23">
         <v>12.491269722013936</v>
@@ -9055,7 +9029,7 @@
     </row>
     <row r="46" spans="1:36" s="53" customFormat="1">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B46" s="23">
         <v>24.982539444027871</v>
@@ -9063,7 +9037,7 @@
     </row>
     <row r="47" spans="1:36" s="53" customFormat="1">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B47" s="23">
         <v>49.965078888055743</v>
@@ -9071,7 +9045,7 @@
     </row>
     <row r="48" spans="1:36" s="53" customFormat="1">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="23">
         <v>320</v>
@@ -9079,7 +9053,7 @@
     </row>
     <row r="49" spans="1:35" s="53" customFormat="1">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B49" s="23">
         <v>320</v>
@@ -9087,7 +9061,7 @@
     </row>
     <row r="50" spans="1:35" s="53" customFormat="1">
       <c r="A50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B50" s="23">
         <v>12.491269722013936</v>
@@ -9095,7 +9069,7 @@
     </row>
     <row r="51" spans="1:35" s="53" customFormat="1">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B51" s="23">
         <v>24.982539444027871</v>
@@ -9103,7 +9077,7 @@
     </row>
     <row r="52" spans="1:35" s="53" customFormat="1">
       <c r="A52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B52" s="23">
         <v>49.965078888055743</v>
@@ -9111,7 +9085,7 @@
     </row>
     <row r="53" spans="1:35" s="53" customFormat="1">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B53" s="23">
         <v>99.930157776111486</v>
@@ -9119,7 +9093,7 @@
     </row>
     <row r="54" spans="1:35" s="53" customFormat="1">
       <c r="A54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" s="23">
         <v>199.86031555222297</v>
@@ -9127,7 +9101,7 @@
     </row>
     <row r="55" spans="1:35" s="53" customFormat="1">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B55" s="23">
         <v>199.86031555222297</v>
@@ -9135,7 +9109,7 @@
     </row>
     <row r="56" spans="1:35" s="53" customFormat="1">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B56" s="23">
         <v>199.86031555222297</v>
@@ -9143,7 +9117,7 @@
     </row>
     <row r="57" spans="1:35" s="53" customFormat="1">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B57" s="23">
         <v>199.86031555222297</v>
@@ -9151,7 +9125,7 @@
     </row>
     <row r="58" spans="1:35" s="53" customFormat="1">
       <c r="A58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B58" s="23">
         <v>199.86031555222297</v>
@@ -9159,7 +9133,7 @@
     </row>
     <row r="59" spans="1:35" s="53" customFormat="1">
       <c r="A59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B59" s="23">
         <v>143.39977640871999</v>
@@ -9168,7 +9142,7 @@
     <row r="60" spans="1:35" s="53" customFormat="1"/>
     <row r="61" spans="1:35" s="23" customFormat="1">
       <c r="A61" s="55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -10443,139 +10417,139 @@
         <v>120</v>
       </c>
       <c r="B71" s="23">
-        <f>(SUMPRODUCT(C$27:C$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" ref="B71:AI71" si="8">(SUMPRODUCT(C$27:C$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
         <v>1</v>
       </c>
       <c r="C71" s="23">
-        <f>(SUMPRODUCT(D$27:D$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.76893251532958939</v>
       </c>
       <c r="D71" s="23">
-        <f>(SUMPRODUCT(E$27:E$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.73908611988359929</v>
       </c>
       <c r="E71" s="23">
-        <f>(SUMPRODUCT(F$27:F$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.71041231821700446</v>
       </c>
       <c r="F71" s="23">
-        <f>(SUMPRODUCT(G$27:G$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.68286455787608569</v>
       </c>
       <c r="G71" s="23">
-        <f>(SUMPRODUCT(H$27:H$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.65639815098108378</v>
       </c>
       <c r="H71" s="23">
-        <f>(SUMPRODUCT(I$27:I$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.63097019899268714</v>
       </c>
       <c r="I71" s="23">
-        <f>(SUMPRODUCT(J$27:J$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.60653952053245963</v>
       </c>
       <c r="J71" s="23">
-        <f>(SUMPRODUCT(K$27:K$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.58306658213263374</v>
       </c>
       <c r="K71" s="23">
-        <f>(SUMPRODUCT(L$27:L$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.56051343179579671</v>
       </c>
       <c r="L71" s="23">
-        <f>(SUMPRODUCT(M$27:M$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.53884363524988776</v>
       </c>
       <c r="M71" s="23">
-        <f>(SUMPRODUCT(N$27:N$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.51802221478861732</v>
       </c>
       <c r="N71" s="23">
-        <f>(SUMPRODUCT(O$27:O$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.49801559059191758</v>
       </c>
       <c r="O71" s="23">
-        <f>(SUMPRODUCT(P$27:P$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.47879152442534423</v>
       </c>
       <c r="P71" s="23">
-        <f>(SUMPRODUCT(Q$27:Q$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.46031906562148955</v>
       </c>
       <c r="Q71" s="23">
-        <f>(SUMPRODUCT(R$27:R$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.44256849925043112</v>
       </c>
       <c r="R71" s="23">
-        <f>(SUMPRODUCT(S$27:S$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.4255112963900457</v>
       </c>
       <c r="S71" s="23">
-        <f>(SUMPRODUCT(T$27:T$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.40912006641066312</v>
       </c>
       <c r="T71" s="23">
-        <f>(SUMPRODUCT(U$27:U$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.39336851119203725</v>
       </c>
       <c r="U71" s="23">
-        <f>(SUMPRODUCT(V$27:V$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.3782313811939606</v>
       </c>
       <c r="V71" s="23">
-        <f>(SUMPRODUCT(W$27:W$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.36368443330506955</v>
       </c>
       <c r="W71" s="23">
-        <f>(SUMPRODUCT(X$27:X$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.34970439039746898</v>
       </c>
       <c r="X71" s="23">
-        <f>(SUMPRODUCT(Y$27:Y$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.33626890251776775</v>
       </c>
       <c r="Y71" s="23">
-        <f>(SUMPRODUCT(Z$27:Z$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.3233565096479471</v>
       </c>
       <c r="Z71" s="23">
-        <f>(SUMPRODUCT(AA$27:AA$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.31094660597221052</v>
       </c>
       <c r="AA71" s="23">
-        <f>(SUMPRODUCT(AB$27:AB$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.29901940558856843</v>
       </c>
       <c r="AB71" s="23">
-        <f>(SUMPRODUCT(AC$27:AC$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.2875559096064163</v>
       </c>
       <c r="AC71" s="23">
-        <f>(SUMPRODUCT(AD$27:AD$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.27653787457376039</v>
       </c>
       <c r="AD71" s="23">
-        <f>(SUMPRODUCT(AE$27:AE$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.26594778218005038</v>
       </c>
       <c r="AE71" s="23">
-        <f>(SUMPRODUCT(AF$27:AF$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.25576881018278191</v>
       </c>
       <c r="AF71" s="23">
-        <f>(SUMPRODUCT(AG$27:AG$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.24598480450814955</v>
       </c>
       <c r="AG71" s="23">
-        <f>(SUMPRODUCT(AH$27:AH$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.23658025247806094</v>
       </c>
       <c r="AH71" s="23">
-        <f>(SUMPRODUCT(AI$27:AI$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.22754025711776654</v>
       </c>
       <c r="AI71" s="23">
-        <f>(SUMPRODUCT(AJ$27:AJ$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
+        <f t="shared" si="8"/>
         <v>0.21885051250023072</v>
       </c>
     </row>
@@ -10828,7 +10802,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
@@ -10844,7 +10818,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
@@ -10860,7 +10834,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B17" s="4">
         <f>('EIA Costs'!F16*1000)*(About!$A$63)</f>
@@ -11123,7 +11097,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B15" s="16">
         <f>B11</f>
@@ -11139,7 +11113,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="23" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B16" s="16">
         <f>B11</f>
@@ -11155,7 +11129,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="23" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B17" s="16">
         <f>'EIA Costs'!E16*About!$A$63</f>
@@ -11182,7 +11156,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11248,13 +11222,13 @@
         <v>123</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="51" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11283,7 +11257,7 @@
       </c>
       <c r="G2" s="20">
         <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$63</f>
-        <v>1106952.27008149</v>
+        <v>1166557.3923166473</v>
       </c>
       <c r="H2" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$63</f>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="230">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -734,45 +734,6 @@
   </si>
   <si>
     <t>AEO 2019</t>
-  </si>
-  <si>
-    <t>AEO 2020</t>
-  </si>
-  <si>
-    <t>AEO 2021</t>
-  </si>
-  <si>
-    <t>AEO 2022</t>
-  </si>
-  <si>
-    <t>AEO 2023</t>
-  </si>
-  <si>
-    <t>AEO 2024</t>
-  </si>
-  <si>
-    <t>AEO 2025</t>
-  </si>
-  <si>
-    <t>AEO 2026</t>
-  </si>
-  <si>
-    <t>AEO 2027</t>
-  </si>
-  <si>
-    <t>AEO 2028</t>
-  </si>
-  <si>
-    <t>AEO 2029</t>
-  </si>
-  <si>
-    <t>AEO 2030</t>
-  </si>
-  <si>
-    <t>AEO 2031</t>
-  </si>
-  <si>
-    <t>AEO 2032</t>
   </si>
   <si>
     <t>2015, 2019</t>
@@ -1723,6 +1684,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1746,9 +1710,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="228">
@@ -2340,19 +2301,19 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="78.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="78.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.73046875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2379,7 +2340,7 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2393,7 +2354,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D7" s="2">
         <v>2018</v>
@@ -2401,10 +2362,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2412,15 +2373,15 @@
         <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2432,7 +2393,7 @@
         <v>124</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2456,7 +2417,7 @@
         <v>126</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2464,7 +2425,7 @@
         <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2481,7 +2442,7 @@
       <c r="B19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="64"/>
+      <c r="D19" s="56"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
@@ -2503,21 +2464,21 @@
       </c>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="1:11" ht="45">
+    <row r="23" spans="1:11" ht="42.75">
       <c r="A23" s="7"/>
       <c r="B23" s="50" t="s">
         <v>69</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="14.65" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="14.65" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="21" t="s">
         <v>29</v>
@@ -2562,7 +2523,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="11"/>
@@ -2575,7 +2536,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -2651,7 +2612,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
@@ -2915,7 +2876,7 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="B58" s="9"/>
       <c r="D58" s="7"/>
@@ -2929,7 +2890,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B59" s="9"/>
       <c r="D59" s="7"/>
@@ -3269,17 +3230,17 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="52.59765625" customWidth="1"/>
+    <col min="4" max="4" width="34.3984375" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3380,7 +3341,7 @@
         <v>11.33</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H4" s="53">
         <v>2018</v>
@@ -3406,7 +3367,7 @@
         <v>10.3</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H5" s="53">
         <v>2018</v>
@@ -3432,7 +3393,7 @@
         <v>18.03</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H6" s="53">
         <v>2018</v>
@@ -3458,7 +3419,7 @@
         <v>7.01</v>
       </c>
       <c r="G7" s="53" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H7" s="53">
         <v>2018</v>
@@ -3484,7 +3445,7 @@
         <v>103.31</v>
       </c>
       <c r="G8" s="53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H8" s="53">
         <v>2018</v>
@@ -3510,7 +3471,7 @@
         <v>114.39</v>
       </c>
       <c r="G9" s="53" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H9" s="53">
         <v>2018</v>
@@ -3536,7 +3497,7 @@
         <v>122.28</v>
       </c>
       <c r="G10" s="53" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="H10" s="53">
         <v>2018</v>
@@ -3562,7 +3523,7 @@
         <v>40.85</v>
       </c>
       <c r="G11" s="53" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H11" s="53">
         <v>2018</v>
@@ -3588,7 +3549,7 @@
         <v>48.42</v>
       </c>
       <c r="G12" s="53" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H12" s="53">
         <v>2018</v>
@@ -3614,7 +3575,7 @@
         <v>80.14</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H13" s="53">
         <v>2018</v>
@@ -3640,7 +3601,7 @@
         <v>72.84</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="H14" s="53">
         <v>2018</v>
@@ -3666,7 +3627,7 @@
         <v>22.46</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H15" s="53">
         <v>2018</v>
@@ -3692,7 +3653,7 @@
         <v>425.38</v>
       </c>
       <c r="G16" s="53" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H16" s="53">
         <v>2018</v>
@@ -3721,10 +3682,10 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="19" customFormat="1">
@@ -3787,11 +3748,11 @@
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="47" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" style="47" customWidth="1"/>
     <col min="3" max="3" width="21" style="47" customWidth="1"/>
-    <col min="4" max="8" width="20.7109375" style="47" customWidth="1"/>
+    <col min="4" max="8" width="20.73046875" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3816,43 +3777,43 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="57" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8">
       <c r="A3" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="27" t="s">
@@ -3868,7 +3829,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5">
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="30" t="s">
         <v>85</v>
       </c>
@@ -3894,7 +3855,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5">
+    <row r="6" spans="1:8" ht="27">
       <c r="A6" s="32" t="s">
         <v>86</v>
       </c>
@@ -3932,7 +3893,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" ht="28.5">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="36" t="s">
         <v>88</v>
       </c>
@@ -3996,7 +3957,7 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="27.75">
       <c r="A11" s="39" t="s">
         <v>117</v>
       </c>
@@ -4034,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.75">
+    <row r="13" spans="1:8" ht="40.5">
       <c r="A13" s="36" t="s">
         <v>91</v>
       </c>
@@ -4112,7 +4073,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.5">
+    <row r="16" spans="1:8" ht="27">
       <c r="A16" s="36" t="s">
         <v>94</v>
       </c>
@@ -4138,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5">
+    <row r="17" spans="1:8">
       <c r="A17" s="36" t="s">
         <v>95</v>
       </c>
@@ -4164,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.5">
+    <row r="18" spans="1:8">
       <c r="A18" s="36" t="s">
         <v>96</v>
       </c>
@@ -4242,7 +4203,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.5">
+    <row r="21" spans="1:8" ht="27">
       <c r="A21" s="36" t="s">
         <v>99</v>
       </c>
@@ -4450,7 +4411,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.5">
+    <row r="29" spans="1:8" ht="27">
       <c r="A29" s="32" t="s">
         <v>109</v>
       </c>
@@ -4476,7 +4437,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.5">
+    <row r="30" spans="1:8" ht="27">
       <c r="A30" s="43" t="s">
         <v>109</v>
       </c>
@@ -4562,15 +4523,15 @@
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="32.73046875" customWidth="1"/>
+    <col min="2" max="2" width="28.86328125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="23" customFormat="1">
       <c r="A1" s="55" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -9011,7 +8972,7 @@
     <row r="42" spans="1:36" s="23" customFormat="1"/>
     <row r="43" spans="1:36" s="53" customFormat="1">
       <c r="A43" s="55" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B43" s="55"/>
     </row>
@@ -9142,7 +9103,7 @@
     <row r="60" spans="1:35" s="53" customFormat="1"/>
     <row r="61" spans="1:35" s="23" customFormat="1">
       <c r="A61" s="55" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -10566,15 +10527,15 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10865,11 +10826,11 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" style="23" customWidth="1"/>
     <col min="2" max="4" width="24" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="23"/>
+    <col min="5" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11159,26 +11120,26 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.265625" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.265625" customWidth="1"/>
+    <col min="16" max="16" width="18.86328125" customWidth="1"/>
+    <col min="17" max="17" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:17" ht="28.5">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A2D992-1D13-4349-8BC3-A9A14BCC5D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D5C391-9B6B-41D8-9947-7A9F2F8329BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="225" windowWidth="25050" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="239">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -198,12 +198,6 @@
     <t>Except for wind and solar PV, our general approach is to take start year capital costs from the EIA and</t>
   </si>
   <si>
-    <t>Wind and Solar PV are handled differently in the model, relying on endogenous, capacity-based learning</t>
-  </si>
-  <si>
-    <t>costs, as EIA's numbers are higher than what was actually observed, so we use sources from Lawrence</t>
-  </si>
-  <si>
     <t>because the EPA's Aug 2015 rule requires new coal plants to achieve CO2 emissions no higher than</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
   </si>
   <si>
     <t>For coal, we use values for a coal plant that features carbon capture and sequestration (CCS),</t>
-  </si>
-  <si>
-    <t>and the model handles calculations for subsequent years.  (We do not use EIA for the start year solar and wind</t>
   </si>
   <si>
     <t>Model Power Plant Quality</t>
@@ -600,9 +591,6 @@
     <t>Gas-CT-AvgCF - Low</t>
   </si>
   <si>
-    <t>curves to determine cost declines.  Therefore, we only specify the first simulated year costs in this spreadsheet,</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -744,9 +732,6 @@
     <t>so we assume they are 2018 dollars.</t>
   </si>
   <si>
-    <t>Berkeley National Lab and Solar Energy Industries Association.)</t>
-  </si>
-  <si>
     <t>cause them to decline at the same rate as costs declined in projections in the NREL</t>
   </si>
   <si>
@@ -805,6 +790,42 @@
   </si>
   <si>
     <t>This document is included as Appendix B of a report by Brattle Group.  It is on page 10 of the EnerNex report, which is page 70 of the PDF.</t>
+  </si>
+  <si>
+    <t>Onshore wind, offshore wind, and solar PV may optionally be handled differently in the model,</t>
+  </si>
+  <si>
+    <t>relying on endogenous, capacity-based learning curves to determine cost declines.</t>
+  </si>
+  <si>
+    <t>A cost of zero for onshore wind, offshore wind, or solar PV is a flag to the model to use endogenous</t>
+  </si>
+  <si>
+    <t>For the U.S. EPA, we do not use EIA for the start year solar and wind costs,</t>
+  </si>
+  <si>
+    <t>as EIA's numbers are higher than what was actually observed, so we use other sources,</t>
+  </si>
+  <si>
+    <t>specified above.</t>
+  </si>
+  <si>
+    <t>To use endogenous learning, you must specify a cost for the first simulated year in sheet</t>
+  </si>
+  <si>
+    <t>CCaMC-BCCpUC and leave the costs for all subsequent years set to zero.</t>
+  </si>
+  <si>
+    <t>Endogenous Learning</t>
+  </si>
+  <si>
+    <t>learning.  If a non-zero cost is provided in this sheet for a year after the first year, the model will</t>
+  </si>
+  <si>
+    <t>use the cost specified here, rather than a value calculated via endogenous learning.</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1587,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1742,6 +1763,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="228">
@@ -2364,7 +2391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2400,11 +2427,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -2418,7 +2445,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D7" s="2">
         <v>2018</v>
@@ -2426,10 +2453,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2437,15 +2464,15 @@
         <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2454,18 +2481,18 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="23" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2478,23 +2505,23 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="B17" s="23" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D17" s="19"/>
     </row>
@@ -2511,7 +2538,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="23"/>
     </row>
@@ -2524,21 +2551,21 @@
     <row r="22" spans="1:11">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="45">
       <c r="A23" s="7"/>
       <c r="B23" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D24" s="23"/>
     </row>
@@ -2587,7 +2614,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="11"/>
@@ -2600,7 +2627,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="11"/>
@@ -2623,8 +2650,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="10" t="s">
-        <v>53</v>
+      <c r="A33" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="11"/>
@@ -2637,7 +2664,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="11"/>
@@ -2650,7 +2677,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="11"/>
@@ -2662,9 +2689,10 @@
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="A36" s="72" t="s">
+        <v>233</v>
+      </c>
+      <c r="B36" s="73"/>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -2675,9 +2703,10 @@
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="10" t="s">
-        <v>211</v>
-      </c>
+      <c r="A37" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="73"/>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -2688,7 +2717,9 @@
       <c r="K37" s="11"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="10"/>
+      <c r="A38" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="D38" s="7"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
@@ -2700,7 +2731,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="11"/>
@@ -2713,7 +2744,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="11"/>
@@ -2736,8 +2767,8 @@
       <c r="K41" s="11"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="10" t="s">
-        <v>63</v>
+      <c r="A42" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="11"/>
@@ -2750,7 +2781,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="10" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="11"/>
@@ -2763,7 +2794,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="10" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="11"/>
@@ -2776,7 +2807,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="10" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="11"/>
@@ -2788,9 +2819,7 @@
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="A46" s="10"/>
       <c r="D46" s="7"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -2802,7 +2831,7 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="11"/>
@@ -2814,7 +2843,9 @@
       <c r="K47" s="11"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="10"/>
+      <c r="A48" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -2825,9 +2856,7 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="A49" s="10"/>
       <c r="D49" s="7"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -2839,7 +2868,7 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="11"/>
@@ -2852,7 +2881,7 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="11"/>
@@ -2864,7 +2893,9 @@
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="10"/>
+      <c r="A52" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="D52" s="7"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -2876,7 +2907,7 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="11"/>
@@ -2889,7 +2920,7 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="11"/>
@@ -2901,7 +2932,9 @@
       <c r="K54" s="11"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="10"/>
+      <c r="A55" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="D55" s="7"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -2912,9 +2945,7 @@
       <c r="K55" s="11"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="A56" s="10"/>
       <c r="D56" s="7"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -2926,9 +2957,8 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="9"/>
+        <v>118</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
@@ -2940,9 +2970,8 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B58" s="9"/>
+        <v>119</v>
+      </c>
       <c r="D58" s="7"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -2954,9 +2983,8 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" s="9"/>
+        <v>120</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
@@ -2967,10 +2995,7 @@
       <c r="K59" s="11"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="9"/>
+      <c r="A60" s="10"/>
       <c r="D60" s="7"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
@@ -2981,10 +3006,9 @@
       <c r="K60" s="11"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="19">
-        <v>0.98599999999999999</v>
-      </c>
-      <c r="B61" s="9"/>
+      <c r="A61" s="10" t="s">
+        <v>197</v>
+      </c>
       <c r="D61" s="7"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
@@ -2995,10 +3019,9 @@
       <c r="K61" s="11"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" s="9"/>
+      <c r="A62" s="10" t="s">
+        <v>198</v>
+      </c>
       <c r="D62" s="7"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -3009,10 +3032,7 @@
       <c r="K62" s="11"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="25">
-        <v>0.9143</v>
-      </c>
-      <c r="B63" s="9"/>
+      <c r="A63" s="10"/>
       <c r="D63" s="7"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
@@ -3023,10 +3043,9 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="9"/>
+      <c r="A64" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -3037,8 +3056,8 @@
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="25">
-        <v>0.89800000000000002</v>
+      <c r="A65" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B65" s="9"/>
       <c r="D65" s="7"/>
@@ -3051,7 +3070,9 @@
       <c r="K65" s="11"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="25"/>
+      <c r="A66" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="B66" s="9"/>
       <c r="D66" s="7"/>
       <c r="E66" s="11"/>
@@ -3063,8 +3084,8 @@
       <c r="K66" s="11"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="19" t="s">
-        <v>24</v>
+      <c r="A67" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="B67" s="9"/>
       <c r="D67" s="7"/>
@@ -3077,7 +3098,9 @@
       <c r="K67" s="11"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="10"/>
+      <c r="A68" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="B68" s="9"/>
       <c r="D68" s="7"/>
       <c r="E68" s="11"/>
@@ -3089,7 +3112,9 @@
       <c r="K68" s="11"/>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="10"/>
+      <c r="A69" s="19">
+        <v>0.98599999999999999</v>
+      </c>
       <c r="B69" s="9"/>
       <c r="D69" s="7"/>
       <c r="E69" s="11"/>
@@ -3101,7 +3126,9 @@
       <c r="K69" s="11"/>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="10"/>
+      <c r="A70" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="B70" s="9"/>
       <c r="D70" s="7"/>
       <c r="E70" s="11"/>
@@ -3113,7 +3140,9 @@
       <c r="K70" s="11"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="10"/>
+      <c r="A71" s="25">
+        <v>0.9143</v>
+      </c>
       <c r="B71" s="9"/>
       <c r="D71" s="7"/>
       <c r="E71" s="11"/>
@@ -3125,7 +3154,9 @@
       <c r="K71" s="11"/>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="10"/>
+      <c r="A72" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="B72" s="9"/>
       <c r="D72" s="7"/>
       <c r="E72" s="11"/>
@@ -3137,7 +3168,9 @@
       <c r="K72" s="11"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="10"/>
+      <c r="A73" s="25">
+        <v>0.89800000000000002</v>
+      </c>
       <c r="B73" s="9"/>
       <c r="D73" s="7"/>
       <c r="E73" s="11"/>
@@ -3149,7 +3182,7 @@
       <c r="K73" s="11"/>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="10"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="9"/>
       <c r="D74" s="7"/>
       <c r="E74" s="11"/>
@@ -3161,7 +3194,9 @@
       <c r="K74" s="11"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="10"/>
+      <c r="A75" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="B75" s="9"/>
       <c r="D75" s="7"/>
       <c r="E75" s="11"/>
@@ -3293,7 +3328,7 @@
       <c r="K85" s="11"/>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="7"/>
+      <c r="A86" s="10"/>
       <c r="B86" s="9"/>
       <c r="D86" s="7"/>
       <c r="E86" s="11"/>
@@ -3303,6 +3338,102 @@
       <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="10"/>
+      <c r="B87" s="9"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="10"/>
+      <c r="B88" s="9"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" s="10"/>
+      <c r="B89" s="9"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" s="10"/>
+      <c r="B90" s="9"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" s="10"/>
+      <c r="B91" s="9"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" s="10"/>
+      <c r="B92" s="9"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" s="10"/>
+      <c r="B93" s="9"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="7"/>
+      <c r="B94" s="9"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3340,36 +3471,36 @@
         <v>41</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="57" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E1" s="51" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="51" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G1" s="59" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -3387,21 +3518,21 @@
         <v>2013</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D3" s="63">
         <v>4652</v>
@@ -3416,7 +3547,7 @@
         <v>2019</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3424,7 +3555,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -3442,10 +3573,10 @@
         <v>2018</v>
       </c>
       <c r="H4" s="61" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I4" s="53" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3453,10 +3584,10 @@
         <v>33</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D5" s="63">
         <v>1079</v>
@@ -3471,7 +3602,7 @@
         <v>2019</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3479,7 +3610,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -3497,10 +3628,10 @@
         <v>2018</v>
       </c>
       <c r="H6" s="61" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3508,10 +3639,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D7" s="63">
         <v>710</v>
@@ -3526,7 +3657,7 @@
         <v>2019</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3534,7 +3665,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -3552,7 +3683,7 @@
         <v>2019</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3560,7 +3691,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -3578,7 +3709,7 @@
         <v>2019</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3586,7 +3717,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -3604,7 +3735,7 @@
         <v>2019</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3612,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
@@ -3630,15 +3761,15 @@
         <v>2019</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -3656,15 +3787,15 @@
         <v>2019</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
         <v>48</v>
@@ -3682,7 +3813,7 @@
         <v>2019</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3690,7 +3821,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -3708,7 +3839,7 @@
         <v>2019</v>
       </c>
       <c r="H14" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3716,7 +3847,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
@@ -3734,18 +3865,18 @@
         <v>2019</v>
       </c>
       <c r="H15" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="23" customFormat="1">
       <c r="A16" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>196</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>200</v>
       </c>
       <c r="D16" s="52">
         <v>1557</v>
@@ -3760,7 +3891,7 @@
         <v>2019</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3768,12 +3899,12 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -3796,7 +3927,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="19" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="19" customFormat="1">
@@ -3818,7 +3949,7 @@
     <row r="4" spans="1:2" s="19" customFormat="1"/>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="19" customFormat="1">
@@ -3865,53 +3996,53 @@
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45">
       <c r="A2" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="G2" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>106</v>
-      </c>
       <c r="H2" s="64" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="67"/>
       <c r="C3" s="69"/>
@@ -3923,7 +4054,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="29">
         <v>1000</v>
@@ -3937,7 +4068,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.5">
       <c r="A5" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="29">
         <v>1000</v>
@@ -3963,10 +4094,10 @@
     </row>
     <row r="6" spans="1:8" ht="28.5">
       <c r="A6" s="32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C6" s="33">
         <v>3641</v>
@@ -3989,7 +4120,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -4001,7 +4132,7 @@
     </row>
     <row r="8" spans="1:8" ht="28.5">
       <c r="A8" s="36" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="37">
         <v>1000</v>
@@ -4027,7 +4158,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -4039,7 +4170,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B10" s="37">
         <v>1000</v>
@@ -4065,7 +4196,7 @@
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -4077,7 +4208,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B12" s="37">
         <v>1000</v>
@@ -4103,7 +4234,7 @@
     </row>
     <row r="13" spans="1:8" ht="42.75">
       <c r="A13" s="36" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B13" s="37">
         <v>1000</v>
@@ -4129,7 +4260,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B14" s="37">
         <v>1000</v>
@@ -4155,7 +4286,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B15" s="37">
         <v>1000</v>
@@ -4181,7 +4312,7 @@
     </row>
     <row r="16" spans="1:8" ht="28.5">
       <c r="A16" s="36" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B16" s="37">
         <v>1000</v>
@@ -4207,7 +4338,7 @@
     </row>
     <row r="17" spans="1:8" ht="28.5">
       <c r="A17" s="36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B17" s="37">
         <v>1000</v>
@@ -4233,7 +4364,7 @@
     </row>
     <row r="18" spans="1:8" ht="28.5">
       <c r="A18" s="36" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B18" s="37">
         <v>1000</v>
@@ -4259,7 +4390,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B19" s="37">
         <v>1000</v>
@@ -4285,7 +4416,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B20" s="37">
         <v>1000</v>
@@ -4311,7 +4442,7 @@
     </row>
     <row r="21" spans="1:8" ht="28.5">
       <c r="A21" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" s="37">
         <v>1000</v>
@@ -4337,7 +4468,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="37">
         <v>1000</v>
@@ -4363,7 +4494,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" s="37">
         <v>1000</v>
@@ -4389,7 +4520,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" s="37">
         <v>1000</v>
@@ -4415,7 +4546,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="36" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B25" s="37">
         <v>1000</v>
@@ -4441,19 +4572,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B26" s="37">
         <v>1000</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F26" s="41">
         <v>555</v>
@@ -4467,7 +4598,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B27" s="37">
         <v>1000</v>
@@ -4493,10 +4624,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C28" s="44">
         <v>3.73</v>
@@ -4519,7 +4650,7 @@
     </row>
     <row r="29" spans="1:8" ht="28.5">
       <c r="A29" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B29" s="45">
         <v>1000</v>
@@ -4545,10 +4676,10 @@
     </row>
     <row r="30" spans="1:8" ht="28.5">
       <c r="A30" s="43" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C30" s="44">
         <v>7.69</v>
@@ -4571,12 +4702,12 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B33" s="49">
         <f>D6/AVERAGE(C6,E6)</f>
@@ -4587,7 +4718,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B34" s="49">
         <f>D28/(AVERAGE(C28,E28))</f>
@@ -4598,7 +4729,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" s="49">
         <f>D10/AVERAGE(E10,C10)</f>
@@ -4637,7 +4768,7 @@
   <sheetData>
     <row r="1" spans="1:36" s="23" customFormat="1">
       <c r="A1" s="55" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="55"/>
@@ -4677,10 +4808,10 @@
     </row>
     <row r="2" spans="1:36" s="23" customFormat="1">
       <c r="A2" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C2" s="23">
         <v>2017</v>
@@ -4790,7 +4921,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" s="53">
         <v>5179.5016296472777</v>
@@ -4900,7 +5031,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C4" s="53">
         <v>906.43752501948961</v>
@@ -5010,7 +5141,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C5" s="53">
         <v>6044.2528846388041</v>
@@ -5120,7 +5251,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="53">
         <v>5501.4276276478286</v>
@@ -5230,7 +5361,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C7" s="53">
         <v>4068.8324979159847</v>
@@ -5340,7 +5471,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="53">
         <v>3836.1961011946664</v>
@@ -5450,7 +5581,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" s="53">
         <v>7123.1024412096613</v>
@@ -5560,7 +5691,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C10" s="53">
         <v>6358.970494457717</v>
@@ -5670,7 +5801,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="53">
         <v>6228.2456569988753</v>
@@ -5780,7 +5911,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C12" s="53">
         <v>5606.8362940961097</v>
@@ -5890,7 +6021,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" s="53">
         <v>6199.7160723985862</v>
@@ -6000,7 +6131,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C14" s="53">
         <v>7561.0934235746954</v>
@@ -6110,7 +6241,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C15" s="53">
         <v>7561.0934235746954</v>
@@ -6220,7 +6351,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C16" s="53">
         <v>7561.0934235746954</v>
@@ -6330,7 +6461,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C17" s="53">
         <v>3827.2968566587979</v>
@@ -6440,7 +6571,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" s="53">
         <v>4013.1693740693227</v>
@@ -6550,7 +6681,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="53">
         <v>4013.1693740693227</v>
@@ -6660,7 +6791,7 @@
         <v>34</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C20" s="53">
         <v>4305.3925876948315</v>
@@ -6770,7 +6901,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="53">
         <v>5576.5909167824766</v>
@@ -6880,7 +7011,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C22" s="53">
         <v>14196.524804379835</v>
@@ -6990,7 +7121,7 @@
         <v>34</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C23" s="53">
         <v>31389.002895326357</v>
@@ -7100,7 +7231,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C24" s="53">
         <v>14196.524804379835</v>
@@ -7210,7 +7341,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C25" s="53">
         <v>31389.002895326357</v>
@@ -7320,7 +7451,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C26" s="53">
         <v>899.1125440742336</v>
@@ -7427,10 +7558,10 @@
     </row>
     <row r="27" spans="1:36">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C27" s="53">
         <v>2985.7163232225957</v>
@@ -7537,10 +7668,10 @@
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C28" s="53">
         <v>3068.5330578578878</v>
@@ -7647,10 +7778,10 @@
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" s="53">
         <v>3161.5232415013843</v>
@@ -7757,10 +7888,10 @@
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C30" s="53">
         <v>3433.5732515006521</v>
@@ -7867,10 +7998,10 @@
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C31" s="53">
         <v>3650.4675562858592</v>
@@ -7977,10 +8108,10 @@
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C32" s="53">
         <v>4469.1889883621543</v>
@@ -8087,10 +8218,10 @@
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C33" s="53">
         <v>4351.9349981933547</v>
@@ -8197,10 +8328,10 @@
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C34" s="53">
         <v>4362.9480041823535</v>
@@ -8307,10 +8438,10 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C35" s="53">
         <v>4522.3633673455815</v>
@@ -8417,10 +8548,10 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C36" s="53">
         <v>4645.8187533874998</v>
@@ -8527,10 +8658,10 @@
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C37" s="53">
         <v>4654.7690040318539</v>
@@ -8637,10 +8768,10 @@
     </row>
     <row r="38" spans="1:36" s="23" customFormat="1">
       <c r="A38" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C38" s="53">
         <v>4598.9063450796984</v>
@@ -8747,10 +8878,10 @@
     </row>
     <row r="39" spans="1:36" s="23" customFormat="1">
       <c r="A39" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C39" s="53">
         <v>4826.7338115915436</v>
@@ -8857,10 +8988,10 @@
     </row>
     <row r="40" spans="1:36" s="23" customFormat="1">
       <c r="A40" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C40" s="53">
         <v>4996.613495139718</v>
@@ -8967,10 +9098,10 @@
     </row>
     <row r="41" spans="1:36" s="23" customFormat="1">
       <c r="A41" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C41" s="53">
         <v>5256.8000129437169</v>
@@ -9078,7 +9209,7 @@
     <row r="42" spans="1:36" s="23" customFormat="1"/>
     <row r="43" spans="1:36" s="53" customFormat="1">
       <c r="A43" s="55" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B43" s="55"/>
     </row>
@@ -9088,7 +9219,7 @@
     </row>
     <row r="45" spans="1:36" s="53" customFormat="1">
       <c r="A45" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B45" s="23">
         <v>12.491269722013936</v>
@@ -9096,7 +9227,7 @@
     </row>
     <row r="46" spans="1:36" s="53" customFormat="1">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B46" s="23">
         <v>24.982539444027871</v>
@@ -9104,7 +9235,7 @@
     </row>
     <row r="47" spans="1:36" s="53" customFormat="1">
       <c r="A47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B47" s="23">
         <v>49.965078888055743</v>
@@ -9112,7 +9243,7 @@
     </row>
     <row r="48" spans="1:36" s="53" customFormat="1">
       <c r="A48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B48" s="23">
         <v>320</v>
@@ -9120,7 +9251,7 @@
     </row>
     <row r="49" spans="1:35" s="53" customFormat="1">
       <c r="A49" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B49" s="23">
         <v>320</v>
@@ -9128,7 +9259,7 @@
     </row>
     <row r="50" spans="1:35" s="53" customFormat="1">
       <c r="A50" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B50" s="23">
         <v>12.491269722013936</v>
@@ -9136,7 +9267,7 @@
     </row>
     <row r="51" spans="1:35" s="53" customFormat="1">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B51" s="23">
         <v>24.982539444027871</v>
@@ -9144,7 +9275,7 @@
     </row>
     <row r="52" spans="1:35" s="53" customFormat="1">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B52" s="23">
         <v>49.965078888055743</v>
@@ -9152,7 +9283,7 @@
     </row>
     <row r="53" spans="1:35" s="53" customFormat="1">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B53" s="23">
         <v>99.930157776111486</v>
@@ -9160,7 +9291,7 @@
     </row>
     <row r="54" spans="1:35" s="53" customFormat="1">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B54" s="23">
         <v>199.86031555222297</v>
@@ -9168,7 +9299,7 @@
     </row>
     <row r="55" spans="1:35" s="53" customFormat="1">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B55" s="23">
         <v>199.86031555222297</v>
@@ -9176,7 +9307,7 @@
     </row>
     <row r="56" spans="1:35" s="53" customFormat="1">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B56" s="23">
         <v>199.86031555222297</v>
@@ -9184,7 +9315,7 @@
     </row>
     <row r="57" spans="1:35" s="53" customFormat="1">
       <c r="A57" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B57" s="23">
         <v>199.86031555222297</v>
@@ -9192,7 +9323,7 @@
     </row>
     <row r="58" spans="1:35" s="53" customFormat="1">
       <c r="A58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B58" s="23">
         <v>199.86031555222297</v>
@@ -9200,7 +9331,7 @@
     </row>
     <row r="59" spans="1:35" s="53" customFormat="1">
       <c r="A59" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B59" s="23">
         <v>143.39977640871999</v>
@@ -9209,7 +9340,7 @@
     <row r="60" spans="1:35" s="53" customFormat="1"/>
     <row r="61" spans="1:35" s="23" customFormat="1">
       <c r="A61" s="55" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B61" s="54"/>
       <c r="C61" s="54"/>
@@ -10481,7 +10612,7 @@
     </row>
     <row r="71" spans="1:35">
       <c r="A71" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B71" s="23">
         <f t="shared" ref="B71:AI71" si="8">(SUMPRODUCT(C$27:C$41,$B$45:$B$59)/SUM($B$45:$B$59))/(SUMPRODUCT($C$27:$C$41,$B$45:$B$59)/SUM($B$45:$B$59))</f>
@@ -10647,28 +10778,28 @@
         <v>21</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4">
-        <f>('EIA Costs'!F2*1000)*(About!$A$61)</f>
+        <f>('EIA Costs'!F2*1000)*(About!$A$69)</f>
         <v>30723.759999999998</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!F3*1000*About!$A$61</f>
+        <f>'EIA Costs'!F3*1000*About!$A$69</f>
         <v>53313.02</v>
       </c>
     </row>
@@ -10677,14 +10808,14 @@
         <v>33</v>
       </c>
       <c r="B3" s="4">
-        <f>('EIA Costs'!F4*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F4*1000)*(About!$A$71)</f>
         <v>10359.019</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!F5*1000*About!$A$63</f>
+        <f>'EIA Costs'!F5*1000*About!$A$71</f>
         <v>12836.772000000001</v>
       </c>
     </row>
@@ -10693,14 +10824,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <f>('EIA Costs'!F8*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F8*1000)*(About!$A$71)</f>
         <v>110749.159</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!F8*1000*About!$A$63</f>
+        <f>'EIA Costs'!F8*1000*About!$A$71</f>
         <v>110749.159</v>
       </c>
     </row>
@@ -10709,30 +10840,30 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <f>('EIA Costs'!F11*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F11*1000)*(About!$A$71)</f>
         <v>38062.309000000001</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!F11*1000*About!$A$63</f>
+        <f>'EIA Costs'!F11*1000*About!$A$71</f>
         <v>38062.309000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" s="4">
-        <f>('EIA Costs'!F12*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F12*1000)*(About!$A$71)</f>
         <v>23972.946</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!F12*1000*About!$A$63</f>
+        <f>'EIA Costs'!F12*1000*About!$A$71</f>
         <v>23972.946</v>
       </c>
     </row>
@@ -10741,14 +10872,14 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <f>('EIA Costs'!F15*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F15*1000)*(About!$A$71)</f>
         <v>13888.217000000001</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!F15*1000*About!$A$63</f>
+        <f>'EIA Costs'!F15*1000*About!$A$71</f>
         <v>13888.217000000001</v>
       </c>
     </row>
@@ -10757,14 +10888,14 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <f>('EIA Costs'!F14*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F14*1000)*(About!$A$71)</f>
         <v>77742.929000000004</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!F14*1000*About!$A$63</f>
+        <f>'EIA Costs'!F14*1000*About!$A$71</f>
         <v>77742.929000000004</v>
       </c>
     </row>
@@ -10773,14 +10904,14 @@
         <v>20</v>
       </c>
       <c r="B9" s="4">
-        <f>('EIA Costs'!F9*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F9*1000)*(About!$A$71)</f>
         <v>114461.217</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!F9*1000*About!$A$63</f>
+        <f>'EIA Costs'!F9*1000*About!$A$71</f>
         <v>114461.217</v>
       </c>
     </row>
@@ -10789,14 +10920,14 @@
         <v>34</v>
       </c>
       <c r="B10" s="4">
-        <f>('EIA Costs'!F10*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F10*1000)*(About!$A$71)</f>
         <v>103581.04700000001</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!F10*1000*About!$A$63</f>
+        <f>'EIA Costs'!F10*1000*About!$A$71</f>
         <v>103581.04700000001</v>
       </c>
     </row>
@@ -10805,7 +10936,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="4">
-        <f>(B12)*(About!$A$63)</f>
+        <f>(B12)*(About!$A$71)</f>
         <v>15072.079154700001</v>
       </c>
       <c r="C11" s="23">
@@ -10821,20 +10952,20 @@
         <v>36</v>
       </c>
       <c r="B12" s="4">
-        <f>('EIA Costs'!F6*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F6*1000)*(About!$A$71)</f>
         <v>16484.829000000002</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!F7*1000*About!$A$63</f>
+        <f>'EIA Costs'!F7*1000*About!$A$71</f>
         <v>6372.6710000000003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$35</f>
@@ -10851,23 +10982,23 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4">
-        <f>('EIA Costs'!F13*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F13*1000)*(About!$A$71)</f>
         <v>100152.42200000001</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!F13*1000*About!$A$63</f>
+        <f>'EIA Costs'!F13*1000*About!$A$71</f>
         <v>100152.42200000001</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B15" s="4">
         <f>B11</f>
@@ -10883,7 +11014,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" s="4">
         <f>B11</f>
@@ -10899,17 +11030,17 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B17" s="4">
-        <f>('EIA Costs'!F16*1000)*(About!$A$63)</f>
+        <f>('EIA Costs'!F16*1000)*(About!$A$71)</f>
         <v>18304.286</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!F16*1000*About!$A$63</f>
+        <f>'EIA Costs'!F16*1000*About!$A$71</f>
         <v>18304.286</v>
       </c>
     </row>
@@ -10940,13 +11071,13 @@
         <v>22</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10954,14 +11085,14 @@
         <v>15</v>
       </c>
       <c r="B2" s="16">
-        <f>'EIA Costs'!E2*About!$A$61</f>
+        <f>'EIA Costs'!E2*About!$A$69</f>
         <v>4.4074200000000001</v>
       </c>
       <c r="C2" s="23">
         <v>0</v>
       </c>
       <c r="D2" s="16">
-        <f>'EIA Costs'!E3*About!$A$61</f>
+        <f>'EIA Costs'!E3*About!$A$69</f>
         <v>6.9512999999999998</v>
       </c>
     </row>
@@ -10970,14 +11101,14 @@
         <v>33</v>
       </c>
       <c r="B3" s="16">
-        <f>'EIA Costs'!E4*About!$A$63</f>
+        <f>'EIA Costs'!E4*About!$A$71</f>
         <v>3.3006229999999999</v>
       </c>
       <c r="C3" s="23">
         <v>0</v>
       </c>
       <c r="D3" s="16">
-        <f>'EIA Costs'!E5*About!$A$63</f>
+        <f>'EIA Costs'!E5*About!$A$71</f>
         <v>2.3223220000000002</v>
       </c>
     </row>
@@ -10986,14 +11117,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="16">
-        <f>'EIA Costs'!E8*About!$A$63</f>
+        <f>'EIA Costs'!E8*About!$A$71</f>
         <v>2.1577479999999998</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="16">
-        <f>'EIA Costs'!E8*About!$A$63</f>
+        <f>'EIA Costs'!E8*About!$A$71</f>
         <v>2.1577479999999998</v>
       </c>
     </row>
@@ -11002,30 +11133,30 @@
         <v>17</v>
       </c>
       <c r="B5" s="16">
-        <f>'EIA Costs'!E11*About!$A$63</f>
+        <f>'EIA Costs'!E11*About!$A$71</f>
         <v>1.2708769999999998</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="16">
-        <f>'EIA Costs'!E11*About!$A$63</f>
+        <f>'EIA Costs'!E11*About!$A$71</f>
         <v>1.2708769999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="23" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" s="4">
-        <f>'EIA Costs'!E12*About!$A$63</f>
+        <f>'EIA Costs'!E12*About!$A$71</f>
         <v>0</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!E12*About!$A$63</f>
+        <f>'EIA Costs'!E12*About!$A$71</f>
         <v>0</v>
       </c>
     </row>
@@ -11034,14 +11165,14 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <f>'EIA Costs'!E15*About!$A$63</f>
+        <f>'EIA Costs'!E15*About!$A$71</f>
         <v>0</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!E15*About!$A$63</f>
+        <f>'EIA Costs'!E15*About!$A$71</f>
         <v>0</v>
       </c>
     </row>
@@ -11050,14 +11181,14 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <f>'EIA Costs'!E14*About!$A$63</f>
+        <f>'EIA Costs'!E14*About!$A$71</f>
         <v>0</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!E14*About!$A$63</f>
+        <f>'EIA Costs'!E14*About!$A$71</f>
         <v>0</v>
       </c>
     </row>
@@ -11066,14 +11197,14 @@
         <v>20</v>
       </c>
       <c r="B9" s="16">
-        <f>'EIA Costs'!E9*About!$A$63</f>
+        <f>'EIA Costs'!E9*About!$A$71</f>
         <v>4.3977829999999996</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f>'EIA Costs'!E9*About!$A$63</f>
+        <f>'EIA Costs'!E9*About!$A$71</f>
         <v>4.3977829999999996</v>
       </c>
     </row>
@@ -11082,14 +11213,14 @@
         <v>34</v>
       </c>
       <c r="B10" s="4">
-        <f>'EIA Costs'!E10*About!$A$63</f>
+        <f>'EIA Costs'!E10*About!$A$71</f>
         <v>1.0605879999999999</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!E10*About!$A$63</f>
+        <f>'EIA Costs'!E10*About!$A$71</f>
         <v>1.0605879999999999</v>
       </c>
     </row>
@@ -11114,20 +11245,20 @@
         <v>36</v>
       </c>
       <c r="B12" s="16">
-        <f>'EIA Costs'!E6*About!$A$63</f>
+        <f>'EIA Costs'!E6*About!$A$71</f>
         <v>3.3006229999999999</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
       </c>
       <c r="D12" s="16">
-        <f>'EIA Costs'!E7*About!$A$63</f>
+        <f>'EIA Costs'!E7*About!$A$71</f>
         <v>4.0960640000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B13" s="16">
         <f>B2*'Coal Cost Multipliers'!$B$34</f>
@@ -11144,7 +11275,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B14" s="23">
         <f>'EIA Costs'!E13*1000</f>
@@ -11154,13 +11285,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="23">
-        <f>'EIA Costs'!E13*1000*About!$A$63</f>
+        <f>'EIA Costs'!E13*1000*About!$A$71</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B15" s="16">
         <f>B11</f>
@@ -11176,7 +11307,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" s="16">
         <f>B11</f>
@@ -11192,17 +11323,17 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B17" s="16">
-        <f>'EIA Costs'!E16*About!$A$63</f>
+        <f>'EIA Costs'!E16*About!$A$71</f>
         <v>5.6412310000000003</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="16">
-        <f>'EIA Costs'!E16*About!$A$63</f>
+        <f>'EIA Costs'!E16*About!$A$71</f>
         <v>5.6412310000000003</v>
       </c>
     </row>
@@ -11244,7 +11375,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>37</v>
@@ -11256,7 +11387,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G1" s="13" t="s">
         <v>10</v>
@@ -11277,19 +11408,19 @@
         <v>40</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O1" s="51" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P1" s="51" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -11297,47 +11428,47 @@
         <v>2018</v>
       </c>
       <c r="B2" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4557579.6788879326</v>
       </c>
       <c r="C2" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>962058.30273462704</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5632940.678707079</v>
       </c>
       <c r="E2" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2434233.6034520324</v>
       </c>
       <c r="F2" s="20">
-        <f>'Start Year Wind and Solar'!B3*10^3*About!$A$63</f>
+        <f>'Start Year Wind and Solar'!B3*10^3*About!$A$71</f>
         <v>1344021</v>
       </c>
       <c r="G2" s="20">
-        <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$63</f>
+        <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$71</f>
         <v>1166557.3923166473</v>
       </c>
       <c r="H2" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>6190235.3107596356</v>
       </c>
       <c r="I2" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3680479.6131787207</v>
       </c>
       <c r="J2" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2270817.9963020692</v>
       </c>
       <c r="K2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>636580.52455604961</v>
       </c>
       <c r="L2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>636580.52455604961</v>
       </c>
       <c r="M2" s="4">
@@ -11345,7 +11476,7 @@
         <v>5281971.7859389298</v>
       </c>
       <c r="N2" s="20">
-        <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B45:B59,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B45:B59)*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*10^3*About!$A$63</f>
+        <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B45:B59,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B45:B59)*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*10^3*About!$A$71</f>
         <v>3030248.6826914768</v>
       </c>
       <c r="O2" s="4">
@@ -11357,7 +11488,7 @@
         <v>636580.52455604961</v>
       </c>
       <c r="Q2" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1396322.3093857865</v>
       </c>
     </row>
@@ -11366,19 +11497,19 @@
         <v>2019</v>
       </c>
       <c r="B3" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4528287.3577758651</v>
       </c>
       <c r="C3" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>955174.60546925361</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5593215.3574141553</v>
       </c>
       <c r="E3" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2397171.2069040639</v>
       </c>
       <c r="F3" s="4">
@@ -11388,23 +11519,23 @@
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5922952.6215192685</v>
       </c>
       <c r="I3" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3675567.2263574409</v>
       </c>
       <c r="J3" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2134995.9926041379</v>
       </c>
       <c r="K3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>635581.04911209899</v>
       </c>
       <c r="L3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>635581.04911209899</v>
       </c>
       <c r="M3" s="4">
@@ -11423,7 +11554,7 @@
         <v>635581.04911209899</v>
       </c>
       <c r="Q3" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1394458.6187715731</v>
       </c>
     </row>
@@ -11432,19 +11563,19 @@
         <v>2020</v>
       </c>
       <c r="B4" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4498995.0366637995</v>
       </c>
       <c r="C4" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>948290.90820388054</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5553490.0361212343</v>
       </c>
       <c r="E4" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2360108.8103560968</v>
       </c>
       <c r="F4" s="4">
@@ -11454,23 +11585,23 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5655669.9322789013</v>
       </c>
       <c r="I4" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3669630.1536549246</v>
       </c>
       <c r="J4" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1999173.9889062068</v>
       </c>
       <c r="K4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640133.73800439923</v>
       </c>
       <c r="L4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640133.73800439923</v>
       </c>
       <c r="M4" s="4">
@@ -11489,7 +11620,7 @@
         <v>640133.73800439923</v>
       </c>
       <c r="Q4" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1392206.1767155745</v>
       </c>
     </row>
@@ -11498,19 +11629,19 @@
         <v>2021</v>
       </c>
       <c r="B5" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4469702.7155517321</v>
       </c>
       <c r="C5" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>941407.21093850711</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5513764.7148283115</v>
       </c>
       <c r="E5" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2323046.4138081288</v>
       </c>
       <c r="F5" s="4">
@@ -11520,23 +11651,23 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5388387.243038536</v>
       </c>
       <c r="I5" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3710615.5803474663</v>
       </c>
       <c r="J5" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1863351.9852082757</v>
       </c>
       <c r="K5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>632438.28065955907</v>
       </c>
       <c r="L5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>632438.28065955907</v>
       </c>
       <c r="M5" s="4">
@@ -11555,7 +11686,7 @@
         <v>632438.28065955907</v>
       </c>
       <c r="Q5" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1407755.4723686662</v>
       </c>
     </row>
@@ -11564,19 +11695,19 @@
         <v>2022</v>
       </c>
       <c r="B6" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4440410.3944396656</v>
       </c>
       <c r="C6" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>934523.51367313403</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5474039.3935353896</v>
       </c>
       <c r="E6" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2285984.0172601612</v>
       </c>
       <c r="F6" s="4">
@@ -11586,23 +11717,23 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5072088.2342516193</v>
       </c>
       <c r="I6" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3615350.5806739321</v>
       </c>
       <c r="J6" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1727529.9815103451</v>
       </c>
       <c r="K6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>627720.5347827893</v>
       </c>
       <c r="L6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>627720.5347827893</v>
       </c>
       <c r="M6" s="4">
@@ -11621,7 +11752,7 @@
         <v>627720.5347827893</v>
       </c>
       <c r="Q6" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1371613.268545154</v>
       </c>
     </row>
@@ -11630,19 +11761,19 @@
         <v>2023</v>
       </c>
       <c r="B7" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4411118.0733275991</v>
       </c>
       <c r="C7" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>920364.18721302296</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5434314.0722424677</v>
       </c>
       <c r="E7" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2248921.6207121932</v>
       </c>
       <c r="F7" s="4">
@@ -11652,23 +11783,23 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4800966.0721755233</v>
       </c>
       <c r="I7" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3597882.1504836255</v>
       </c>
       <c r="J7" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1591707.9778124143</v>
       </c>
       <c r="K7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>615347.58558829164</v>
       </c>
       <c r="L7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>615347.58558829164</v>
       </c>
       <c r="M7" s="4">
@@ -11687,7 +11818,7 @@
         <v>615347.58558829164</v>
       </c>
       <c r="Q7" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1364985.9913019019</v>
       </c>
     </row>
@@ -11696,19 +11827,19 @@
         <v>2024</v>
       </c>
       <c r="B8" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4383925.9595025899</v>
       </c>
       <c r="C8" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>913239.77853647328</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5397190.1458511474</v>
       </c>
       <c r="E8" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2211859.2241642252</v>
       </c>
       <c r="F8" s="4">
@@ -11718,23 +11849,23 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4505191.5170499301</v>
       </c>
       <c r="I8" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3582018.7353398106</v>
       </c>
       <c r="J8" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1455885.9741144832</v>
       </c>
       <c r="K8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>609623.64132841176</v>
       </c>
       <c r="L8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>609623.64132841176</v>
       </c>
       <c r="M8" s="4">
@@ -11753,7 +11884,7 @@
         <v>609623.64132841176</v>
       </c>
       <c r="Q8" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1358967.6342407612</v>
       </c>
     </row>
@@ -11762,19 +11893,19 @@
         <v>2025</v>
       </c>
       <c r="B9" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4374794.2380069029</v>
       </c>
       <c r="C9" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>909682.87820068328</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5382297.3522425154</v>
       </c>
       <c r="E9" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2174796.8276162585</v>
       </c>
       <c r="F9" s="4">
@@ -11784,23 +11915,23 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4209416.9619243396</v>
       </c>
       <c r="I9" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3580152.8276873408</v>
       </c>
       <c r="J9" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1320063.9704165517</v>
       </c>
       <c r="K9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>606223.36556319764</v>
       </c>
       <c r="L9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>606223.36556319764</v>
       </c>
       <c r="M9" s="4">
@@ -11819,7 +11950,7 @@
         <v>606223.36556319764</v>
       </c>
       <c r="Q9" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1358259.7350655918</v>
       </c>
     </row>
@@ -11828,19 +11959,19 @@
         <v>2026</v>
       </c>
       <c r="B10" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4363916.1409849636</v>
       </c>
       <c r="C10" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>906052.87835925608</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5365239.2925965758</v>
       </c>
       <c r="E10" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2137734.4310682896</v>
       </c>
       <c r="F10" s="4">
@@ -11850,23 +11981,23 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3913642.4067987497</v>
       </c>
       <c r="I10" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3576955.0329132001</v>
       </c>
       <c r="J10" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1184241.9667186209</v>
       </c>
       <c r="K10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>602857.9705520398</v>
       </c>
       <c r="L10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>602857.9705520398</v>
       </c>
       <c r="M10" s="4">
@@ -11885,7 +12016,7 @@
         <v>602857.9705520398</v>
       </c>
       <c r="Q10" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1357046.5366096133</v>
       </c>
     </row>
@@ -11894,19 +12025,19 @@
         <v>2027</v>
       </c>
       <c r="B11" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4350740.1611245479</v>
       </c>
       <c r="C11" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>902226.95651656261</v>
       </c>
       <c r="D11" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5345342.686611332</v>
       </c>
       <c r="E11" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2100672.0345203225</v>
       </c>
       <c r="F11" s="4">
@@ -11916,23 +12047,23 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3617867.851673157</v>
       </c>
       <c r="I11" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3571990.797706374</v>
       </c>
       <c r="J11" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1048419.9630206898</v>
       </c>
       <c r="K11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>599443.93548026006</v>
       </c>
       <c r="L11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>599443.93548026006</v>
       </c>
       <c r="M11" s="4">
@@ -11951,7 +12082,7 @@
         <v>599443.93548026006</v>
       </c>
       <c r="Q11" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1355163.17544562</v>
       </c>
     </row>
@@ -11960,19 +12091,19 @@
         <v>2028</v>
       </c>
       <c r="B12" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4333046.343578591</v>
       </c>
       <c r="C12" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>898953.47467168875</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5319888.5323113659</v>
       </c>
       <c r="E12" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2063609.6379723544</v>
       </c>
       <c r="F12" s="4">
@@ -11982,23 +12113,23 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3322093.2965475647</v>
       </c>
       <c r="I12" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3563521.302166706</v>
       </c>
       <c r="J12" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>912597.95932275837</v>
       </c>
       <c r="K12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>596840.94162942353</v>
       </c>
       <c r="L12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>596840.94162942353</v>
       </c>
       <c r="M12" s="4">
@@ -12017,7 +12148,7 @@
         <v>596840.94162942353</v>
       </c>
       <c r="Q12" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1351949.9677079825</v>
       </c>
     </row>
@@ -12026,19 +12157,19 @@
         <v>2029</v>
       </c>
       <c r="B13" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4306382.493295013</v>
       </c>
       <c r="C13" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>893843.22195435094</v>
       </c>
       <c r="D13" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5283424.9334751861</v>
       </c>
       <c r="E13" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2026547.2414243866</v>
       </c>
       <c r="F13" s="4">
@@ -12048,23 +12179,23 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3026318.7414219733</v>
       </c>
       <c r="I13" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3548052.8540223199</v>
       </c>
       <c r="J13" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>776775.95562482707</v>
       </c>
       <c r="K13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>593026.04321209737</v>
       </c>
       <c r="L13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>593026.04321209737</v>
       </c>
       <c r="M13" s="4">
@@ -12083,7 +12214,7 @@
         <v>593026.04321209737</v>
       </c>
       <c r="Q13" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1346081.4555830292</v>
       </c>
     </row>
@@ -12092,19 +12223,19 @@
         <v>2030</v>
       </c>
       <c r="B14" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4286729.8869220419</v>
       </c>
       <c r="C14" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>890943.31681565102</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5255568.7933839113</v>
       </c>
       <c r="E14" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1989484.8448764191</v>
       </c>
       <c r="F14" s="4">
@@ -12114,23 +12245,23 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2730544.1862963829</v>
       </c>
       <c r="I14" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3538051.4974978026</v>
       </c>
       <c r="J14" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>590905.00508873118</v>
       </c>
       <c r="L14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>590905.00508873118</v>
       </c>
       <c r="M14" s="4">
@@ -12149,7 +12280,7 @@
         <v>590905.00508873118</v>
       </c>
       <c r="Q14" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1342287.0812875433</v>
       </c>
     </row>
@@ -12158,19 +12289,19 @@
         <v>2031</v>
       </c>
       <c r="B15" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4267192.1028447589</v>
       </c>
       <c r="C15" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>888253.39499304548</v>
       </c>
       <c r="D15" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5227852.1119602192</v>
       </c>
       <c r="E15" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1952422.4483284515</v>
       </c>
       <c r="F15" s="4">
@@ -12180,23 +12311,23 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2703391.9892602018</v>
       </c>
       <c r="I15" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3528140.5335337119</v>
       </c>
       <c r="J15" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>588978.90673516935</v>
       </c>
       <c r="L15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>588978.90673516935</v>
       </c>
       <c r="M15" s="4">
@@ -12215,7 +12346,7 @@
         <v>588978.90673516935</v>
       </c>
       <c r="Q15" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1338527.000660816</v>
       </c>
     </row>
@@ -12224,19 +12355,19 @@
         <v>2032</v>
       </c>
       <c r="B16" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4245321.0464447401</v>
       </c>
       <c r="C16" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>884611.0362725812</v>
       </c>
       <c r="D16" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5197278.1237860257</v>
       </c>
       <c r="E16" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1915360.0517804835</v>
       </c>
       <c r="F16" s="4">
@@ -12246,23 +12377,23 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2676239.7922240188</v>
       </c>
       <c r="I16" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3516399.9480102807</v>
       </c>
       <c r="J16" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>586281.43813565525</v>
       </c>
       <c r="L16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>586281.43813565525</v>
       </c>
       <c r="M16" s="4">
@@ -12281,7 +12412,7 @@
         <v>586281.43813565525</v>
       </c>
       <c r="Q16" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1334072.7872933741</v>
       </c>
     </row>
@@ -12290,19 +12421,19 @@
         <v>2033</v>
       </c>
       <c r="B17" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4225231.4989490611</v>
       </c>
       <c r="C17" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>881747.42832570034</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5168887.3612113139</v>
       </c>
       <c r="E17" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1878297.6552325157</v>
       </c>
       <c r="F17" s="4">
@@ -12312,23 +12443,23 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2649087.5951878377</v>
       </c>
       <c r="I17" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3506054.8292013253</v>
       </c>
       <c r="J17" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>584222.64240803325</v>
       </c>
       <c r="L17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>584222.64240803325</v>
       </c>
       <c r="M17" s="4">
@@ -12347,7 +12478,7 @@
         <v>584222.64240803325</v>
       </c>
       <c r="Q17" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1330147.9944119062</v>
       </c>
     </row>
@@ -12356,19 +12487,19 @@
         <v>2034</v>
       </c>
       <c r="B18" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4208463.5409309175</v>
       </c>
       <c r="C18" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>879278.49019149749</v>
       </c>
       <c r="D18" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5144556.9924184158</v>
       </c>
       <c r="E18" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1841235.2586845479</v>
       </c>
       <c r="F18" s="4">
@@ -12378,23 +12509,23 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2621935.3981516548</v>
       </c>
       <c r="I18" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3498324.1015467704</v>
       </c>
       <c r="J18" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>582335.32315713551</v>
       </c>
       <c r="L18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>582335.32315713551</v>
       </c>
       <c r="M18" s="4">
@@ -12413,7 +12544,7 @@
         <v>582335.32315713551</v>
       </c>
       <c r="Q18" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1327215.064841209</v>
       </c>
     </row>
@@ -12422,19 +12553,19 @@
         <v>2035</v>
       </c>
       <c r="B19" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4186398.8306184118</v>
       </c>
       <c r="C19" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>876080.77976725693</v>
       </c>
       <c r="D19" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5113751.0211141268</v>
       </c>
       <c r="E19" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1804172.86213658</v>
       </c>
       <c r="F19" s="4">
@@ -12444,23 +12575,23 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2594783.2011154736</v>
       </c>
       <c r="I19" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3486425.1131533994</v>
       </c>
       <c r="J19" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>580078.88935867744</v>
       </c>
       <c r="L19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>580078.88935867744</v>
       </c>
       <c r="M19" s="4">
@@ -12479,7 +12610,7 @@
         <v>580078.88935867744</v>
       </c>
       <c r="Q19" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1322700.7556481098</v>
       </c>
     </row>
@@ -12488,19 +12619,19 @@
         <v>2036</v>
       </c>
       <c r="B20" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4166126.8892237116</v>
       </c>
       <c r="C20" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>873031.18542034749</v>
       </c>
       <c r="D20" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5085136.6985640414</v>
       </c>
       <c r="E20" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1794462.9361779527</v>
       </c>
       <c r="F20" s="4">
@@ -12510,23 +12641,23 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2567631.0040792916</v>
       </c>
       <c r="I20" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3475936.55756051</v>
       </c>
       <c r="J20" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>577852.50109153183</v>
       </c>
       <c r="L20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>577852.50109153183</v>
       </c>
       <c r="M20" s="4">
@@ -12545,7 +12676,7 @@
         <v>577852.50109153183</v>
       </c>
       <c r="Q20" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1318721.5448639654</v>
       </c>
     </row>
@@ -12554,19 +12685,19 @@
         <v>2037</v>
       </c>
       <c r="B21" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4144856.7230918976</v>
       </c>
       <c r="C21" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>870245.50664545642</v>
       </c>
       <c r="D21" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5055305.8897382952</v>
       </c>
       <c r="E21" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1784753.010219326</v>
       </c>
       <c r="F21" s="4">
@@ -12576,23 +12707,23 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2540478.80704311</v>
       </c>
       <c r="I21" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3464657.6933189998</v>
       </c>
       <c r="J21" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>575943.52100203745</v>
       </c>
       <c r="L21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>575943.52100203745</v>
       </c>
       <c r="M21" s="4">
@@ -12611,7 +12742,7 @@
         <v>575943.52100203745</v>
       </c>
       <c r="Q21" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1314442.5020705855</v>
       </c>
     </row>
@@ -12620,19 +12751,19 @@
         <v>2038</v>
       </c>
       <c r="B22" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4125867.4823163347</v>
       </c>
       <c r="C22" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>868389.37121165253</v>
       </c>
       <c r="D22" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>5028258.59327613</v>
       </c>
       <c r="E22" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1775043.0842606986</v>
       </c>
       <c r="F22" s="4">
@@ -12642,23 +12773,23 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2513326.610006928</v>
       </c>
       <c r="I22" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3455183.6645810818</v>
       </c>
       <c r="J22" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>574785.58623469959</v>
       </c>
       <c r="L22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>574785.58623469959</v>
       </c>
       <c r="M22" s="4">
@@ -12677,7 +12808,7 @@
         <v>574785.58623469959</v>
       </c>
       <c r="Q22" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1310848.1885362437</v>
       </c>
     </row>
@@ -12686,19 +12817,19 @@
         <v>2039</v>
       </c>
       <c r="B23" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4104680.723820759</v>
       </c>
       <c r="C23" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>866070.37401335512</v>
       </c>
       <c r="D23" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4998531.5290436288</v>
       </c>
       <c r="E23" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1765333.158302071</v>
       </c>
       <c r="F23" s="4">
@@ -12708,23 +12839,23 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2486174.4129707455</v>
       </c>
       <c r="I23" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3443966.4121572562</v>
       </c>
       <c r="J23" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>573321.26147515886</v>
       </c>
       <c r="L23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>573321.26147515886</v>
       </c>
       <c r="M23" s="4">
@@ -12743,7 +12874,7 @@
         <v>573321.26147515886</v>
       </c>
       <c r="Q23" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1306592.5204017661</v>
       </c>
     </row>
@@ -12752,19 +12883,19 @@
         <v>2040</v>
       </c>
       <c r="B24" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4084014.7285643537</v>
       </c>
       <c r="C24" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>863860.25524858502</v>
       </c>
       <c r="D24" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4969440.6376708252</v>
       </c>
       <c r="E24" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1755623.2323434441</v>
       </c>
       <c r="F24" s="4">
@@ -12774,23 +12905,23 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2459022.2159345644</v>
       </c>
       <c r="I24" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3433160.4520611921</v>
       </c>
       <c r="J24" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>571929.01977696037</v>
       </c>
       <c r="L24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>571929.01977696037</v>
       </c>
       <c r="M24" s="4">
@@ -12809,7 +12940,7 @@
         <v>571929.01977696037</v>
       </c>
       <c r="Q24" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1302492.8908039173</v>
       </c>
     </row>
@@ -12818,19 +12949,19 @@
         <v>2041</v>
       </c>
       <c r="B25" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4067550.5033159018</v>
       </c>
       <c r="C25" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>862540.48501902213</v>
       </c>
       <c r="D25" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4945459.5905335443</v>
       </c>
       <c r="E25" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1745913.3063848168</v>
       </c>
       <c r="F25" s="4">
@@ -12840,23 +12971,23 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2431870.0188983819</v>
       </c>
       <c r="I25" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3425700.1078922306</v>
       </c>
       <c r="J25" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>571126.25277404871</v>
       </c>
       <c r="L25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>571126.25277404871</v>
       </c>
       <c r="M25" s="4">
@@ -12875,7 +13006,7 @@
         <v>571126.25277404871</v>
       </c>
       <c r="Q25" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1299662.5409327983</v>
       </c>
     </row>
@@ -12884,19 +13015,19 @@
         <v>2042</v>
       </c>
       <c r="B26" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4041919.4833016312</v>
       </c>
       <c r="C26" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>859275.63459266303</v>
       </c>
       <c r="D26" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4910336.3730173539</v>
       </c>
       <c r="E26" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1736203.3804261896</v>
       </c>
       <c r="F26" s="4">
@@ -12906,23 +13037,23 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2404717.8218621998</v>
       </c>
       <c r="I26" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3410933.8741836962</v>
       </c>
       <c r="J26" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>569035.57651885482</v>
       </c>
       <c r="L26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>569035.57651885482</v>
       </c>
       <c r="M26" s="4">
@@ -12941,7 +13072,7 @@
         <v>569035.57651885482</v>
       </c>
       <c r="Q26" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1294060.4391091652</v>
       </c>
     </row>
@@ -12950,19 +13081,19 @@
         <v>2043</v>
       </c>
       <c r="B27" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4027549.0846800846</v>
       </c>
       <c r="C27" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>858404.68064265454</v>
       </c>
       <c r="D27" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4888892.5746857012</v>
       </c>
       <c r="E27" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1726493.454467562</v>
       </c>
       <c r="F27" s="4">
@@ -12972,23 +13103,23 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2377565.6248260182</v>
       </c>
       <c r="I27" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3405154.6476856545</v>
       </c>
       <c r="J27" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>568530.177953306</v>
       </c>
       <c r="L27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>568530.177953306</v>
       </c>
       <c r="M27" s="4">
@@ -13007,7 +13138,7 @@
         <v>568530.177953306</v>
       </c>
       <c r="Q27" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1291867.8816877592</v>
       </c>
     </row>
@@ -13016,19 +13147,19 @@
         <v>2044</v>
       </c>
       <c r="B28" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>4002808.235279711</v>
       </c>
       <c r="C28" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>855323.90187924227</v>
       </c>
       <c r="D28" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4854859.1300343601</v>
       </c>
       <c r="E28" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1716783.5285089349</v>
       </c>
       <c r="F28" s="4">
@@ -13038,23 +13169,23 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2350413.4277898367</v>
       </c>
       <c r="I28" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3391084.6066551027</v>
       </c>
       <c r="J28" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>566561.19400174171</v>
       </c>
       <c r="L28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>566561.19400174171</v>
       </c>
       <c r="M28" s="4">
@@ -13073,7 +13204,7 @@
         <v>566561.19400174171</v>
       </c>
       <c r="Q28" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1286529.9055950278</v>
       </c>
     </row>
@@ -13082,19 +13213,19 @@
         <v>2045</v>
       </c>
       <c r="B29" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>3987525.789950409</v>
       </c>
       <c r="C29" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>854264.07546210196</v>
       </c>
       <c r="D29" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4832297.6878896719</v>
       </c>
       <c r="E29" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1707073.6025503075</v>
       </c>
       <c r="F29" s="4">
@@ -13104,23 +13235,23 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2323261.2307536541</v>
       </c>
       <c r="I29" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3384590.2237373139</v>
       </c>
       <c r="J29" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>565930.83880835248</v>
       </c>
       <c r="L29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>565930.83880835248</v>
       </c>
       <c r="M29" s="4">
@@ -13139,7 +13270,7 @@
         <v>565930.83880835248</v>
       </c>
       <c r="Q29" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1284066.0278652529</v>
       </c>
     </row>
@@ -13148,19 +13279,19 @@
         <v>2046</v>
       </c>
       <c r="B30" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>3964365.0723133213</v>
       </c>
       <c r="C30" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>851517.47797442612</v>
       </c>
       <c r="D30" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4800188.8840519451</v>
       </c>
       <c r="E30" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1697363.6765916804</v>
       </c>
       <c r="F30" s="4">
@@ -13170,23 +13301,23 @@
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2296109.0337174726</v>
       </c>
       <c r="I30" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3371777.3022148283</v>
       </c>
       <c r="J30" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>564183.11255323095</v>
       </c>
       <c r="L30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>564183.11255323095</v>
       </c>
       <c r="M30" s="4">
@@ -13205,7 +13336,7 @@
         <v>564183.11255323095</v>
       </c>
       <c r="Q30" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1279204.9852700992</v>
       </c>
     </row>
@@ -13214,19 +13345,19 @@
         <v>2047</v>
       </c>
       <c r="B31" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>3944904.6700286916</v>
       </c>
       <c r="C31" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>849564.13218949281</v>
       </c>
       <c r="D31" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4772563.1483514039</v>
       </c>
       <c r="E31" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1687653.7506330532</v>
       </c>
       <c r="F31" s="4">
@@ -13236,23 +13367,23 @@
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2268956.8366812905</v>
       </c>
       <c r="I31" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3361934.7756505935</v>
       </c>
       <c r="J31" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>562960.8983085549</v>
       </c>
       <c r="L31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>562960.8983085549</v>
       </c>
       <c r="M31" s="4">
@@ -13271,7 +13402,7 @@
         <v>562960.8983085549</v>
       </c>
       <c r="Q31" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1275470.8688323523</v>
       </c>
     </row>
@@ -13280,19 +13411,19 @@
         <v>2048</v>
       </c>
       <c r="B32" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>3925379.2073251978</v>
       </c>
       <c r="C32" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>847597.09481380892</v>
       </c>
       <c r="D32" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4744855.6043133195</v>
       </c>
       <c r="E32" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1677943.8246744261</v>
       </c>
       <c r="F32" s="4">
@@ -13302,23 +13433,23 @@
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2241804.6396451085</v>
       </c>
       <c r="I32" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3352040.6597777726</v>
       </c>
       <c r="J32" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>561729.66530371504</v>
       </c>
       <c r="L32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>561729.66530371504</v>
       </c>
       <c r="M32" s="4">
@@ -13337,7 +13468,7 @@
         <v>561729.66530371504</v>
       </c>
       <c r="Q32" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1271717.1801349882</v>
       </c>
     </row>
@@ -13346,19 +13477,19 @@
         <v>2049</v>
       </c>
       <c r="B33" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>3905501.7363179387</v>
       </c>
       <c r="C33" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>845554.54963951895</v>
       </c>
       <c r="D33" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4716723.1390827727</v>
       </c>
       <c r="E33" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1668233.898715799</v>
       </c>
       <c r="F33" s="4">
@@ -13368,23 +13499,23 @@
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2214652.4426089264</v>
       </c>
       <c r="I33" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3341863.5705453139</v>
       </c>
       <c r="J33" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>560448.29901305423</v>
       </c>
       <c r="L33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>560448.29901305423</v>
       </c>
       <c r="M33" s="4">
@@ -13403,7 +13534,7 @@
         <v>560448.29901305423</v>
       </c>
       <c r="Q33" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1267856.1353165335</v>
       </c>
     </row>
@@ -13412,19 +13543,19 @@
         <v>2050</v>
       </c>
       <c r="B34" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
+        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
         <v>3855675.0986996656</v>
       </c>
       <c r="C34" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>837010.54636717902</v>
       </c>
       <c r="D34" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>4652452.4766705297</v>
       </c>
       <c r="E34" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1658523.9727571718</v>
       </c>
       <c r="F34" s="4">
@@ -13434,23 +13565,23 @@
         <v>0</v>
       </c>
       <c r="H34" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>2187500.2455727453</v>
       </c>
       <c r="I34" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>3307435.7945322236</v>
       </c>
       <c r="J34" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>640953.95192689588</v>
       </c>
       <c r="K34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>554857.17842271458</v>
       </c>
       <c r="L34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>554857.17842271458</v>
       </c>
       <c r="M34" s="4">
@@ -13469,7 +13600,7 @@
         <v>554857.17842271458</v>
       </c>
       <c r="Q34" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
+        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
         <v>1254794.7202940234</v>
       </c>
     </row>

--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D5C391-9B6B-41D8-9947-7A9F2F8329BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8719D44E-4CCC-476D-A9D2-38E83270BD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="225" windowWidth="25050" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="825" windowWidth="24765" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -1740,6 +1740,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1763,12 +1769,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="228">
@@ -2689,10 +2689,10 @@
       <c r="K35" s="11"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="B36" s="73"/>
+      <c r="B36" s="65"/>
       <c r="D36" s="7"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -2703,10 +2703,10 @@
       <c r="K36" s="11"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="B37" s="73"/>
+      <c r="B37" s="65"/>
       <c r="D37" s="7"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -4018,25 +4018,25 @@
       <c r="A2" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="66" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4044,13 +4044,13 @@
       <c r="A3" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="65"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="27" t="s">
@@ -11347,7 +11347,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11425,92 +11425,92 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4557579.6788879326</v>
+        <v>4528287.3577758651</v>
       </c>
       <c r="C2" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>962058.30273462704</v>
+        <v>955174.60546925361</v>
       </c>
       <c r="D2" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5632940.678707079</v>
+        <v>5593215.3574141553</v>
       </c>
       <c r="E2" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2434233.6034520324</v>
+        <v>2397171.2069040639</v>
       </c>
       <c r="F2" s="20">
-        <f>'Start Year Wind and Solar'!B3*10^3*About!$A$71</f>
+        <f>'Start Year Wind and Solar'!$B$3*10^3*About!$A$71</f>
         <v>1344021</v>
       </c>
       <c r="G2" s="20">
-        <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$71</f>
+        <f>'Start Year Wind and Solar'!$B$7*10^6/About!$C$25*About!$A$71</f>
         <v>1166557.3923166473</v>
       </c>
       <c r="H2" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>6190235.3107596356</v>
+        <v>5922952.6215192685</v>
       </c>
       <c r="I2" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3680479.6131787207</v>
+        <v>3675567.2263574409</v>
       </c>
       <c r="J2" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2270817.9963020692</v>
+        <v>2134995.9926041379</v>
       </c>
       <c r="K2" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>636580.52455604961</v>
+        <v>635581.04911209899</v>
       </c>
       <c r="L2" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>636580.52455604961</v>
+        <v>635581.04911209899</v>
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
-        <v>5281971.7859389298</v>
+        <v>5248023.67651249</v>
       </c>
       <c r="N2" s="20">
-        <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B45:B59,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B45:B59)*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*10^3*About!$A$71</f>
-        <v>3030248.6826914768</v>
+        <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B46:B60,'Cost Improvement and Off Wnd'!C28:C42)/SUM('Cost Improvement and Off Wnd'!B46:B60)*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*10^3*About!$A$71</f>
+        <v>2918095.5206037629</v>
       </c>
       <c r="O2" s="4">
-        <f>K2</f>
-        <v>636580.52455604961</v>
+        <f t="shared" ref="O2:O33" si="0">K2</f>
+        <v>635581.04911209899</v>
       </c>
       <c r="P2" s="4">
-        <f>K2</f>
-        <v>636580.52455604961</v>
+        <f t="shared" ref="P2:P33" si="1">K2</f>
+        <v>635581.04911209899</v>
       </c>
       <c r="Q2" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1396322.3093857865</v>
+        <v>1394458.6187715731</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4528287.3577758651</v>
+        <v>4498995.0366637995</v>
       </c>
       <c r="C3" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>955174.60546925361</v>
+        <v>948290.90820388054</v>
       </c>
       <c r="D3" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5593215.3574141553</v>
+        <v>5553490.0361212343</v>
       </c>
       <c r="E3" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2397171.2069040639</v>
+        <v>2360108.8103560968</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -11520,63 +11520,63 @@
       </c>
       <c r="H3" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5922952.6215192685</v>
+        <v>5655669.9322789013</v>
       </c>
       <c r="I3" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3675567.2263574409</v>
+        <v>3669630.1536549246</v>
       </c>
       <c r="J3" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2134995.9926041379</v>
+        <v>1999173.9889062068</v>
       </c>
       <c r="K3" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>635581.04911209899</v>
+        <v>640133.73800439923</v>
       </c>
       <c r="L3" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>635581.04911209899</v>
+        <v>640133.73800439923</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
-        <v>5248023.67651249</v>
+        <v>5214075.5670860531</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O34" si="0">K3</f>
-        <v>635581.04911209899</v>
+        <f t="shared" si="0"/>
+        <v>640133.73800439923</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P34" si="1">K3</f>
-        <v>635581.04911209899</v>
+        <f t="shared" si="1"/>
+        <v>640133.73800439923</v>
       </c>
       <c r="Q3" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1394458.6187715731</v>
+        <v>1392206.1767155745</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B4" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4498995.0366637995</v>
+        <v>4469702.7155517321</v>
       </c>
       <c r="C4" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>948290.90820388054</v>
+        <v>941407.21093850711</v>
       </c>
       <c r="D4" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5553490.0361212343</v>
+        <v>5513764.7148283115</v>
       </c>
       <c r="E4" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2360108.8103560968</v>
+        <v>2323046.4138081288</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -11586,63 +11586,63 @@
       </c>
       <c r="H4" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5655669.9322789013</v>
+        <v>5388387.243038536</v>
       </c>
       <c r="I4" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3669630.1536549246</v>
+        <v>3710615.5803474663</v>
       </c>
       <c r="J4" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1999173.9889062068</v>
+        <v>1863351.9852082757</v>
       </c>
       <c r="K4" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>640133.73800439923</v>
+        <v>632438.28065955907</v>
       </c>
       <c r="L4" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>640133.73800439923</v>
+        <v>632438.28065955907</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
-        <v>5214075.5670860531</v>
+        <v>5180127.4576596133</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>640133.73800439923</v>
+        <v>632438.28065955907</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>640133.73800439923</v>
+        <v>632438.28065955907</v>
       </c>
       <c r="Q4" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1392206.1767155745</v>
+        <v>1407755.4723686662</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4469702.7155517321</v>
+        <v>4440410.3944396656</v>
       </c>
       <c r="C5" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>941407.21093850711</v>
+        <v>934523.51367313403</v>
       </c>
       <c r="D5" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5513764.7148283115</v>
+        <v>5474039.3935353896</v>
       </c>
       <c r="E5" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2323046.4138081288</v>
+        <v>2285984.0172601612</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -11652,63 +11652,63 @@
       </c>
       <c r="H5" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5388387.243038536</v>
+        <v>5072088.2342516193</v>
       </c>
       <c r="I5" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3710615.5803474663</v>
+        <v>3615350.5806739321</v>
       </c>
       <c r="J5" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1863351.9852082757</v>
+        <v>1727529.9815103451</v>
       </c>
       <c r="K5" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>632438.28065955907</v>
+        <v>627720.5347827893</v>
       </c>
       <c r="L5" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>632438.28065955907</v>
+        <v>627720.5347827893</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
-        <v>5180127.4576596133</v>
+        <v>5146179.3482331755</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>632438.28065955907</v>
+        <v>627720.5347827893</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>632438.28065955907</v>
+        <v>627720.5347827893</v>
       </c>
       <c r="Q5" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1407755.4723686662</v>
+        <v>1371613.268545154</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B6" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4440410.3944396656</v>
+        <v>4411118.0733275991</v>
       </c>
       <c r="C6" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>934523.51367313403</v>
+        <v>920364.18721302296</v>
       </c>
       <c r="D6" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5474039.3935353896</v>
+        <v>5434314.0722424677</v>
       </c>
       <c r="E6" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2285984.0172601612</v>
+        <v>2248921.6207121932</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -11718,63 +11718,63 @@
       </c>
       <c r="H6" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5072088.2342516193</v>
+        <v>4800966.0721755233</v>
       </c>
       <c r="I6" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3615350.5806739321</v>
+        <v>3597882.1504836255</v>
       </c>
       <c r="J6" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1727529.9815103451</v>
+        <v>1591707.9778124143</v>
       </c>
       <c r="K6" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>627720.5347827893</v>
+        <v>615347.58558829164</v>
       </c>
       <c r="L6" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>627720.5347827893</v>
+        <v>615347.58558829164</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
-        <v>5146179.3482331755</v>
+        <v>5112231.2388067376</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="0"/>
-        <v>627720.5347827893</v>
+        <v>615347.58558829164</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
-        <v>627720.5347827893</v>
+        <v>615347.58558829164</v>
       </c>
       <c r="Q6" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1371613.268545154</v>
+        <v>1364985.9913019019</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B7" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4411118.0733275991</v>
+        <v>4383925.9595025899</v>
       </c>
       <c r="C7" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>920364.18721302296</v>
+        <v>913239.77853647328</v>
       </c>
       <c r="D7" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5434314.0722424677</v>
+        <v>5397190.1458511474</v>
       </c>
       <c r="E7" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2248921.6207121932</v>
+        <v>2211859.2241642252</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -11784,63 +11784,63 @@
       </c>
       <c r="H7" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4800966.0721755233</v>
+        <v>4505191.5170499301</v>
       </c>
       <c r="I7" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3597882.1504836255</v>
+        <v>3582018.7353398106</v>
       </c>
       <c r="J7" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1591707.9778124143</v>
+        <v>1455885.9741144832</v>
       </c>
       <c r="K7" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>615347.58558829164</v>
+        <v>609623.64132841176</v>
       </c>
       <c r="L7" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>615347.58558829164</v>
+        <v>609623.64132841176</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
-        <v>5112231.2388067376</v>
+        <v>5080717.1484027747</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>615347.58558829164</v>
+        <v>609623.64132841176</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>615347.58558829164</v>
+        <v>609623.64132841176</v>
       </c>
       <c r="Q7" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1364985.9913019019</v>
+        <v>1358967.6342407612</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B8" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4383925.9595025899</v>
+        <v>4374794.2380069029</v>
       </c>
       <c r="C8" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>913239.77853647328</v>
+        <v>909682.87820068328</v>
       </c>
       <c r="D8" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5397190.1458511474</v>
+        <v>5382297.3522425154</v>
       </c>
       <c r="E8" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2211859.2241642252</v>
+        <v>2174796.8276162585</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -11850,63 +11850,63 @@
       </c>
       <c r="H8" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4505191.5170499301</v>
+        <v>4209416.9619243396</v>
       </c>
       <c r="I8" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3582018.7353398106</v>
+        <v>3580152.8276873408</v>
       </c>
       <c r="J8" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1455885.9741144832</v>
+        <v>1320063.9704165517</v>
       </c>
       <c r="K8" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>609623.64132841176</v>
+        <v>606223.36556319764</v>
       </c>
       <c r="L8" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>609623.64132841176</v>
+        <v>606223.36556319764</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
-        <v>5080717.1484027747</v>
+        <v>5070134.0102690179</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>609623.64132841176</v>
+        <v>606223.36556319764</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
-        <v>609623.64132841176</v>
+        <v>606223.36556319764</v>
       </c>
       <c r="Q8" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1358967.6342407612</v>
+        <v>1358259.7350655918</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B9" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4374794.2380069029</v>
+        <v>4363916.1409849636</v>
       </c>
       <c r="C9" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>909682.87820068328</v>
+        <v>906052.87835925608</v>
       </c>
       <c r="D9" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5382297.3522425154</v>
+        <v>5365239.2925965758</v>
       </c>
       <c r="E9" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2174796.8276162585</v>
+        <v>2137734.4310682896</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -11916,63 +11916,63 @@
       </c>
       <c r="H9" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4209416.9619243396</v>
+        <v>3913642.4067987497</v>
       </c>
       <c r="I9" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3580152.8276873408</v>
+        <v>3576955.0329132001</v>
       </c>
       <c r="J9" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1320063.9704165517</v>
+        <v>1184241.9667186209</v>
       </c>
       <c r="K9" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>606223.36556319764</v>
+        <v>602857.9705520398</v>
       </c>
       <c r="L9" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>606223.36556319764</v>
+        <v>602857.9705520398</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
-        <v>5070134.0102690179</v>
+        <v>5057526.9237005152</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" si="0"/>
-        <v>606223.36556319764</v>
+        <v>602857.9705520398</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>606223.36556319764</v>
+        <v>602857.9705520398</v>
       </c>
       <c r="Q9" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1358259.7350655918</v>
+        <v>1357046.5366096133</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B10" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4363916.1409849636</v>
+        <v>4350740.1611245479</v>
       </c>
       <c r="C10" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>906052.87835925608</v>
+        <v>902226.95651656261</v>
       </c>
       <c r="D10" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5365239.2925965758</v>
+        <v>5345342.686611332</v>
       </c>
       <c r="E10" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2137734.4310682896</v>
+        <v>2100672.0345203225</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -11982,63 +11982,63 @@
       </c>
       <c r="H10" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3913642.4067987497</v>
+        <v>3617867.851673157</v>
       </c>
       <c r="I10" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3576955.0329132001</v>
+        <v>3571990.797706374</v>
       </c>
       <c r="J10" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1184241.9667186209</v>
+        <v>1048419.9630206898</v>
       </c>
       <c r="K10" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>602857.9705520398</v>
+        <v>599443.93548026006</v>
       </c>
       <c r="L10" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>602857.9705520398</v>
+        <v>599443.93548026006</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
-        <v>5057526.9237005152</v>
+        <v>5042256.7235552054</v>
       </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
         <f t="shared" si="0"/>
-        <v>602857.9705520398</v>
+        <v>599443.93548026006</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>602857.9705520398</v>
+        <v>599443.93548026006</v>
       </c>
       <c r="Q10" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1357046.5366096133</v>
+        <v>1355163.17544562</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B11" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4350740.1611245479</v>
+        <v>4333046.343578591</v>
       </c>
       <c r="C11" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>902226.95651656261</v>
+        <v>898953.47467168875</v>
       </c>
       <c r="D11" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5345342.686611332</v>
+        <v>5319888.5323113659</v>
       </c>
       <c r="E11" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2100672.0345203225</v>
+        <v>2063609.6379723544</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -12048,63 +12048,63 @@
       </c>
       <c r="H11" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3617867.851673157</v>
+        <v>3322093.2965475647</v>
       </c>
       <c r="I11" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3571990.797706374</v>
+        <v>3563521.302166706</v>
       </c>
       <c r="J11" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1048419.9630206898</v>
+        <v>912597.95932275837</v>
       </c>
       <c r="K11" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>599443.93548026006</v>
+        <v>596840.94162942353</v>
       </c>
       <c r="L11" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>599443.93548026006</v>
+        <v>596840.94162942353</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
-        <v>5042256.7235552054</v>
+        <v>5021750.6103003519</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
         <f t="shared" si="0"/>
-        <v>599443.93548026006</v>
+        <v>596840.94162942353</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>599443.93548026006</v>
+        <v>596840.94162942353</v>
       </c>
       <c r="Q11" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1355163.17544562</v>
+        <v>1351949.9677079825</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B12" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4333046.343578591</v>
+        <v>4306382.493295013</v>
       </c>
       <c r="C12" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>898953.47467168875</v>
+        <v>893843.22195435094</v>
       </c>
       <c r="D12" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5319888.5323113659</v>
+        <v>5283424.9334751861</v>
       </c>
       <c r="E12" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2063609.6379723544</v>
+        <v>2026547.2414243866</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -12114,63 +12114,63 @@
       </c>
       <c r="H12" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3322093.2965475647</v>
+        <v>3026318.7414219733</v>
       </c>
       <c r="I12" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3563521.302166706</v>
+        <v>3548052.8540223199</v>
       </c>
       <c r="J12" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>912597.95932275837</v>
+        <v>776775.95562482707</v>
       </c>
       <c r="K12" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>596840.94162942353</v>
+        <v>593026.04321209737</v>
       </c>
       <c r="L12" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>596840.94162942353</v>
+        <v>593026.04321209737</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
-        <v>5021750.6103003519</v>
+        <v>4990848.7468497222</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
         <f t="shared" si="0"/>
-        <v>596840.94162942353</v>
+        <v>593026.04321209737</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
-        <v>596840.94162942353</v>
+        <v>593026.04321209737</v>
       </c>
       <c r="Q12" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1351949.9677079825</v>
+        <v>1346081.4555830292</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B13" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4306382.493295013</v>
+        <v>4286729.8869220419</v>
       </c>
       <c r="C13" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>893843.22195435094</v>
+        <v>890943.31681565102</v>
       </c>
       <c r="D13" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5283424.9334751861</v>
+        <v>5255568.7933839113</v>
       </c>
       <c r="E13" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2026547.2414243866</v>
+        <v>1989484.8448764191</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -12180,63 +12180,63 @@
       </c>
       <c r="H13" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3026318.7414219733</v>
+        <v>2730544.1862963829</v>
       </c>
       <c r="I13" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3548052.8540223199</v>
+        <v>3538051.4974978026</v>
       </c>
       <c r="J13" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>776775.95562482707</v>
+        <v>640953.95192689588</v>
       </c>
       <c r="K13" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>593026.04321209737</v>
+        <v>590905.00508873118</v>
       </c>
       <c r="L13" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>593026.04321209737</v>
+        <v>590905.00508873118</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
-        <v>4990848.7468497222</v>
+        <v>4968072.5104049603</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
         <f t="shared" si="0"/>
-        <v>593026.04321209737</v>
+        <v>590905.00508873118</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
-        <v>593026.04321209737</v>
+        <v>590905.00508873118</v>
       </c>
       <c r="Q13" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1346081.4555830292</v>
+        <v>1342287.0812875433</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B14" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4286729.8869220419</v>
+        <v>4267192.1028447589</v>
       </c>
       <c r="C14" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>890943.31681565102</v>
+        <v>888253.39499304548</v>
       </c>
       <c r="D14" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5255568.7933839113</v>
+        <v>5227852.1119602192</v>
       </c>
       <c r="E14" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1989484.8448764191</v>
+        <v>1952422.4483284515</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -12246,11 +12246,11 @@
       </c>
       <c r="H14" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2730544.1862963829</v>
+        <v>2703391.9892602018</v>
       </c>
       <c r="I14" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3538051.4974978026</v>
+        <v>3528140.5335337119</v>
       </c>
       <c r="J14" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12258,51 +12258,51 @@
       </c>
       <c r="K14" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>590905.00508873118</v>
+        <v>588978.90673516935</v>
       </c>
       <c r="L14" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>590905.00508873118</v>
+        <v>588978.90673516935</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
-        <v>4968072.5104049603</v>
+        <v>4945429.3463733969</v>
       </c>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="0"/>
-        <v>590905.00508873118</v>
+        <v>588978.90673516935</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
-        <v>590905.00508873118</v>
+        <v>588978.90673516935</v>
       </c>
       <c r="Q14" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1342287.0812875433</v>
+        <v>1338527.000660816</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B15" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4267192.1028447589</v>
+        <v>4245321.0464447401</v>
       </c>
       <c r="C15" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>888253.39499304548</v>
+        <v>884611.0362725812</v>
       </c>
       <c r="D15" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5227852.1119602192</v>
+        <v>5197278.1237860257</v>
       </c>
       <c r="E15" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1952422.4483284515</v>
+        <v>1915360.0517804835</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -12312,11 +12312,11 @@
       </c>
       <c r="H15" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2703391.9892602018</v>
+        <v>2676239.7922240188</v>
       </c>
       <c r="I15" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3528140.5335337119</v>
+        <v>3516399.9480102807</v>
       </c>
       <c r="J15" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12324,51 +12324,51 @@
       </c>
       <c r="K15" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>588978.90673516935</v>
+        <v>586281.43813565525</v>
       </c>
       <c r="L15" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>588978.90673516935</v>
+        <v>586281.43813565525</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
-        <v>4945429.3463733969</v>
+        <v>4920082.05439544</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="0"/>
-        <v>588978.90673516935</v>
+        <v>586281.43813565525</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>588978.90673516935</v>
+        <v>586281.43813565525</v>
       </c>
       <c r="Q15" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1338527.000660816</v>
+        <v>1334072.7872933741</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B16" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4245321.0464447401</v>
+        <v>4225231.4989490611</v>
       </c>
       <c r="C16" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>884611.0362725812</v>
+        <v>881747.42832570034</v>
       </c>
       <c r="D16" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5197278.1237860257</v>
+        <v>5168887.3612113139</v>
       </c>
       <c r="E16" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1915360.0517804835</v>
+        <v>1878297.6552325157</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -12378,11 +12378,11 @@
       </c>
       <c r="H16" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2676239.7922240188</v>
+        <v>2649087.5951878377</v>
       </c>
       <c r="I16" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3516399.9480102807</v>
+        <v>3506054.8292013253</v>
       </c>
       <c r="J16" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12390,51 +12390,51 @@
       </c>
       <c r="K16" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>586281.43813565525</v>
+        <v>584222.64240803325</v>
       </c>
       <c r="L16" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>586281.43813565525</v>
+        <v>584222.64240803325</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
-        <v>4920082.05439544</v>
+        <v>4896799.4284095466</v>
       </c>
       <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16" s="4">
         <f t="shared" si="0"/>
-        <v>586281.43813565525</v>
+        <v>584222.64240803325</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="1"/>
-        <v>586281.43813565525</v>
+        <v>584222.64240803325</v>
       </c>
       <c r="Q16" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1334072.7872933741</v>
+        <v>1330147.9944119062</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B17" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4225231.4989490611</v>
+        <v>4208463.5409309175</v>
       </c>
       <c r="C17" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>881747.42832570034</v>
+        <v>879278.49019149749</v>
       </c>
       <c r="D17" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5168887.3612113139</v>
+        <v>5144556.9924184158</v>
       </c>
       <c r="E17" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1878297.6552325157</v>
+        <v>1841235.2586845479</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -12444,11 +12444,11 @@
       </c>
       <c r="H17" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2649087.5951878377</v>
+        <v>2621935.3981516548</v>
       </c>
       <c r="I17" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3506054.8292013253</v>
+        <v>3498324.1015467704</v>
       </c>
       <c r="J17" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12456,51 +12456,51 @@
       </c>
       <c r="K17" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>584222.64240803325</v>
+        <v>582335.32315713551</v>
       </c>
       <c r="L17" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>584222.64240803325</v>
+        <v>582335.32315713551</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
-        <v>4896799.4284095466</v>
+        <v>4877366.332907143</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
         <f t="shared" si="0"/>
-        <v>584222.64240803325</v>
+        <v>582335.32315713551</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="1"/>
-        <v>584222.64240803325</v>
+        <v>582335.32315713551</v>
       </c>
       <c r="Q17" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1330147.9944119062</v>
+        <v>1327215.064841209</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B18" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4208463.5409309175</v>
+        <v>4186398.8306184118</v>
       </c>
       <c r="C18" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>879278.49019149749</v>
+        <v>876080.77976725693</v>
       </c>
       <c r="D18" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5144556.9924184158</v>
+        <v>5113751.0211141268</v>
       </c>
       <c r="E18" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1841235.2586845479</v>
+        <v>1804172.86213658</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -12510,11 +12510,11 @@
       </c>
       <c r="H18" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2621935.3981516548</v>
+        <v>2594783.2011154736</v>
       </c>
       <c r="I18" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3498324.1015467704</v>
+        <v>3486425.1131533994</v>
       </c>
       <c r="J18" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12522,51 +12522,51 @@
       </c>
       <c r="K18" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>582335.32315713551</v>
+        <v>580078.88935867744</v>
       </c>
       <c r="L18" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>582335.32315713551</v>
+        <v>580078.88935867744</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
-        <v>4877366.332907143</v>
+        <v>4851794.6072222488</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
         <f t="shared" si="0"/>
-        <v>582335.32315713551</v>
+        <v>580078.88935867744</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="1"/>
-        <v>582335.32315713551</v>
+        <v>580078.88935867744</v>
       </c>
       <c r="Q18" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1327215.064841209</v>
+        <v>1322700.7556481098</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B19" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4186398.8306184118</v>
+        <v>4166126.8892237116</v>
       </c>
       <c r="C19" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>876080.77976725693</v>
+        <v>873031.18542034749</v>
       </c>
       <c r="D19" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5113751.0211141268</v>
+        <v>5085136.6985640414</v>
       </c>
       <c r="E19" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1804172.86213658</v>
+        <v>1794462.9361779527</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -12576,11 +12576,11 @@
       </c>
       <c r="H19" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2594783.2011154736</v>
+        <v>2567631.0040792916</v>
       </c>
       <c r="I19" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3486425.1131533994</v>
+        <v>3475936.55756051</v>
       </c>
       <c r="J19" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12588,51 +12588,51 @@
       </c>
       <c r="K19" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>580078.88935867744</v>
+        <v>577852.50109153183</v>
       </c>
       <c r="L19" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>580078.88935867744</v>
+        <v>577852.50109153183</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
-        <v>4851794.6072222488</v>
+        <v>4828300.5972351003</v>
       </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
         <f t="shared" si="0"/>
-        <v>580078.88935867744</v>
+        <v>577852.50109153183</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="1"/>
-        <v>580078.88935867744</v>
+        <v>577852.50109153183</v>
       </c>
       <c r="Q19" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1322700.7556481098</v>
+        <v>1318721.5448639654</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B20" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4166126.8892237116</v>
+        <v>4144856.7230918976</v>
       </c>
       <c r="C20" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>873031.18542034749</v>
+        <v>870245.50664545642</v>
       </c>
       <c r="D20" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5085136.6985640414</v>
+        <v>5055305.8897382952</v>
       </c>
       <c r="E20" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1794462.9361779527</v>
+        <v>1784753.010219326</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -12642,11 +12642,11 @@
       </c>
       <c r="H20" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2567631.0040792916</v>
+        <v>2540478.80704311</v>
       </c>
       <c r="I20" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3475936.55756051</v>
+        <v>3464657.6933189998</v>
       </c>
       <c r="J20" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12654,51 +12654,51 @@
       </c>
       <c r="K20" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>577852.50109153183</v>
+        <v>575943.52100203745</v>
       </c>
       <c r="L20" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>577852.50109153183</v>
+        <v>575943.52100203745</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
-        <v>4828300.5972351003</v>
+        <v>4803649.702394818</v>
       </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" s="4">
         <f t="shared" si="0"/>
-        <v>577852.50109153183</v>
+        <v>575943.52100203745</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="1"/>
-        <v>577852.50109153183</v>
+        <v>575943.52100203745</v>
       </c>
       <c r="Q20" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1318721.5448639654</v>
+        <v>1314442.5020705855</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B21" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4144856.7230918976</v>
+        <v>4125867.4823163347</v>
       </c>
       <c r="C21" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>870245.50664545642</v>
+        <v>868389.37121165253</v>
       </c>
       <c r="D21" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5055305.8897382952</v>
+        <v>5028258.59327613</v>
       </c>
       <c r="E21" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1784753.010219326</v>
+        <v>1775043.0842606986</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -12708,11 +12708,11 @@
       </c>
       <c r="H21" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2540478.80704311</v>
+        <v>2513326.610006928</v>
       </c>
       <c r="I21" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3464657.6933189998</v>
+        <v>3455183.6645810818</v>
       </c>
       <c r="J21" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12720,51 +12720,51 @@
       </c>
       <c r="K21" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>575943.52100203745</v>
+        <v>574785.58623469959</v>
       </c>
       <c r="L21" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>575943.52100203745</v>
+        <v>574785.58623469959</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
-        <v>4803649.702394818</v>
+        <v>4781642.2683882229</v>
       </c>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
         <f t="shared" si="0"/>
-        <v>575943.52100203745</v>
+        <v>574785.58623469959</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
-        <v>575943.52100203745</v>
+        <v>574785.58623469959</v>
       </c>
       <c r="Q21" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1314442.5020705855</v>
+        <v>1310848.1885362437</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B22" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4125867.4823163347</v>
+        <v>4104680.723820759</v>
       </c>
       <c r="C22" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>868389.37121165253</v>
+        <v>866070.37401335512</v>
       </c>
       <c r="D22" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>5028258.59327613</v>
+        <v>4998531.5290436288</v>
       </c>
       <c r="E22" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1775043.0842606986</v>
+        <v>1765333.158302071</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -12774,11 +12774,11 @@
       </c>
       <c r="H22" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2513326.610006928</v>
+        <v>2486174.4129707455</v>
       </c>
       <c r="I22" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3455183.6645810818</v>
+        <v>3443966.4121572562</v>
       </c>
       <c r="J22" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12786,51 +12786,51 @@
       </c>
       <c r="K22" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>574785.58623469959</v>
+        <v>573321.26147515886</v>
       </c>
       <c r="L22" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>574785.58623469959</v>
+        <v>573321.26147515886</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
-        <v>4781642.2683882229</v>
+        <v>4757088.0381840812</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="4">
         <f t="shared" si="0"/>
-        <v>574785.58623469959</v>
+        <v>573321.26147515886</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="1"/>
-        <v>574785.58623469959</v>
+        <v>573321.26147515886</v>
       </c>
       <c r="Q22" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1310848.1885362437</v>
+        <v>1306592.5204017661</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B23" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4104680.723820759</v>
+        <v>4084014.7285643537</v>
       </c>
       <c r="C23" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>866070.37401335512</v>
+        <v>863860.25524858502</v>
       </c>
       <c r="D23" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4998531.5290436288</v>
+        <v>4969440.6376708252</v>
       </c>
       <c r="E23" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1765333.158302071</v>
+        <v>1755623.2323434441</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -12840,11 +12840,11 @@
       </c>
       <c r="H23" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2486174.4129707455</v>
+        <v>2459022.2159345644</v>
       </c>
       <c r="I23" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3443966.4121572562</v>
+        <v>3433160.4520611921</v>
       </c>
       <c r="J23" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12852,51 +12852,51 @@
       </c>
       <c r="K23" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>573321.26147515886</v>
+        <v>571929.01977696037</v>
       </c>
       <c r="L23" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>573321.26147515886</v>
+        <v>571929.01977696037</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
-        <v>4757088.0381840812</v>
+        <v>4733137.3425158681</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
         <f t="shared" si="0"/>
-        <v>573321.26147515886</v>
+        <v>571929.01977696037</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>573321.26147515886</v>
+        <v>571929.01977696037</v>
       </c>
       <c r="Q23" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1306592.5204017661</v>
+        <v>1302492.8908039173</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B24" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4084014.7285643537</v>
+        <v>4067550.5033159018</v>
       </c>
       <c r="C24" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>863860.25524858502</v>
+        <v>862540.48501902213</v>
       </c>
       <c r="D24" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4969440.6376708252</v>
+        <v>4945459.5905335443</v>
       </c>
       <c r="E24" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1755623.2323434441</v>
+        <v>1745913.3063848168</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -12906,11 +12906,11 @@
       </c>
       <c r="H24" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2459022.2159345644</v>
+        <v>2431870.0188983819</v>
       </c>
       <c r="I24" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3433160.4520611921</v>
+        <v>3425700.1078922306</v>
       </c>
       <c r="J24" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12918,51 +12918,51 @@
       </c>
       <c r="K24" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>571929.01977696037</v>
+        <v>571126.25277404871</v>
       </c>
       <c r="L24" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>571929.01977696037</v>
+        <v>571126.25277404871</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
-        <v>4733137.3425158681</v>
+        <v>4714056.2557621887</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="4">
         <f t="shared" si="0"/>
-        <v>571929.01977696037</v>
+        <v>571126.25277404871</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>571929.01977696037</v>
+        <v>571126.25277404871</v>
       </c>
       <c r="Q24" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1302492.8908039173</v>
+        <v>1299662.5409327983</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B25" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4067550.5033159018</v>
+        <v>4041919.4833016312</v>
       </c>
       <c r="C25" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>862540.48501902213</v>
+        <v>859275.63459266303</v>
       </c>
       <c r="D25" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4945459.5905335443</v>
+        <v>4910336.3730173539</v>
       </c>
       <c r="E25" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1745913.3063848168</v>
+        <v>1736203.3804261896</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -12972,11 +12972,11 @@
       </c>
       <c r="H25" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2431870.0188983819</v>
+        <v>2404717.8218621998</v>
       </c>
       <c r="I25" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3425700.1078922306</v>
+        <v>3410933.8741836962</v>
       </c>
       <c r="J25" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -12984,51 +12984,51 @@
       </c>
       <c r="K25" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>571126.25277404871</v>
+        <v>569035.57651885482</v>
       </c>
       <c r="L25" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>571126.25277404871</v>
+        <v>569035.57651885482</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
-        <v>4714056.2557621887</v>
+        <v>4684351.3829790875</v>
       </c>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
         <f t="shared" si="0"/>
-        <v>571126.25277404871</v>
+        <v>569035.57651885482</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="1"/>
-        <v>571126.25277404871</v>
+        <v>569035.57651885482</v>
       </c>
       <c r="Q25" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1299662.5409327983</v>
+        <v>1294060.4391091652</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B26" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4041919.4833016312</v>
+        <v>4027549.0846800846</v>
       </c>
       <c r="C26" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>859275.63459266303</v>
+        <v>858404.68064265454</v>
       </c>
       <c r="D26" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4910336.3730173539</v>
+        <v>4888892.5746857012</v>
       </c>
       <c r="E26" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1736203.3804261896</v>
+        <v>1726493.454467562</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -13038,11 +13038,11 @@
       </c>
       <c r="H26" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2404717.8218621998</v>
+        <v>2377565.6248260182</v>
       </c>
       <c r="I26" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3410933.8741836962</v>
+        <v>3405154.6476856545</v>
       </c>
       <c r="J26" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -13050,51 +13050,51 @@
       </c>
       <c r="K26" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>569035.57651885482</v>
+        <v>568530.177953306</v>
       </c>
       <c r="L26" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>569035.57651885482</v>
+        <v>568530.177953306</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
-        <v>4684351.3829790875</v>
+        <v>4667696.920431057</v>
       </c>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
         <f t="shared" si="0"/>
-        <v>569035.57651885482</v>
+        <v>568530.177953306</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="1"/>
-        <v>569035.57651885482</v>
+        <v>568530.177953306</v>
       </c>
       <c r="Q26" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1294060.4391091652</v>
+        <v>1291867.8816877592</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B27" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4027549.0846800846</v>
+        <v>4002808.235279711</v>
       </c>
       <c r="C27" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>858404.68064265454</v>
+        <v>855323.90187924227</v>
       </c>
       <c r="D27" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4888892.5746857012</v>
+        <v>4854859.1300343601</v>
       </c>
       <c r="E27" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1726493.454467562</v>
+        <v>1716783.5285089349</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -13104,11 +13104,11 @@
       </c>
       <c r="H27" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2377565.6248260182</v>
+        <v>2350413.4277898367</v>
       </c>
       <c r="I27" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3405154.6476856545</v>
+        <v>3391084.6066551027</v>
       </c>
       <c r="J27" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -13116,51 +13116,51 @@
       </c>
       <c r="K27" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>568530.177953306</v>
+        <v>566561.19400174171</v>
       </c>
       <c r="L27" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>568530.177953306</v>
+        <v>566561.19400174171</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
-        <v>4667696.920431057</v>
+        <v>4639023.7040091278</v>
       </c>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" si="0"/>
-        <v>568530.177953306</v>
+        <v>566561.19400174171</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="1"/>
-        <v>568530.177953306</v>
+        <v>566561.19400174171</v>
       </c>
       <c r="Q27" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1291867.8816877592</v>
+        <v>1286529.9055950278</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B28" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>4002808.235279711</v>
+        <v>3987525.789950409</v>
       </c>
       <c r="C28" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>855323.90187924227</v>
+        <v>854264.07546210196</v>
       </c>
       <c r="D28" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4854859.1300343601</v>
+        <v>4832297.6878896719</v>
       </c>
       <c r="E28" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1716783.5285089349</v>
+        <v>1707073.6025503075</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -13170,11 +13170,11 @@
       </c>
       <c r="H28" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2350413.4277898367</v>
+        <v>2323261.2307536541</v>
       </c>
       <c r="I28" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3391084.6066551027</v>
+        <v>3384590.2237373139</v>
       </c>
       <c r="J28" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -13182,51 +13182,51 @@
       </c>
       <c r="K28" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>566561.19400174171</v>
+        <v>565930.83880835248</v>
       </c>
       <c r="L28" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>566561.19400174171</v>
+        <v>565930.83880835248</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
-        <v>4639023.7040091278</v>
+        <v>4621312.2319698231</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="0"/>
-        <v>566561.19400174171</v>
+        <v>565930.83880835248</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>566561.19400174171</v>
+        <v>565930.83880835248</v>
       </c>
       <c r="Q28" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1286529.9055950278</v>
+        <v>1284066.0278652529</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B29" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>3987525.789950409</v>
+        <v>3964365.0723133213</v>
       </c>
       <c r="C29" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>854264.07546210196</v>
+        <v>851517.47797442612</v>
       </c>
       <c r="D29" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4832297.6878896719</v>
+        <v>4800188.8840519451</v>
       </c>
       <c r="E29" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1707073.6025503075</v>
+        <v>1697363.6765916804</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -13236,11 +13236,11 @@
       </c>
       <c r="H29" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2323261.2307536541</v>
+        <v>2296109.0337174726</v>
       </c>
       <c r="I29" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3384590.2237373139</v>
+        <v>3371777.3022148283</v>
       </c>
       <c r="J29" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -13248,51 +13248,51 @@
       </c>
       <c r="K29" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>565930.83880835248</v>
+        <v>564183.11255323095</v>
       </c>
       <c r="L29" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>565930.83880835248</v>
+        <v>564183.11255323095</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
-        <v>4621312.2319698231</v>
+        <v>4594470.2970568947</v>
       </c>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
         <f t="shared" si="0"/>
-        <v>565930.83880835248</v>
+        <v>564183.11255323095</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="1"/>
-        <v>565930.83880835248</v>
+        <v>564183.11255323095</v>
       </c>
       <c r="Q29" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1284066.0278652529</v>
+        <v>1279204.9852700992</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B30" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>3964365.0723133213</v>
+        <v>3944904.6700286916</v>
       </c>
       <c r="C30" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>851517.47797442612</v>
+        <v>849564.13218949281</v>
       </c>
       <c r="D30" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4800188.8840519451</v>
+        <v>4772563.1483514039</v>
       </c>
       <c r="E30" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1697363.6765916804</v>
+        <v>1687653.7506330532</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -13302,11 +13302,11 @@
       </c>
       <c r="H30" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2296109.0337174726</v>
+        <v>2268956.8366812905</v>
       </c>
       <c r="I30" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3371777.3022148283</v>
+        <v>3361934.7756505935</v>
       </c>
       <c r="J30" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -13314,51 +13314,51 @@
       </c>
       <c r="K30" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>564183.11255323095</v>
+        <v>562960.8983085549</v>
       </c>
       <c r="L30" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>564183.11255323095</v>
+        <v>562960.8983085549</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
-        <v>4594470.2970568947</v>
+        <v>4571916.8140565678</v>
       </c>
       <c r="N30" s="4">
         <v>0</v>
       </c>
       <c r="O30" s="4">
         <f t="shared" si="0"/>
-        <v>564183.11255323095</v>
+        <v>562960.8983085549</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="1"/>
-        <v>564183.11255323095</v>
+        <v>562960.8983085549</v>
       </c>
       <c r="Q30" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1279204.9852700992</v>
+        <v>1275470.8688323523</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B31" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>3944904.6700286916</v>
+        <v>3925379.2073251978</v>
       </c>
       <c r="C31" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>849564.13218949281</v>
+        <v>847597.09481380892</v>
       </c>
       <c r="D31" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4772563.1483514039</v>
+        <v>4744855.6043133195</v>
       </c>
       <c r="E31" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1687653.7506330532</v>
+        <v>1677943.8246744261</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -13368,11 +13368,11 @@
       </c>
       <c r="H31" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2268956.8366812905</v>
+        <v>2241804.6396451085</v>
       </c>
       <c r="I31" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3361934.7756505935</v>
+        <v>3352040.6597777726</v>
       </c>
       <c r="J31" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -13380,51 +13380,51 @@
       </c>
       <c r="K31" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>562960.8983085549</v>
+        <v>561729.66530371504</v>
       </c>
       <c r="L31" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>562960.8983085549</v>
+        <v>561729.66530371504</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
-        <v>4571916.8140565678</v>
+        <v>4549287.9297860414</v>
       </c>
       <c r="N31" s="4">
         <v>0</v>
       </c>
       <c r="O31" s="4">
         <f t="shared" si="0"/>
-        <v>562960.8983085549</v>
+        <v>561729.66530371504</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="1"/>
-        <v>562960.8983085549</v>
+        <v>561729.66530371504</v>
       </c>
       <c r="Q31" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1275470.8688323523</v>
+        <v>1271717.1801349882</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B32" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>3925379.2073251978</v>
+        <v>3905501.7363179387</v>
       </c>
       <c r="C32" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>847597.09481380892</v>
+        <v>845554.54963951895</v>
       </c>
       <c r="D32" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4744855.6043133195</v>
+        <v>4716723.1390827727</v>
       </c>
       <c r="E32" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1677943.8246744261</v>
+        <v>1668233.898715799</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -13434,11 +13434,11 @@
       </c>
       <c r="H32" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2241804.6396451085</v>
+        <v>2214652.4426089264</v>
       </c>
       <c r="I32" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3352040.6597777726</v>
+        <v>3341863.5705453139</v>
       </c>
       <c r="J32" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -13446,51 +13446,51 @@
       </c>
       <c r="K32" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>561729.66530371504</v>
+        <v>560448.29901305423</v>
       </c>
       <c r="L32" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>561729.66530371504</v>
+        <v>560448.29901305423</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
-        <v>4549287.9297860414</v>
+        <v>4526251.0882092463</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
         <f t="shared" si="0"/>
-        <v>561729.66530371504</v>
+        <v>560448.29901305423</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>561729.66530371504</v>
+        <v>560448.29901305423</v>
       </c>
       <c r="Q32" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1271717.1801349882</v>
+        <v>1267856.1353165335</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B33" s="4">
         <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>3905501.7363179387</v>
+        <v>3855675.0986996656</v>
       </c>
       <c r="C33" s="4">
         <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>845554.54963951895</v>
+        <v>837010.54636717902</v>
       </c>
       <c r="D33" s="4">
         <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4716723.1390827727</v>
+        <v>4652452.4766705297</v>
       </c>
       <c r="E33" s="4">
         <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1668233.898715799</v>
+        <v>1658523.9727571718</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -13500,11 +13500,11 @@
       </c>
       <c r="H33" s="4">
         <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2214652.4426089264</v>
+        <v>2187500.2455727453</v>
       </c>
       <c r="I33" s="4">
         <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3341863.5705453139</v>
+        <v>3307435.7945322236</v>
       </c>
       <c r="J33" s="4">
         <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
@@ -13512,97 +13512,34 @@
       </c>
       <c r="K33" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>560448.29901305423</v>
+        <v>554857.17842271458</v>
       </c>
       <c r="L33" s="4">
         <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>560448.29901305423</v>
+        <v>554857.17842271458</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
-        <v>4526251.0882092463</v>
+        <v>4468504.8911856236</v>
       </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="4">
         <f t="shared" si="0"/>
-        <v>560448.29901305423</v>
+        <v>554857.17842271458</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="1"/>
-        <v>560448.29901305423</v>
+        <v>554857.17842271458</v>
       </c>
       <c r="Q33" s="4">
         <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1267856.1353165335</v>
+        <v>1254794.7202940234</v>
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B34" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$69</f>
-        <v>3855675.0986996656</v>
-      </c>
-      <c r="C34" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>837010.54636717902</v>
-      </c>
-      <c r="D34" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>4652452.4766705297</v>
-      </c>
-      <c r="E34" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1658523.9727571718</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>2187500.2455727453</v>
-      </c>
-      <c r="I34" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>3307435.7945322236</v>
-      </c>
-      <c r="J34" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>640953.95192689588</v>
-      </c>
-      <c r="K34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>554857.17842271458</v>
-      </c>
-      <c r="L34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>554857.17842271458</v>
-      </c>
-      <c r="M34" s="4">
-        <f>B34*'Coal Cost Multipliers'!$B$33</f>
-        <v>4468504.8911856236</v>
-      </c>
-      <c r="N34" s="4">
-        <v>0</v>
-      </c>
-      <c r="O34" s="4">
-        <f t="shared" si="0"/>
-        <v>554857.17842271458</v>
-      </c>
-      <c r="P34" s="4">
-        <f t="shared" si="1"/>
-        <v>554857.17842271458</v>
-      </c>
-      <c r="Q34" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$73</f>
-        <v>1254794.7202940234</v>
-      </c>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="1:17">
       <c r="B35" s="12"/>
@@ -13639,9 +13576,6 @@
     </row>
     <row r="46" spans="1:17">
       <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="B47" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
